--- a/Code/Results/Cases/Case_4_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_bus/vm_pu.xlsx
@@ -424,7 +424,7 @@
         <v>0.9808193548112214</v>
       </c>
       <c r="D2">
-        <v>1.000741990233828</v>
+        <v>1.000741990233827</v>
       </c>
       <c r="E2">
         <v>0.9910751600290283</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.993530100339382</v>
+        <v>0.9935301003393838</v>
       </c>
       <c r="D3">
-        <v>1.010590636097827</v>
+        <v>1.010590636097829</v>
       </c>
       <c r="E3">
-        <v>1.003236104950197</v>
+        <v>1.003236104950199</v>
       </c>
       <c r="F3">
-        <v>1.007621021553398</v>
+        <v>1.0076210215534</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041699810379013</v>
+        <v>1.041699810379014</v>
       </c>
       <c r="J3">
-        <v>1.014198708851362</v>
+        <v>1.014198708851364</v>
       </c>
       <c r="K3">
-        <v>1.021089777672026</v>
+        <v>1.021089777672028</v>
       </c>
       <c r="L3">
-        <v>1.013827745990813</v>
+        <v>1.013827745990815</v>
       </c>
       <c r="M3">
-        <v>1.018157309890922</v>
+        <v>1.018157309890924</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001327499800903</v>
+        <v>1.001327499800907</v>
       </c>
       <c r="D4">
-        <v>1.016629740922242</v>
+        <v>1.016629740922245</v>
       </c>
       <c r="E4">
-        <v>1.010703204868672</v>
+        <v>1.010703204868676</v>
       </c>
       <c r="F4">
-        <v>1.015155190365291</v>
+        <v>1.015155190365295</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044659452695467</v>
+        <v>1.044659452695469</v>
       </c>
       <c r="J4">
-        <v>1.02069730884831</v>
+        <v>1.020697308848314</v>
       </c>
       <c r="K4">
-        <v>1.026531518684839</v>
+        <v>1.026531518684842</v>
       </c>
       <c r="L4">
-        <v>1.020674145420943</v>
+        <v>1.020674145420946</v>
       </c>
       <c r="M4">
-        <v>1.025074082859045</v>
+        <v>1.025074082859048</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -538,10 +538,10 @@
         <v>1.004513129403379</v>
       </c>
       <c r="D5">
-        <v>1.019096168091064</v>
+        <v>1.019096168091063</v>
       </c>
       <c r="E5">
-        <v>1.013755409277577</v>
+        <v>1.013755409277576</v>
       </c>
       <c r="F5">
         <v>1.018235866722895</v>
@@ -550,16 +550,16 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045863301718505</v>
+        <v>1.045863301718504</v>
       </c>
       <c r="J5">
-        <v>1.023349879283622</v>
+        <v>1.023349879283621</v>
       </c>
       <c r="K5">
         <v>1.028750492634543</v>
       </c>
       <c r="L5">
-        <v>1.023470095605736</v>
+        <v>1.023470095605735</v>
       </c>
       <c r="M5">
         <v>1.027899861775385</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005042851081268</v>
+        <v>1.005042851081271</v>
       </c>
       <c r="D6">
-        <v>1.019506240891841</v>
+        <v>1.019506240891843</v>
       </c>
       <c r="E6">
-        <v>1.014263029706646</v>
+        <v>1.014263029706649</v>
       </c>
       <c r="F6">
-        <v>1.018748283664607</v>
+        <v>1.01874828366461</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046063168254247</v>
+        <v>1.046063168254249</v>
       </c>
       <c r="J6">
-        <v>1.023790815458237</v>
+        <v>1.02379081545824</v>
       </c>
       <c r="K6">
-        <v>1.029119220725788</v>
+        <v>1.029119220725791</v>
       </c>
       <c r="L6">
-        <v>1.023934948837509</v>
+        <v>1.023934948837512</v>
       </c>
       <c r="M6">
-        <v>1.028369737568304</v>
+        <v>1.028369737568307</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001370417487155</v>
+        <v>1.001370417487152</v>
       </c>
       <c r="D7">
-        <v>1.016662972990812</v>
+        <v>1.01666297299081</v>
       </c>
       <c r="E7">
-        <v>1.010744319164416</v>
+        <v>1.010744319164414</v>
       </c>
       <c r="F7">
-        <v>1.015196684030943</v>
+        <v>1.015196684030941</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044675692519127</v>
+        <v>1.044675692519125</v>
       </c>
       <c r="J7">
-        <v>1.02073305481032</v>
+        <v>1.020733054810317</v>
       </c>
       <c r="K7">
-        <v>1.026561430366427</v>
+        <v>1.026561430366425</v>
       </c>
       <c r="L7">
-        <v>1.020711817945867</v>
+        <v>1.020711817945865</v>
       </c>
       <c r="M7">
-        <v>1.025112153004293</v>
+        <v>1.02511215300429</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9852099866125604</v>
+        <v>0.9852099866125625</v>
       </c>
       <c r="D8">
-        <v>1.004144357999012</v>
+        <v>1.004144357999015</v>
       </c>
       <c r="E8">
-        <v>0.9952742753147451</v>
+        <v>0.9952742753147474</v>
       </c>
       <c r="F8">
-        <v>0.9995915397301047</v>
+        <v>0.9995915397301066</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.038523134508393</v>
       </c>
       <c r="J8">
-        <v>1.007256091147221</v>
+        <v>1.007256091147224</v>
       </c>
       <c r="K8">
-        <v>1.015268482451241</v>
+        <v>1.015268482451243</v>
       </c>
       <c r="L8">
-        <v>1.006518642359559</v>
+        <v>1.006518642359562</v>
       </c>
       <c r="M8">
-        <v>1.010777046713335</v>
+        <v>1.010777046713337</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9529054171530282</v>
+        <v>0.9529054171530307</v>
       </c>
       <c r="D9">
-        <v>0.9791126847261321</v>
+        <v>0.9791126847261341</v>
       </c>
       <c r="E9">
-        <v>0.9644190390724446</v>
+        <v>0.9644190390724472</v>
       </c>
       <c r="F9">
-        <v>0.9685080542967893</v>
+        <v>0.9685080542967917</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026042829396118</v>
+        <v>1.026042829396119</v>
       </c>
       <c r="J9">
-        <v>0.9802383019977485</v>
+        <v>0.980238301997751</v>
       </c>
       <c r="K9">
-        <v>0.9925539852879042</v>
+        <v>0.9925539852879062</v>
       </c>
       <c r="L9">
-        <v>0.9781170361169197</v>
+        <v>0.9781170361169221</v>
       </c>
       <c r="M9">
-        <v>0.9821336026264886</v>
+        <v>0.9821336026264911</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,19 +722,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9277644874921953</v>
+        <v>0.9277644874921943</v>
       </c>
       <c r="D10">
-        <v>0.9596549175460951</v>
+        <v>0.9596549175460943</v>
       </c>
       <c r="E10">
-        <v>0.9404726550224549</v>
+        <v>0.9404726550224534</v>
       </c>
       <c r="F10">
-        <v>0.9444174991132206</v>
+        <v>0.9444174991132195</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.016212728398409</v>
       </c>
       <c r="J10">
-        <v>0.95916922998071</v>
+        <v>0.959169229980709</v>
       </c>
       <c r="K10">
-        <v>0.9747929347949534</v>
+        <v>0.9747929347949527</v>
       </c>
       <c r="L10">
-        <v>0.956006834350525</v>
+        <v>0.9560068343505237</v>
       </c>
       <c r="M10">
-        <v>0.9598684689081682</v>
+        <v>0.9598684689081672</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9156777693527024</v>
+        <v>0.9156777693527018</v>
       </c>
       <c r="D11">
-        <v>0.9503151925255694</v>
+        <v>0.9503151925255685</v>
       </c>
       <c r="E11">
-        <v>0.9289821174892585</v>
+        <v>0.9289821174892577</v>
       </c>
       <c r="F11">
-        <v>0.9328669770181695</v>
+        <v>0.9328669770181682</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.011461964381652</v>
       </c>
       <c r="J11">
-        <v>0.9490339102055292</v>
+        <v>0.9490339102055286</v>
       </c>
       <c r="K11">
-        <v>0.9662391259116929</v>
+        <v>0.9662391259116924</v>
       </c>
       <c r="L11">
-        <v>0.945380257912266</v>
+        <v>0.9453802579122651</v>
       </c>
       <c r="M11">
-        <v>0.9491766068499669</v>
+        <v>0.9491766068499659</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9109647037793597</v>
+        <v>0.9109647037793607</v>
       </c>
       <c r="D12">
-        <v>0.9466766193130445</v>
+        <v>0.9466766193130455</v>
       </c>
       <c r="E12">
-        <v>0.924505527966035</v>
+        <v>0.9245055279660357</v>
       </c>
       <c r="F12">
-        <v>0.9283685501096878</v>
+        <v>0.9283685501096889</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.009606131507739</v>
+        <v>1.00960613150774</v>
       </c>
       <c r="J12">
-        <v>0.9450813423931615</v>
+        <v>0.9450813423931624</v>
       </c>
       <c r="K12">
-        <v>0.9629020429806751</v>
+        <v>0.9629020429806763</v>
       </c>
       <c r="L12">
-        <v>0.9412376014932021</v>
+        <v>0.9412376014932027</v>
       </c>
       <c r="M12">
-        <v>0.9450100160296699</v>
+        <v>0.9450100160296709</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9119866598151458</v>
+        <v>0.9119866598151454</v>
       </c>
       <c r="D13">
-        <v>0.9474654163893899</v>
+        <v>0.9474654163893893</v>
       </c>
       <c r="E13">
-        <v>0.9254760141126185</v>
+        <v>0.9254760141126179</v>
       </c>
       <c r="F13">
-        <v>0.9293436987347967</v>
+        <v>0.9293436987347962</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.010008681966092</v>
       </c>
       <c r="J13">
-        <v>0.9459384052017513</v>
+        <v>0.945938405201751</v>
       </c>
       <c r="K13">
-        <v>0.9636256989619774</v>
+        <v>0.9636256989619769</v>
       </c>
       <c r="L13">
-        <v>0.9421358146193411</v>
+        <v>0.9421358146193408</v>
       </c>
       <c r="M13">
-        <v>0.9459133479021417</v>
+        <v>0.945913347902141</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9152930535168584</v>
+        <v>0.9152930535168569</v>
       </c>
       <c r="D14">
-        <v>0.9500181101854459</v>
+        <v>0.9500181101854448</v>
       </c>
       <c r="E14">
-        <v>0.9286166193907726</v>
+        <v>0.9286166193907707</v>
       </c>
       <c r="F14">
-        <v>0.9324996642094981</v>
+        <v>0.9324996642094966</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.011310541387651</v>
       </c>
       <c r="J14">
-        <v>0.9487112769344567</v>
+        <v>0.9487112769344551</v>
       </c>
       <c r="K14">
-        <v>0.9659667564613853</v>
+        <v>0.9659667564613843</v>
       </c>
       <c r="L14">
-        <v>0.9450420781586196</v>
+        <v>0.9450420781586178</v>
       </c>
       <c r="M14">
-        <v>0.9488364418888151</v>
+        <v>0.9488364418888138</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9172990490867975</v>
+        <v>0.9172990490867995</v>
       </c>
       <c r="D15">
-        <v>0.9515673062284921</v>
+        <v>0.9515673062284935</v>
       </c>
       <c r="E15">
-        <v>0.9305225747067848</v>
+        <v>0.9305225747067869</v>
       </c>
       <c r="F15">
-        <v>0.9344151451405042</v>
+        <v>0.9344151451405058</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.012099964275192</v>
+        <v>1.012099964275193</v>
       </c>
       <c r="J15">
-        <v>0.950393546279356</v>
+        <v>0.9503935462793581</v>
       </c>
       <c r="K15">
-        <v>0.9673868913267906</v>
+        <v>0.967386891326792</v>
       </c>
       <c r="L15">
-        <v>0.9468054699023087</v>
+        <v>0.9468054699023107</v>
       </c>
       <c r="M15">
-        <v>0.9506102469843614</v>
+        <v>0.950610246984363</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9285380085040366</v>
+        <v>0.9285380085040369</v>
       </c>
       <c r="D16">
-        <v>0.960253018716705</v>
+        <v>0.9602530187167051</v>
       </c>
       <c r="E16">
-        <v>0.9412085163828134</v>
+        <v>0.9412085163828137</v>
       </c>
       <c r="F16">
-        <v>0.9451573986734162</v>
+        <v>0.9451573986734165</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.016516295268211</v>
       </c>
       <c r="J16">
-        <v>0.9598177790189425</v>
+        <v>0.9598177790189429</v>
       </c>
       <c r="K16">
-        <v>0.9753401018664934</v>
+        <v>0.9753401018664937</v>
       </c>
       <c r="L16">
-        <v>0.9566870153649443</v>
+        <v>0.9566870153649446</v>
       </c>
       <c r="M16">
-        <v>0.9605530240126473</v>
+        <v>0.9605530240126476</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9352405243265145</v>
+        <v>0.9352405243265137</v>
       </c>
       <c r="D17">
-        <v>0.9654372338735869</v>
+        <v>0.9654372338735866</v>
       </c>
       <c r="E17">
-        <v>0.9475871598199164</v>
+        <v>0.9475871598199155</v>
       </c>
       <c r="F17">
-        <v>0.9515720629359622</v>
+        <v>0.951572062935961</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.019144007448059</v>
       </c>
       <c r="J17">
-        <v>0.9654367858527992</v>
+        <v>0.9654367858527985</v>
       </c>
       <c r="K17">
-        <v>0.9800796846886191</v>
+        <v>0.9800796846886185</v>
       </c>
       <c r="L17">
-        <v>0.9625811297360731</v>
+        <v>0.9625811297360723</v>
       </c>
       <c r="M17">
-        <v>0.9664860549288791</v>
+        <v>0.9664860549288781</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.939037707188519</v>
+        <v>0.939037707188521</v>
       </c>
       <c r="D18">
-        <v>0.9683755049626125</v>
+        <v>0.9683755049626142</v>
       </c>
       <c r="E18">
-        <v>0.9512027862860268</v>
+        <v>0.9512027862860288</v>
       </c>
       <c r="F18">
-        <v>0.9552089288491558</v>
+        <v>0.9552089288491578</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.020630409557851</v>
+        <v>1.020630409557852</v>
       </c>
       <c r="J18">
-        <v>0.9686195305015906</v>
+        <v>0.9686195305015926</v>
       </c>
       <c r="K18">
-        <v>0.9827633987758567</v>
+        <v>0.9827633987758583</v>
       </c>
       <c r="L18">
-        <v>0.9659205646782747</v>
+        <v>0.9659205646782768</v>
       </c>
       <c r="M18">
-        <v>0.9698483590984051</v>
+        <v>0.9698483590984069</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9403144786543547</v>
+        <v>0.9403144786543507</v>
       </c>
       <c r="D19">
-        <v>0.969363660430225</v>
+        <v>0.9693636604302217</v>
       </c>
       <c r="E19">
-        <v>0.9524188209432773</v>
+        <v>0.9524188209432729</v>
       </c>
       <c r="F19">
-        <v>0.9564322426735113</v>
+        <v>0.9564322426735071</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.021129804047228</v>
+        <v>1.021129804047227</v>
       </c>
       <c r="J19">
-        <v>0.9696895892068345</v>
+        <v>0.9696895892068302</v>
       </c>
       <c r="K19">
-        <v>0.983665522336636</v>
+        <v>0.9836655223366327</v>
       </c>
       <c r="L19">
-        <v>0.967043448683689</v>
+        <v>0.9670434486836844</v>
       </c>
       <c r="M19">
-        <v>0.9709790686964503</v>
+        <v>0.9709790686964461</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.934533285419003</v>
+        <v>0.9345332854189984</v>
       </c>
       <c r="D20">
-        <v>0.9648900660874871</v>
+        <v>0.9648900660874834</v>
       </c>
       <c r="E20">
-        <v>0.9469138896452353</v>
+        <v>0.9469138896452304</v>
       </c>
       <c r="F20">
-        <v>0.9508949039248843</v>
+        <v>0.9508949039248801</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.018866971317505</v>
+        <v>1.018866971317502</v>
       </c>
       <c r="J20">
-        <v>0.9648439366078829</v>
+        <v>0.9648439366078785</v>
       </c>
       <c r="K20">
-        <v>0.9795797148372437</v>
+        <v>0.9795797148372402</v>
       </c>
       <c r="L20">
-        <v>0.9619591639532776</v>
+        <v>0.9619591639532726</v>
       </c>
       <c r="M20">
-        <v>0.9658598959420366</v>
+        <v>0.9658598959420324</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9143260013757849</v>
+        <v>0.9143260013757865</v>
       </c>
       <c r="D21">
-        <v>0.9492713981890246</v>
+        <v>0.9492713981890256</v>
       </c>
       <c r="E21">
-        <v>0.927697941145187</v>
+        <v>0.9276979411451883</v>
       </c>
       <c r="F21">
-        <v>0.9315764497225609</v>
+        <v>0.9315764497225621</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010929861066281</v>
+        <v>1.010929861066282</v>
       </c>
       <c r="J21">
-        <v>0.9479002756753541</v>
+        <v>0.9479002756753555</v>
       </c>
       <c r="K21">
-        <v>0.9652820835897624</v>
+        <v>0.9652820835897635</v>
       </c>
       <c r="L21">
-        <v>0.944192021786045</v>
+        <v>0.9441920217860463</v>
       </c>
       <c r="M21">
-        <v>0.9479814201780579</v>
+        <v>0.9479814201780589</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.900292493353632</v>
+        <v>0.9002924933536277</v>
       </c>
       <c r="D22">
-        <v>0.9384453594944878</v>
+        <v>0.9384453594944845</v>
       </c>
       <c r="E22">
-        <v>0.9143773242674612</v>
+        <v>0.9143773242674568</v>
       </c>
       <c r="F22">
-        <v>0.9181940199293548</v>
+        <v>0.9181940199293507</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.005398170617192</v>
+        <v>1.00539817061719</v>
       </c>
       <c r="J22">
-        <v>0.9361311513102979</v>
+        <v>0.9361311513102939</v>
       </c>
       <c r="K22">
-        <v>0.9553434791395746</v>
+        <v>0.9553434791395712</v>
       </c>
       <c r="L22">
-        <v>0.9318598355917206</v>
+        <v>0.9318598355917165</v>
       </c>
       <c r="M22">
-        <v>0.9355811027375069</v>
+        <v>0.9355811027375029</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9078769999399147</v>
+        <v>0.9078769999399096</v>
       </c>
       <c r="D23">
-        <v>0.9442939729910079</v>
+        <v>0.9442939729910036</v>
       </c>
       <c r="E23">
-        <v>0.9215739902663856</v>
+        <v>0.9215739902663808</v>
       </c>
       <c r="F23">
-        <v>0.9254231675691763</v>
+        <v>0.9254231675691715</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.008389430355898</v>
+        <v>1.008389430355896</v>
       </c>
       <c r="J23">
-        <v>0.9424918292318588</v>
+        <v>0.9424918292318542</v>
       </c>
       <c r="K23">
-        <v>0.9607154363534663</v>
+        <v>0.9607154363534623</v>
       </c>
       <c r="L23">
-        <v>0.9385239810598448</v>
+        <v>0.9385239810598399</v>
       </c>
       <c r="M23">
-        <v>0.9422811667198419</v>
+        <v>0.9422811667198371</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9348532001570229</v>
+        <v>0.9348532001570236</v>
       </c>
       <c r="D24">
-        <v>0.9651375698934913</v>
+        <v>0.9651375698934919</v>
       </c>
       <c r="E24">
-        <v>0.9472184328763482</v>
+        <v>0.9472184328763487</v>
       </c>
       <c r="F24">
-        <v>0.9512012036511168</v>
+        <v>0.9512012036511172</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.018992293891147</v>
       </c>
       <c r="J24">
-        <v>0.965112109855818</v>
+        <v>0.9651121098558183</v>
       </c>
       <c r="K24">
-        <v>0.9798058772601113</v>
+        <v>0.9798058772601117</v>
       </c>
       <c r="L24">
-        <v>0.9622405052689624</v>
+        <v>0.962240505268963</v>
       </c>
       <c r="M24">
-        <v>0.966143131464352</v>
+        <v>0.9661431314643522</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9618005118554586</v>
+        <v>0.961800511855456</v>
       </c>
       <c r="D25">
-        <v>0.9860036853245687</v>
+        <v>0.9860036853245659</v>
       </c>
       <c r="E25">
-        <v>0.9729056737613863</v>
+        <v>0.9729056737613838</v>
       </c>
       <c r="F25">
-        <v>0.977052420960413</v>
+        <v>0.9770524209604107</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029499175890608</v>
+        <v>1.029499175890607</v>
       </c>
       <c r="J25">
-        <v>0.987685561551668</v>
+        <v>0.9876855615516658</v>
       </c>
       <c r="K25">
-        <v>0.9988232326567719</v>
+        <v>0.9988232326567694</v>
       </c>
       <c r="L25">
-        <v>0.9859396791651857</v>
+        <v>0.9859396791651832</v>
       </c>
       <c r="M25">
-        <v>0.9900177300863413</v>
+        <v>0.9900177300863392</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_bus/vm_pu.xlsx
@@ -424,7 +424,7 @@
         <v>0.9808193548112214</v>
       </c>
       <c r="D2">
-        <v>1.000741990233827</v>
+        <v>1.000741990233828</v>
       </c>
       <c r="E2">
         <v>0.9910751600290283</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9935301003393838</v>
+        <v>0.993530100339382</v>
       </c>
       <c r="D3">
-        <v>1.010590636097829</v>
+        <v>1.010590636097827</v>
       </c>
       <c r="E3">
-        <v>1.003236104950199</v>
+        <v>1.003236104950197</v>
       </c>
       <c r="F3">
-        <v>1.0076210215534</v>
+        <v>1.007621021553398</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041699810379014</v>
+        <v>1.041699810379013</v>
       </c>
       <c r="J3">
-        <v>1.014198708851364</v>
+        <v>1.014198708851362</v>
       </c>
       <c r="K3">
-        <v>1.021089777672028</v>
+        <v>1.021089777672026</v>
       </c>
       <c r="L3">
-        <v>1.013827745990815</v>
+        <v>1.013827745990813</v>
       </c>
       <c r="M3">
-        <v>1.018157309890924</v>
+        <v>1.018157309890922</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001327499800907</v>
+        <v>1.001327499800903</v>
       </c>
       <c r="D4">
-        <v>1.016629740922245</v>
+        <v>1.016629740922242</v>
       </c>
       <c r="E4">
-        <v>1.010703204868676</v>
+        <v>1.010703204868672</v>
       </c>
       <c r="F4">
-        <v>1.015155190365295</v>
+        <v>1.015155190365291</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044659452695469</v>
+        <v>1.044659452695467</v>
       </c>
       <c r="J4">
-        <v>1.020697308848314</v>
+        <v>1.02069730884831</v>
       </c>
       <c r="K4">
-        <v>1.026531518684842</v>
+        <v>1.026531518684839</v>
       </c>
       <c r="L4">
-        <v>1.020674145420946</v>
+        <v>1.020674145420943</v>
       </c>
       <c r="M4">
-        <v>1.025074082859048</v>
+        <v>1.025074082859045</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -538,10 +538,10 @@
         <v>1.004513129403379</v>
       </c>
       <c r="D5">
-        <v>1.019096168091063</v>
+        <v>1.019096168091064</v>
       </c>
       <c r="E5">
-        <v>1.013755409277576</v>
+        <v>1.013755409277577</v>
       </c>
       <c r="F5">
         <v>1.018235866722895</v>
@@ -550,16 +550,16 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045863301718504</v>
+        <v>1.045863301718505</v>
       </c>
       <c r="J5">
-        <v>1.023349879283621</v>
+        <v>1.023349879283622</v>
       </c>
       <c r="K5">
         <v>1.028750492634543</v>
       </c>
       <c r="L5">
-        <v>1.023470095605735</v>
+        <v>1.023470095605736</v>
       </c>
       <c r="M5">
         <v>1.027899861775385</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005042851081271</v>
+        <v>1.005042851081268</v>
       </c>
       <c r="D6">
-        <v>1.019506240891843</v>
+        <v>1.019506240891841</v>
       </c>
       <c r="E6">
-        <v>1.014263029706649</v>
+        <v>1.014263029706646</v>
       </c>
       <c r="F6">
-        <v>1.01874828366461</v>
+        <v>1.018748283664607</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046063168254249</v>
+        <v>1.046063168254247</v>
       </c>
       <c r="J6">
-        <v>1.02379081545824</v>
+        <v>1.023790815458237</v>
       </c>
       <c r="K6">
-        <v>1.029119220725791</v>
+        <v>1.029119220725788</v>
       </c>
       <c r="L6">
-        <v>1.023934948837512</v>
+        <v>1.023934948837509</v>
       </c>
       <c r="M6">
-        <v>1.028369737568307</v>
+        <v>1.028369737568304</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001370417487152</v>
+        <v>1.001370417487155</v>
       </c>
       <c r="D7">
-        <v>1.01666297299081</v>
+        <v>1.016662972990812</v>
       </c>
       <c r="E7">
-        <v>1.010744319164414</v>
+        <v>1.010744319164416</v>
       </c>
       <c r="F7">
-        <v>1.015196684030941</v>
+        <v>1.015196684030943</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044675692519125</v>
+        <v>1.044675692519127</v>
       </c>
       <c r="J7">
-        <v>1.020733054810317</v>
+        <v>1.02073305481032</v>
       </c>
       <c r="K7">
-        <v>1.026561430366425</v>
+        <v>1.026561430366427</v>
       </c>
       <c r="L7">
-        <v>1.020711817945865</v>
+        <v>1.020711817945867</v>
       </c>
       <c r="M7">
-        <v>1.02511215300429</v>
+        <v>1.025112153004293</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9852099866125625</v>
+        <v>0.9852099866125604</v>
       </c>
       <c r="D8">
-        <v>1.004144357999015</v>
+        <v>1.004144357999012</v>
       </c>
       <c r="E8">
-        <v>0.9952742753147474</v>
+        <v>0.9952742753147451</v>
       </c>
       <c r="F8">
-        <v>0.9995915397301066</v>
+        <v>0.9995915397301047</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.038523134508393</v>
       </c>
       <c r="J8">
-        <v>1.007256091147224</v>
+        <v>1.007256091147221</v>
       </c>
       <c r="K8">
-        <v>1.015268482451243</v>
+        <v>1.015268482451241</v>
       </c>
       <c r="L8">
-        <v>1.006518642359562</v>
+        <v>1.006518642359559</v>
       </c>
       <c r="M8">
-        <v>1.010777046713337</v>
+        <v>1.010777046713335</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9529054171530307</v>
+        <v>0.9529054171530282</v>
       </c>
       <c r="D9">
-        <v>0.9791126847261341</v>
+        <v>0.9791126847261321</v>
       </c>
       <c r="E9">
-        <v>0.9644190390724472</v>
+        <v>0.9644190390724446</v>
       </c>
       <c r="F9">
-        <v>0.9685080542967917</v>
+        <v>0.9685080542967893</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026042829396119</v>
+        <v>1.026042829396118</v>
       </c>
       <c r="J9">
-        <v>0.980238301997751</v>
+        <v>0.9802383019977485</v>
       </c>
       <c r="K9">
-        <v>0.9925539852879062</v>
+        <v>0.9925539852879042</v>
       </c>
       <c r="L9">
-        <v>0.9781170361169221</v>
+        <v>0.9781170361169197</v>
       </c>
       <c r="M9">
-        <v>0.9821336026264911</v>
+        <v>0.9821336026264886</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,19 +722,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.9277644874921943</v>
+        <v>0.9277644874921953</v>
       </c>
       <c r="D10">
-        <v>0.9596549175460943</v>
+        <v>0.9596549175460951</v>
       </c>
       <c r="E10">
-        <v>0.9404726550224534</v>
+        <v>0.9404726550224549</v>
       </c>
       <c r="F10">
-        <v>0.9444174991132195</v>
+        <v>0.9444174991132206</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.016212728398409</v>
       </c>
       <c r="J10">
-        <v>0.959169229980709</v>
+        <v>0.95916922998071</v>
       </c>
       <c r="K10">
-        <v>0.9747929347949527</v>
+        <v>0.9747929347949534</v>
       </c>
       <c r="L10">
-        <v>0.9560068343505237</v>
+        <v>0.956006834350525</v>
       </c>
       <c r="M10">
-        <v>0.9598684689081672</v>
+        <v>0.9598684689081682</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9156777693527018</v>
+        <v>0.9156777693527024</v>
       </c>
       <c r="D11">
-        <v>0.9503151925255685</v>
+        <v>0.9503151925255694</v>
       </c>
       <c r="E11">
-        <v>0.9289821174892577</v>
+        <v>0.9289821174892585</v>
       </c>
       <c r="F11">
-        <v>0.9328669770181682</v>
+        <v>0.9328669770181695</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.011461964381652</v>
       </c>
       <c r="J11">
-        <v>0.9490339102055286</v>
+        <v>0.9490339102055292</v>
       </c>
       <c r="K11">
-        <v>0.9662391259116924</v>
+        <v>0.9662391259116929</v>
       </c>
       <c r="L11">
-        <v>0.9453802579122651</v>
+        <v>0.945380257912266</v>
       </c>
       <c r="M11">
-        <v>0.9491766068499659</v>
+        <v>0.9491766068499669</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9109647037793607</v>
+        <v>0.9109647037793597</v>
       </c>
       <c r="D12">
-        <v>0.9466766193130455</v>
+        <v>0.9466766193130445</v>
       </c>
       <c r="E12">
-        <v>0.9245055279660357</v>
+        <v>0.924505527966035</v>
       </c>
       <c r="F12">
-        <v>0.9283685501096889</v>
+        <v>0.9283685501096878</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.00960613150774</v>
+        <v>1.009606131507739</v>
       </c>
       <c r="J12">
-        <v>0.9450813423931624</v>
+        <v>0.9450813423931615</v>
       </c>
       <c r="K12">
-        <v>0.9629020429806763</v>
+        <v>0.9629020429806751</v>
       </c>
       <c r="L12">
-        <v>0.9412376014932027</v>
+        <v>0.9412376014932021</v>
       </c>
       <c r="M12">
-        <v>0.9450100160296709</v>
+        <v>0.9450100160296699</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9119866598151454</v>
+        <v>0.9119866598151458</v>
       </c>
       <c r="D13">
-        <v>0.9474654163893893</v>
+        <v>0.9474654163893899</v>
       </c>
       <c r="E13">
-        <v>0.9254760141126179</v>
+        <v>0.9254760141126185</v>
       </c>
       <c r="F13">
-        <v>0.9293436987347962</v>
+        <v>0.9293436987347967</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.010008681966092</v>
       </c>
       <c r="J13">
-        <v>0.945938405201751</v>
+        <v>0.9459384052017513</v>
       </c>
       <c r="K13">
-        <v>0.9636256989619769</v>
+        <v>0.9636256989619774</v>
       </c>
       <c r="L13">
-        <v>0.9421358146193408</v>
+        <v>0.9421358146193411</v>
       </c>
       <c r="M13">
-        <v>0.945913347902141</v>
+        <v>0.9459133479021417</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9152930535168569</v>
+        <v>0.9152930535168584</v>
       </c>
       <c r="D14">
-        <v>0.9500181101854448</v>
+        <v>0.9500181101854459</v>
       </c>
       <c r="E14">
-        <v>0.9286166193907707</v>
+        <v>0.9286166193907726</v>
       </c>
       <c r="F14">
-        <v>0.9324996642094966</v>
+        <v>0.9324996642094981</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.011310541387651</v>
       </c>
       <c r="J14">
-        <v>0.9487112769344551</v>
+        <v>0.9487112769344567</v>
       </c>
       <c r="K14">
-        <v>0.9659667564613843</v>
+        <v>0.9659667564613853</v>
       </c>
       <c r="L14">
-        <v>0.9450420781586178</v>
+        <v>0.9450420781586196</v>
       </c>
       <c r="M14">
-        <v>0.9488364418888138</v>
+        <v>0.9488364418888151</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9172990490867995</v>
+        <v>0.9172990490867975</v>
       </c>
       <c r="D15">
-        <v>0.9515673062284935</v>
+        <v>0.9515673062284921</v>
       </c>
       <c r="E15">
-        <v>0.9305225747067869</v>
+        <v>0.9305225747067848</v>
       </c>
       <c r="F15">
-        <v>0.9344151451405058</v>
+        <v>0.9344151451405042</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.012099964275193</v>
+        <v>1.012099964275192</v>
       </c>
       <c r="J15">
-        <v>0.9503935462793581</v>
+        <v>0.950393546279356</v>
       </c>
       <c r="K15">
-        <v>0.967386891326792</v>
+        <v>0.9673868913267906</v>
       </c>
       <c r="L15">
-        <v>0.9468054699023107</v>
+        <v>0.9468054699023087</v>
       </c>
       <c r="M15">
-        <v>0.950610246984363</v>
+        <v>0.9506102469843614</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9285380085040369</v>
+        <v>0.9285380085040366</v>
       </c>
       <c r="D16">
-        <v>0.9602530187167051</v>
+        <v>0.960253018716705</v>
       </c>
       <c r="E16">
-        <v>0.9412085163828137</v>
+        <v>0.9412085163828134</v>
       </c>
       <c r="F16">
-        <v>0.9451573986734165</v>
+        <v>0.9451573986734162</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.016516295268211</v>
       </c>
       <c r="J16">
-        <v>0.9598177790189429</v>
+        <v>0.9598177790189425</v>
       </c>
       <c r="K16">
-        <v>0.9753401018664937</v>
+        <v>0.9753401018664934</v>
       </c>
       <c r="L16">
-        <v>0.9566870153649446</v>
+        <v>0.9566870153649443</v>
       </c>
       <c r="M16">
-        <v>0.9605530240126476</v>
+        <v>0.9605530240126473</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9352405243265137</v>
+        <v>0.9352405243265145</v>
       </c>
       <c r="D17">
-        <v>0.9654372338735866</v>
+        <v>0.9654372338735869</v>
       </c>
       <c r="E17">
-        <v>0.9475871598199155</v>
+        <v>0.9475871598199164</v>
       </c>
       <c r="F17">
-        <v>0.951572062935961</v>
+        <v>0.9515720629359622</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.019144007448059</v>
       </c>
       <c r="J17">
-        <v>0.9654367858527985</v>
+        <v>0.9654367858527992</v>
       </c>
       <c r="K17">
-        <v>0.9800796846886185</v>
+        <v>0.9800796846886191</v>
       </c>
       <c r="L17">
-        <v>0.9625811297360723</v>
+        <v>0.9625811297360731</v>
       </c>
       <c r="M17">
-        <v>0.9664860549288781</v>
+        <v>0.9664860549288791</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.939037707188521</v>
+        <v>0.939037707188519</v>
       </c>
       <c r="D18">
-        <v>0.9683755049626142</v>
+        <v>0.9683755049626125</v>
       </c>
       <c r="E18">
-        <v>0.9512027862860288</v>
+        <v>0.9512027862860268</v>
       </c>
       <c r="F18">
-        <v>0.9552089288491578</v>
+        <v>0.9552089288491558</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.020630409557852</v>
+        <v>1.020630409557851</v>
       </c>
       <c r="J18">
-        <v>0.9686195305015926</v>
+        <v>0.9686195305015906</v>
       </c>
       <c r="K18">
-        <v>0.9827633987758583</v>
+        <v>0.9827633987758567</v>
       </c>
       <c r="L18">
-        <v>0.9659205646782768</v>
+        <v>0.9659205646782747</v>
       </c>
       <c r="M18">
-        <v>0.9698483590984069</v>
+        <v>0.9698483590984051</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9403144786543507</v>
+        <v>0.9403144786543547</v>
       </c>
       <c r="D19">
-        <v>0.9693636604302217</v>
+        <v>0.969363660430225</v>
       </c>
       <c r="E19">
-        <v>0.9524188209432729</v>
+        <v>0.9524188209432773</v>
       </c>
       <c r="F19">
-        <v>0.9564322426735071</v>
+        <v>0.9564322426735113</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.021129804047227</v>
+        <v>1.021129804047228</v>
       </c>
       <c r="J19">
-        <v>0.9696895892068302</v>
+        <v>0.9696895892068345</v>
       </c>
       <c r="K19">
-        <v>0.9836655223366327</v>
+        <v>0.983665522336636</v>
       </c>
       <c r="L19">
-        <v>0.9670434486836844</v>
+        <v>0.967043448683689</v>
       </c>
       <c r="M19">
-        <v>0.9709790686964461</v>
+        <v>0.9709790686964503</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9345332854189984</v>
+        <v>0.934533285419003</v>
       </c>
       <c r="D20">
-        <v>0.9648900660874834</v>
+        <v>0.9648900660874871</v>
       </c>
       <c r="E20">
-        <v>0.9469138896452304</v>
+        <v>0.9469138896452353</v>
       </c>
       <c r="F20">
-        <v>0.9508949039248801</v>
+        <v>0.9508949039248843</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.018866971317502</v>
+        <v>1.018866971317505</v>
       </c>
       <c r="J20">
-        <v>0.9648439366078785</v>
+        <v>0.9648439366078829</v>
       </c>
       <c r="K20">
-        <v>0.9795797148372402</v>
+        <v>0.9795797148372437</v>
       </c>
       <c r="L20">
-        <v>0.9619591639532726</v>
+        <v>0.9619591639532776</v>
       </c>
       <c r="M20">
-        <v>0.9658598959420324</v>
+        <v>0.9658598959420366</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9143260013757865</v>
+        <v>0.9143260013757849</v>
       </c>
       <c r="D21">
-        <v>0.9492713981890256</v>
+        <v>0.9492713981890246</v>
       </c>
       <c r="E21">
-        <v>0.9276979411451883</v>
+        <v>0.927697941145187</v>
       </c>
       <c r="F21">
-        <v>0.9315764497225621</v>
+        <v>0.9315764497225609</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010929861066282</v>
+        <v>1.010929861066281</v>
       </c>
       <c r="J21">
-        <v>0.9479002756753555</v>
+        <v>0.9479002756753541</v>
       </c>
       <c r="K21">
-        <v>0.9652820835897635</v>
+        <v>0.9652820835897624</v>
       </c>
       <c r="L21">
-        <v>0.9441920217860463</v>
+        <v>0.944192021786045</v>
       </c>
       <c r="M21">
-        <v>0.9479814201780589</v>
+        <v>0.9479814201780579</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9002924933536277</v>
+        <v>0.900292493353632</v>
       </c>
       <c r="D22">
-        <v>0.9384453594944845</v>
+        <v>0.9384453594944878</v>
       </c>
       <c r="E22">
-        <v>0.9143773242674568</v>
+        <v>0.9143773242674612</v>
       </c>
       <c r="F22">
-        <v>0.9181940199293507</v>
+        <v>0.9181940199293548</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.00539817061719</v>
+        <v>1.005398170617192</v>
       </c>
       <c r="J22">
-        <v>0.9361311513102939</v>
+        <v>0.9361311513102979</v>
       </c>
       <c r="K22">
-        <v>0.9553434791395712</v>
+        <v>0.9553434791395746</v>
       </c>
       <c r="L22">
-        <v>0.9318598355917165</v>
+        <v>0.9318598355917206</v>
       </c>
       <c r="M22">
-        <v>0.9355811027375029</v>
+        <v>0.9355811027375069</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9078769999399096</v>
+        <v>0.9078769999399147</v>
       </c>
       <c r="D23">
-        <v>0.9442939729910036</v>
+        <v>0.9442939729910079</v>
       </c>
       <c r="E23">
-        <v>0.9215739902663808</v>
+        <v>0.9215739902663856</v>
       </c>
       <c r="F23">
-        <v>0.9254231675691715</v>
+        <v>0.9254231675691763</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.008389430355896</v>
+        <v>1.008389430355898</v>
       </c>
       <c r="J23">
-        <v>0.9424918292318542</v>
+        <v>0.9424918292318588</v>
       </c>
       <c r="K23">
-        <v>0.9607154363534623</v>
+        <v>0.9607154363534663</v>
       </c>
       <c r="L23">
-        <v>0.9385239810598399</v>
+        <v>0.9385239810598448</v>
       </c>
       <c r="M23">
-        <v>0.9422811667198371</v>
+        <v>0.9422811667198419</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9348532001570236</v>
+        <v>0.9348532001570229</v>
       </c>
       <c r="D24">
-        <v>0.9651375698934919</v>
+        <v>0.9651375698934913</v>
       </c>
       <c r="E24">
-        <v>0.9472184328763487</v>
+        <v>0.9472184328763482</v>
       </c>
       <c r="F24">
-        <v>0.9512012036511172</v>
+        <v>0.9512012036511168</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.018992293891147</v>
       </c>
       <c r="J24">
-        <v>0.9651121098558183</v>
+        <v>0.965112109855818</v>
       </c>
       <c r="K24">
-        <v>0.9798058772601117</v>
+        <v>0.9798058772601113</v>
       </c>
       <c r="L24">
-        <v>0.962240505268963</v>
+        <v>0.9622405052689624</v>
       </c>
       <c r="M24">
-        <v>0.9661431314643522</v>
+        <v>0.966143131464352</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.961800511855456</v>
+        <v>0.9618005118554586</v>
       </c>
       <c r="D25">
-        <v>0.9860036853245659</v>
+        <v>0.9860036853245687</v>
       </c>
       <c r="E25">
-        <v>0.9729056737613838</v>
+        <v>0.9729056737613863</v>
       </c>
       <c r="F25">
-        <v>0.9770524209604107</v>
+        <v>0.977052420960413</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029499175890607</v>
+        <v>1.029499175890608</v>
       </c>
       <c r="J25">
-        <v>0.9876855615516658</v>
+        <v>0.987685561551668</v>
       </c>
       <c r="K25">
-        <v>0.9988232326567694</v>
+        <v>0.9988232326567719</v>
       </c>
       <c r="L25">
-        <v>0.9859396791651832</v>
+        <v>0.9859396791651857</v>
       </c>
       <c r="M25">
-        <v>0.9900177300863392</v>
+        <v>0.9900177300863413</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9808193548112214</v>
+        <v>0.9841768095158725</v>
       </c>
       <c r="D2">
-        <v>1.000741990233828</v>
+        <v>1.003303689309806</v>
       </c>
       <c r="E2">
-        <v>0.9910751600290283</v>
+        <v>0.994376761405465</v>
       </c>
       <c r="F2">
-        <v>0.9953582747895545</v>
+        <v>0.9983449786974887</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036839717026165</v>
+        <v>1.038228227596777</v>
       </c>
       <c r="J2">
-        <v>1.003589291951373</v>
+        <v>1.006841313916416</v>
       </c>
       <c r="K2">
-        <v>1.01219099762406</v>
+        <v>1.014717189576027</v>
       </c>
       <c r="L2">
-        <v>1.002660248479446</v>
+        <v>1.005914996796109</v>
       </c>
       <c r="M2">
-        <v>1.00688265725511</v>
+        <v>1.00982741885231</v>
+      </c>
+      <c r="N2">
+        <v>1.00827114406849</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.993530100339382</v>
+        <v>0.9968384913965049</v>
       </c>
       <c r="D3">
-        <v>1.010590636097827</v>
+        <v>1.013117417760581</v>
       </c>
       <c r="E3">
-        <v>1.003236104950197</v>
+        <v>1.006493537558875</v>
       </c>
       <c r="F3">
-        <v>1.007621021553398</v>
+        <v>1.010560809619407</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041699810379013</v>
+        <v>1.043070871044888</v>
       </c>
       <c r="J3">
-        <v>1.014198708851362</v>
+        <v>1.017415714944443</v>
       </c>
       <c r="K3">
-        <v>1.021089777672026</v>
+        <v>1.02358516548192</v>
       </c>
       <c r="L3">
-        <v>1.013827745990813</v>
+        <v>1.017044001152382</v>
       </c>
       <c r="M3">
-        <v>1.018157309890922</v>
+        <v>1.021060322939101</v>
+      </c>
+      <c r="N3">
+        <v>1.018860561958878</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001327499800903</v>
+        <v>1.004608922812065</v>
       </c>
       <c r="D4">
-        <v>1.016629740922242</v>
+        <v>1.019137440629683</v>
       </c>
       <c r="E4">
-        <v>1.010703204868672</v>
+        <v>1.013936424394444</v>
       </c>
       <c r="F4">
-        <v>1.015155190365291</v>
+        <v>1.018069056215366</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044659452695467</v>
+        <v>1.046021087304819</v>
       </c>
       <c r="J4">
-        <v>1.02069730884831</v>
+        <v>1.023895462166912</v>
       </c>
       <c r="K4">
-        <v>1.026531518684839</v>
+        <v>1.029010252628713</v>
       </c>
       <c r="L4">
-        <v>1.020674145420943</v>
+        <v>1.023869509260737</v>
       </c>
       <c r="M4">
-        <v>1.025074082859045</v>
+        <v>1.027954187282584</v>
+      </c>
+      <c r="N4">
+        <v>1.02534951116564</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004513129403379</v>
+        <v>1.007784182542345</v>
       </c>
       <c r="D5">
-        <v>1.019096168091064</v>
+        <v>1.021596558250651</v>
       </c>
       <c r="E5">
-        <v>1.013755409277577</v>
+        <v>1.016979333588562</v>
       </c>
       <c r="F5">
-        <v>1.018235866722895</v>
+        <v>1.021139733944013</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045863301718505</v>
+        <v>1.047221352687864</v>
       </c>
       <c r="J5">
-        <v>1.023349879283622</v>
+        <v>1.026540876282675</v>
       </c>
       <c r="K5">
-        <v>1.028750492634543</v>
+        <v>1.031222890105655</v>
       </c>
       <c r="L5">
-        <v>1.023470095605736</v>
+        <v>1.026657489351491</v>
       </c>
       <c r="M5">
-        <v>1.027899861775385</v>
+        <v>1.030771167499669</v>
+      </c>
+      <c r="N5">
+        <v>1.027998682072881</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005042851081268</v>
+        <v>1.008312215415481</v>
       </c>
       <c r="D6">
-        <v>1.019506240891841</v>
+        <v>1.022005442338652</v>
       </c>
       <c r="E6">
-        <v>1.014263029706646</v>
+        <v>1.017485441131773</v>
       </c>
       <c r="F6">
-        <v>1.018748283664607</v>
+        <v>1.021650520745046</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046063168254247</v>
+        <v>1.047420638067163</v>
       </c>
       <c r="J6">
-        <v>1.023790815458237</v>
+        <v>1.026980652483628</v>
       </c>
       <c r="K6">
-        <v>1.029119220725788</v>
+        <v>1.031590590276657</v>
       </c>
       <c r="L6">
-        <v>1.023934948837509</v>
+        <v>1.027121048322938</v>
       </c>
       <c r="M6">
-        <v>1.028369737568304</v>
+        <v>1.031239610997739</v>
+      </c>
+      <c r="N6">
+        <v>1.028439082806482</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001370417487155</v>
+        <v>1.004651698337484</v>
       </c>
       <c r="D7">
-        <v>1.016662972990812</v>
+        <v>1.019170572375818</v>
       </c>
       <c r="E7">
-        <v>1.010744319164416</v>
+        <v>1.013977411199705</v>
       </c>
       <c r="F7">
-        <v>1.015196684030943</v>
+        <v>1.0181104129337</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044675692519127</v>
+        <v>1.046037277831891</v>
       </c>
       <c r="J7">
-        <v>1.02073305481032</v>
+        <v>1.023931109645476</v>
       </c>
       <c r="K7">
-        <v>1.026561430366427</v>
+        <v>1.029040077168027</v>
       </c>
       <c r="L7">
-        <v>1.020711817945867</v>
+        <v>1.023907072267235</v>
       </c>
       <c r="M7">
-        <v>1.025112153004293</v>
+        <v>1.027992136763329</v>
+      </c>
+      <c r="N7">
+        <v>1.025385209267712</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9852099866125604</v>
+        <v>0.9885497498311885</v>
       </c>
       <c r="D8">
-        <v>1.004144357999012</v>
+        <v>1.006693441903725</v>
       </c>
       <c r="E8">
-        <v>0.9952742753147451</v>
+        <v>0.9985599352011835</v>
       </c>
       <c r="F8">
-        <v>0.9995915397301047</v>
+        <v>1.002561358783511</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038523134508393</v>
+        <v>1.039905315567418</v>
       </c>
       <c r="J8">
-        <v>1.007256091147221</v>
+        <v>1.010495394887921</v>
       </c>
       <c r="K8">
-        <v>1.015268482451241</v>
+        <v>1.017783503230279</v>
       </c>
       <c r="L8">
-        <v>1.006518642359559</v>
+        <v>1.009759448478641</v>
       </c>
       <c r="M8">
-        <v>1.010777046713335</v>
+        <v>1.013706746261205</v>
+      </c>
+      <c r="N8">
+        <v>1.011930414254103</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9529054171530282</v>
+        <v>0.9563958888822706</v>
       </c>
       <c r="D9">
-        <v>0.9791126847261321</v>
+        <v>0.9817697796437527</v>
       </c>
       <c r="E9">
-        <v>0.9644190390724446</v>
+        <v>0.9678408762227173</v>
       </c>
       <c r="F9">
-        <v>0.9685080542967893</v>
+        <v>0.9716208473439795</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026042829396118</v>
+        <v>1.027479805631572</v>
       </c>
       <c r="J9">
-        <v>0.9802383019977485</v>
+        <v>0.9835882976429949</v>
       </c>
       <c r="K9">
-        <v>0.9925539852879042</v>
+        <v>0.9951657203267287</v>
       </c>
       <c r="L9">
-        <v>0.9781170361169197</v>
+        <v>0.9814781913446855</v>
       </c>
       <c r="M9">
-        <v>0.9821336026264886</v>
+        <v>0.9851917730345567</v>
+      </c>
+      <c r="N9">
+        <v>0.9849851058448024</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9277644874921953</v>
+        <v>0.9314111446915352</v>
       </c>
       <c r="D10">
-        <v>0.9596549175460951</v>
+        <v>0.9624246326913649</v>
       </c>
       <c r="E10">
-        <v>0.9404726550224549</v>
+        <v>0.9440361855378562</v>
       </c>
       <c r="F10">
-        <v>0.9444174991132206</v>
+        <v>0.9476770217659979</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.016212728398409</v>
+        <v>1.017707705273642</v>
       </c>
       <c r="J10">
-        <v>0.95916922998071</v>
+        <v>0.9626376043597786</v>
       </c>
       <c r="K10">
-        <v>0.9747929347949534</v>
+        <v>0.9775071638472319</v>
       </c>
       <c r="L10">
-        <v>0.956006834350525</v>
+        <v>0.9594951583134917</v>
       </c>
       <c r="M10">
-        <v>0.9598684689081682</v>
+        <v>0.9630599281573221</v>
+      </c>
+      <c r="N10">
+        <v>0.9640046601740461</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9156777693527024</v>
+        <v>0.9194148198672698</v>
       </c>
       <c r="D11">
-        <v>0.9503151925255694</v>
+        <v>0.9531502090149058</v>
       </c>
       <c r="E11">
-        <v>0.9289821174892585</v>
+        <v>0.9326277999865834</v>
       </c>
       <c r="F11">
-        <v>0.9328669770181695</v>
+        <v>0.9362109812997698</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.011461964381652</v>
+        <v>1.012990788205091</v>
       </c>
       <c r="J11">
-        <v>0.9490339102055292</v>
+        <v>0.9525718115596618</v>
       </c>
       <c r="K11">
-        <v>0.9662391259116929</v>
+        <v>0.9690132410647022</v>
       </c>
       <c r="L11">
-        <v>0.945380257912266</v>
+        <v>0.9489428506827238</v>
       </c>
       <c r="M11">
-        <v>0.9491766068499669</v>
+        <v>0.9524452069752812</v>
+      </c>
+      <c r="N11">
+        <v>0.9539245727935904</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9109647037793597</v>
+        <v>0.9147401472844846</v>
       </c>
       <c r="D12">
-        <v>0.9466766193130445</v>
+        <v>0.9495393843843568</v>
       </c>
       <c r="E12">
-        <v>0.924505527966035</v>
+        <v>0.9281861255564133</v>
       </c>
       <c r="F12">
-        <v>0.9283685501096878</v>
+        <v>0.9317483599234001</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.009606131507739</v>
+        <v>1.01114937151769</v>
       </c>
       <c r="J12">
-        <v>0.9450813423931615</v>
+        <v>0.9486489407068976</v>
       </c>
       <c r="K12">
-        <v>0.9629020429806751</v>
+        <v>0.9657016808124116</v>
       </c>
       <c r="L12">
-        <v>0.9412376014932021</v>
+        <v>0.9448318475547242</v>
       </c>
       <c r="M12">
-        <v>0.9450100160296699</v>
+        <v>0.9483113757993499</v>
+      </c>
+      <c r="N12">
+        <v>0.9499961310142557</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9119866598151458</v>
+        <v>0.9157536189955527</v>
       </c>
       <c r="D13">
-        <v>0.9474654163893899</v>
+        <v>0.9503220489335953</v>
       </c>
       <c r="E13">
-        <v>0.9254760141126185</v>
+        <v>0.9291488949465134</v>
       </c>
       <c r="F13">
-        <v>0.9293436987347967</v>
+        <v>0.9327155996103674</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.010008681966092</v>
+        <v>1.011548734441708</v>
       </c>
       <c r="J13">
-        <v>0.9459384052017513</v>
+        <v>0.9494994332559187</v>
       </c>
       <c r="K13">
-        <v>0.9636256989619774</v>
+        <v>0.9664196927418702</v>
       </c>
       <c r="L13">
-        <v>0.9421358146193411</v>
+        <v>0.9457230607618451</v>
       </c>
       <c r="M13">
-        <v>0.9459133479021417</v>
+        <v>0.9492074685304016</v>
+      </c>
+      <c r="N13">
+        <v>0.9508478313602493</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9152930535168584</v>
+        <v>0.9190331685237584</v>
       </c>
       <c r="D14">
-        <v>0.9500181101854459</v>
+        <v>0.9528553413234133</v>
       </c>
       <c r="E14">
-        <v>0.9286166193907726</v>
+        <v>0.9322650883383293</v>
       </c>
       <c r="F14">
-        <v>0.9324996642094981</v>
+        <v>0.9358465280174663</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.011310541387651</v>
+        <v>1.012840515122516</v>
       </c>
       <c r="J14">
-        <v>0.9487112769344567</v>
+        <v>0.9522515453344776</v>
       </c>
       <c r="K14">
-        <v>0.9659667564613853</v>
+        <v>0.9687429071016256</v>
       </c>
       <c r="L14">
-        <v>0.9450420781586196</v>
+        <v>0.9486071952893276</v>
       </c>
       <c r="M14">
-        <v>0.9488364418888151</v>
+        <v>0.9521076569778767</v>
+      </c>
+      <c r="N14">
+        <v>0.9536038517536316</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9172990490867975</v>
+        <v>0.9210233173409472</v>
       </c>
       <c r="D15">
-        <v>0.9515673062284921</v>
+        <v>0.954393085695612</v>
       </c>
       <c r="E15">
-        <v>0.9305225747067848</v>
+        <v>0.934156635552765</v>
       </c>
       <c r="F15">
-        <v>0.9344151451405042</v>
+        <v>0.9377472190603702</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.012099964275192</v>
+        <v>1.013623993268445</v>
       </c>
       <c r="J15">
-        <v>0.950393546279356</v>
+        <v>0.9539215810184332</v>
       </c>
       <c r="K15">
-        <v>0.9673868913267906</v>
+        <v>0.9701525196701759</v>
       </c>
       <c r="L15">
-        <v>0.9468054699023087</v>
+        <v>0.9503575376168182</v>
       </c>
       <c r="M15">
-        <v>0.9506102469843614</v>
+        <v>0.9538679396641748</v>
+      </c>
+      <c r="N15">
+        <v>0.9552762590798143</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9285380085040366</v>
+        <v>0.9321792497351751</v>
       </c>
       <c r="D16">
-        <v>0.960253018716705</v>
+        <v>0.9630188231873476</v>
       </c>
       <c r="E16">
-        <v>0.9412085163828134</v>
+        <v>0.9447671274738546</v>
       </c>
       <c r="F16">
-        <v>0.9451573986734162</v>
+        <v>0.9484118506602135</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.016516295268211</v>
+        <v>1.01800924924972</v>
       </c>
       <c r="J16">
-        <v>0.9598177790189425</v>
+        <v>0.9632820075059468</v>
       </c>
       <c r="K16">
-        <v>0.9753401018664934</v>
+        <v>0.9780507534845725</v>
       </c>
       <c r="L16">
-        <v>0.9566870153649443</v>
+        <v>0.9601709025002589</v>
       </c>
       <c r="M16">
-        <v>0.9605530240126473</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9637398609953082</v>
+      </c>
+      <c r="N16">
+        <v>0.9646499784465957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9352405243265145</v>
+        <v>0.9388365625778309</v>
       </c>
       <c r="D17">
-        <v>0.9654372338735869</v>
+        <v>0.9681704104617637</v>
       </c>
       <c r="E17">
-        <v>0.9475871598199164</v>
+        <v>0.951104726656702</v>
       </c>
       <c r="F17">
-        <v>0.9515720629359622</v>
+        <v>0.9547841498865008</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.019144007448059</v>
+        <v>1.020620105136517</v>
       </c>
       <c r="J17">
-        <v>0.9654367858527992</v>
+        <v>0.968866512709656</v>
       </c>
       <c r="K17">
-        <v>0.9800796846886191</v>
+        <v>0.9827605341222676</v>
       </c>
       <c r="L17">
-        <v>0.9625811297360731</v>
+        <v>0.9660280525715264</v>
       </c>
       <c r="M17">
-        <v>0.9664860549288791</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9696343129241017</v>
+      </c>
+      <c r="N17">
+        <v>0.9702424142882461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.939037707188519</v>
+        <v>0.9426094547418404</v>
       </c>
       <c r="D18">
-        <v>0.9683755049626125</v>
+        <v>0.9710911584600437</v>
       </c>
       <c r="E18">
-        <v>0.9512027862860268</v>
+        <v>0.9546983089472298</v>
       </c>
       <c r="F18">
-        <v>0.9552089288491558</v>
+        <v>0.9583982154047656</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.020630409557851</v>
+        <v>1.022097471737844</v>
       </c>
       <c r="J18">
-        <v>0.9686195305015906</v>
+        <v>0.9720307981311059</v>
       </c>
       <c r="K18">
-        <v>0.9827633987758567</v>
+        <v>0.9854282790050332</v>
       </c>
       <c r="L18">
-        <v>0.9659205646782747</v>
+        <v>0.9693476774429585</v>
       </c>
       <c r="M18">
-        <v>0.9698483590984051</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9729758861346658</v>
+      </c>
+      <c r="N18">
+        <v>0.973411193357943</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9403144786543547</v>
+        <v>0.9438782639489828</v>
       </c>
       <c r="D19">
-        <v>0.969363660430225</v>
+        <v>0.9720735718574735</v>
       </c>
       <c r="E19">
-        <v>0.9524188209432773</v>
+        <v>0.9559071197127003</v>
       </c>
       <c r="F19">
-        <v>0.9564322426735113</v>
+        <v>0.9596140498083144</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.021129804047228</v>
+        <v>1.022593908337228</v>
       </c>
       <c r="J19">
-        <v>0.9696895892068345</v>
+        <v>0.9730948195013588</v>
       </c>
       <c r="K19">
-        <v>0.983665522336636</v>
+        <v>0.9863251757069235</v>
       </c>
       <c r="L19">
-        <v>0.967043448683689</v>
+        <v>0.9704640767790542</v>
       </c>
       <c r="M19">
-        <v>0.9709790686964503</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9740998004512202</v>
+      </c>
+      <c r="N19">
+        <v>0.9744767257605865</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.934533285419003</v>
+        <v>0.9381339509472447</v>
       </c>
       <c r="D20">
-        <v>0.9648900660874871</v>
+        <v>0.9676265816292958</v>
       </c>
       <c r="E20">
-        <v>0.9469138896452353</v>
+        <v>0.9504356567867971</v>
       </c>
       <c r="F20">
-        <v>0.9508949039248843</v>
+        <v>0.954111331402385</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.018866971317505</v>
+        <v>1.020344792131718</v>
       </c>
       <c r="J20">
-        <v>0.9648439366078829</v>
+        <v>0.9682771865735514</v>
       </c>
       <c r="K20">
-        <v>0.9795797148372437</v>
+        <v>0.9822636101474942</v>
       </c>
       <c r="L20">
-        <v>0.9619591639532776</v>
+        <v>0.9654098649555317</v>
       </c>
       <c r="M20">
-        <v>0.9658598959420366</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9690121031398862</v>
+      </c>
+      <c r="N20">
+        <v>0.9696522512414315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9143260013757849</v>
+        <v>0.9180738733042557</v>
       </c>
       <c r="D21">
-        <v>0.9492713981890246</v>
+        <v>0.9521142352838889</v>
       </c>
       <c r="E21">
-        <v>0.927697941145187</v>
+        <v>0.9313534635785652</v>
       </c>
       <c r="F21">
-        <v>0.9315764497225609</v>
+        <v>0.9349305504018033</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010929861066281</v>
+        <v>1.012462746108793</v>
       </c>
       <c r="J21">
-        <v>0.9479002756753541</v>
+        <v>0.9514465382539576</v>
       </c>
       <c r="K21">
-        <v>0.9652820835897624</v>
+        <v>0.9680633878726713</v>
       </c>
       <c r="L21">
-        <v>0.944192021786045</v>
+        <v>0.9477635303718555</v>
       </c>
       <c r="M21">
-        <v>0.9479814201780579</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9512592542411119</v>
+      </c>
+      <c r="N21">
+        <v>0.9527977014707215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.900292493353632</v>
+        <v>0.9041621582257816</v>
       </c>
       <c r="D22">
-        <v>0.9384453594944878</v>
+        <v>0.9413762403176952</v>
       </c>
       <c r="E22">
-        <v>0.9143773242674612</v>
+        <v>0.918143652093616</v>
       </c>
       <c r="F22">
-        <v>0.9181940199293548</v>
+        <v>0.9216615358008083</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.005398170617192</v>
+        <v>1.006976866165256</v>
       </c>
       <c r="J22">
-        <v>0.9361311513102979</v>
+        <v>0.9397719752171226</v>
       </c>
       <c r="K22">
-        <v>0.9553434791395746</v>
+        <v>0.958205925381401</v>
       </c>
       <c r="L22">
-        <v>0.9318598355917206</v>
+        <v>0.935531987281072</v>
       </c>
       <c r="M22">
-        <v>0.9355811027375069</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9389628430517976</v>
+      </c>
+      <c r="N22">
+        <v>0.9411065592152831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9078769999399147</v>
+        <v>0.9116786311706883</v>
       </c>
       <c r="D23">
-        <v>0.9442939729910079</v>
+        <v>0.9471756681110792</v>
       </c>
       <c r="E23">
-        <v>0.9215739902663856</v>
+        <v>0.9252784097316178</v>
       </c>
       <c r="F23">
-        <v>0.9254231675691763</v>
+        <v>0.9288273768209193</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.008389430355898</v>
+        <v>1.009942514796605</v>
       </c>
       <c r="J23">
-        <v>0.9424918292318588</v>
+        <v>0.9460797331555139</v>
       </c>
       <c r="K23">
-        <v>0.9607154363534663</v>
+        <v>0.9635325081062558</v>
       </c>
       <c r="L23">
-        <v>0.9385239810598448</v>
+        <v>0.9421398498785637</v>
       </c>
       <c r="M23">
-        <v>0.9422811667198419</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9456048697112148</v>
+      </c>
+      <c r="N23">
+        <v>0.9474232748934569</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9348532001570229</v>
+        <v>0.9384517684993759</v>
       </c>
       <c r="D24">
-        <v>0.9651375698934913</v>
+        <v>0.9678725721137588</v>
       </c>
       <c r="E24">
-        <v>0.9472184328763482</v>
+        <v>0.9507382963078644</v>
       </c>
       <c r="F24">
-        <v>0.9512012036511168</v>
+        <v>0.9544156640146229</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.018992293891147</v>
+        <v>1.02046933367386</v>
       </c>
       <c r="J24">
-        <v>0.965112109855818</v>
+        <v>0.9685437628116415</v>
       </c>
       <c r="K24">
-        <v>0.9798058772601113</v>
+        <v>0.9824883919650398</v>
       </c>
       <c r="L24">
-        <v>0.9622405052689624</v>
+        <v>0.9656894937508657</v>
       </c>
       <c r="M24">
-        <v>0.966143131464352</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9692935487938891</v>
+      </c>
+      <c r="N24">
+        <v>0.9699192060483564</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9618005118554586</v>
+        <v>0.9652444741563272</v>
       </c>
       <c r="D25">
-        <v>0.9860036853245687</v>
+        <v>0.9886273426652634</v>
       </c>
       <c r="E25">
-        <v>0.9729056737613863</v>
+        <v>0.9762854087785103</v>
       </c>
       <c r="F25">
-        <v>0.977052420960413</v>
+        <v>0.9801212746325585</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029499175890608</v>
+        <v>1.030919068422585</v>
       </c>
       <c r="J25">
-        <v>0.987685561551668</v>
+        <v>0.9910009108135481</v>
       </c>
       <c r="K25">
-        <v>0.9988232326567719</v>
+        <v>1.001404807848197</v>
       </c>
       <c r="L25">
-        <v>0.9859396791651857</v>
+        <v>0.9892633678587864</v>
       </c>
       <c r="M25">
-        <v>0.9900177300863413</v>
+        <v>0.9930362252646926</v>
+      </c>
+      <c r="N25">
+        <v>0.9924082457762967</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9841768095158725</v>
+        <v>1.011893398716528</v>
       </c>
       <c r="D2">
-        <v>1.003303689309806</v>
+        <v>1.031656879775194</v>
       </c>
       <c r="E2">
-        <v>0.994376761405465</v>
+        <v>1.01999082251189</v>
       </c>
       <c r="F2">
-        <v>0.9983449786974887</v>
+        <v>1.032034312339721</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038228227596777</v>
+        <v>1.052275707607825</v>
       </c>
       <c r="J2">
-        <v>1.006841313916416</v>
+        <v>1.033724107602474</v>
       </c>
       <c r="K2">
-        <v>1.014717189576027</v>
+        <v>1.042692121187389</v>
       </c>
       <c r="L2">
-        <v>1.005914996796109</v>
+        <v>1.031178505229448</v>
       </c>
       <c r="M2">
-        <v>1.00982741885231</v>
+        <v>1.043064693796484</v>
       </c>
       <c r="N2">
-        <v>1.00827114406849</v>
+        <v>1.035192114405082</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9968384913965049</v>
+        <v>1.021892544492554</v>
       </c>
       <c r="D3">
-        <v>1.013117417760581</v>
+        <v>1.039797583338206</v>
       </c>
       <c r="E3">
-        <v>1.006493537558875</v>
+        <v>1.029469489444543</v>
       </c>
       <c r="F3">
-        <v>1.010560809619407</v>
+        <v>1.041157966680071</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043070871044888</v>
+        <v>1.056249591251273</v>
       </c>
       <c r="J3">
-        <v>1.017415714944443</v>
+        <v>1.041803681178903</v>
       </c>
       <c r="K3">
-        <v>1.02358516548192</v>
+        <v>1.049945362812361</v>
       </c>
       <c r="L3">
-        <v>1.017044001152382</v>
+        <v>1.039738692119733</v>
       </c>
       <c r="M3">
-        <v>1.021060322939101</v>
+        <v>1.051289974581355</v>
       </c>
       <c r="N3">
-        <v>1.018860561958878</v>
+        <v>1.043283161902729</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004608922812065</v>
+        <v>1.028098661807397</v>
       </c>
       <c r="D4">
-        <v>1.019137440629683</v>
+        <v>1.044853677270542</v>
       </c>
       <c r="E4">
-        <v>1.013936424394444</v>
+        <v>1.035357802181425</v>
       </c>
       <c r="F4">
-        <v>1.018069056215366</v>
+        <v>1.046829562629647</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046021087304819</v>
+        <v>1.058699944636082</v>
       </c>
       <c r="J4">
-        <v>1.023895462166912</v>
+        <v>1.046809923734638</v>
       </c>
       <c r="K4">
-        <v>1.029010252628713</v>
+        <v>1.054439296813088</v>
       </c>
       <c r="L4">
-        <v>1.023869509260737</v>
+        <v>1.045047426268085</v>
       </c>
       <c r="M4">
-        <v>1.027954187282584</v>
+        <v>1.056393831864523</v>
       </c>
       <c r="N4">
-        <v>1.02534951116564</v>
+        <v>1.048296513897118</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007784182542345</v>
+        <v>1.030649294154996</v>
       </c>
       <c r="D5">
-        <v>1.021596558250651</v>
+        <v>1.046932338906095</v>
       </c>
       <c r="E5">
-        <v>1.016979333588562</v>
+        <v>1.037778987559477</v>
       </c>
       <c r="F5">
-        <v>1.021139733944013</v>
+        <v>1.049162490781425</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047221352687864</v>
+        <v>1.059703075317984</v>
       </c>
       <c r="J5">
-        <v>1.026540876282675</v>
+        <v>1.048865331290685</v>
       </c>
       <c r="K5">
-        <v>1.031222890105655</v>
+        <v>1.056284254749185</v>
       </c>
       <c r="L5">
-        <v>1.026657489351491</v>
+        <v>1.047228150343863</v>
       </c>
       <c r="M5">
-        <v>1.030771167499669</v>
+        <v>1.058491027208459</v>
       </c>
       <c r="N5">
-        <v>1.027998682072881</v>
+        <v>1.050354840367653</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008312215415481</v>
+        <v>1.031074259210189</v>
       </c>
       <c r="D6">
-        <v>1.022005442338652</v>
+        <v>1.04727870361758</v>
       </c>
       <c r="E6">
-        <v>1.017485441131773</v>
+        <v>1.038182451439095</v>
       </c>
       <c r="F6">
-        <v>1.021650520745046</v>
+        <v>1.049551296049443</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047420638067163</v>
+        <v>1.059869975226473</v>
       </c>
       <c r="J6">
-        <v>1.026980652483628</v>
+        <v>1.049207661342881</v>
       </c>
       <c r="K6">
-        <v>1.031590590276657</v>
+        <v>1.056591526549179</v>
       </c>
       <c r="L6">
-        <v>1.027121048322938</v>
+        <v>1.047591417977872</v>
       </c>
       <c r="M6">
-        <v>1.031239610997739</v>
+        <v>1.05884041638706</v>
       </c>
       <c r="N6">
-        <v>1.028439082806482</v>
+        <v>1.050697656567789</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004651698337484</v>
+        <v>1.028132967136781</v>
       </c>
       <c r="D7">
-        <v>1.019170572375818</v>
+        <v>1.044881632237843</v>
       </c>
       <c r="E7">
-        <v>1.013977411199705</v>
+        <v>1.035390361968239</v>
       </c>
       <c r="F7">
-        <v>1.0181104129337</v>
+        <v>1.046860932239461</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046037277831891</v>
+        <v>1.058713452166836</v>
       </c>
       <c r="J7">
-        <v>1.023931109645476</v>
+        <v>1.046837576798143</v>
       </c>
       <c r="K7">
-        <v>1.029040077168027</v>
+        <v>1.054464119020893</v>
       </c>
       <c r="L7">
-        <v>1.023907072267235</v>
+        <v>1.045076760863951</v>
       </c>
       <c r="M7">
-        <v>1.027992136763329</v>
+        <v>1.056422040406368</v>
       </c>
       <c r="N7">
-        <v>1.025385209267712</v>
+        <v>1.048324206231144</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9885497498311885</v>
+        <v>1.015330391108327</v>
       </c>
       <c r="D8">
-        <v>1.006693441903725</v>
+        <v>1.034454238977653</v>
       </c>
       <c r="E8">
-        <v>0.9985599352011835</v>
+        <v>1.023247737672776</v>
       </c>
       <c r="F8">
-        <v>1.002561358783511</v>
+        <v>1.035168388774867</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039905315567418</v>
+        <v>1.053645023802007</v>
       </c>
       <c r="J8">
-        <v>1.010495394887921</v>
+        <v>1.036503048520984</v>
       </c>
       <c r="K8">
-        <v>1.017783503230279</v>
+        <v>1.045186885890196</v>
       </c>
       <c r="L8">
-        <v>1.009759448478641</v>
+        <v>1.034121748773268</v>
       </c>
       <c r="M8">
-        <v>1.013706746261205</v>
+        <v>1.045892156293967</v>
       </c>
       <c r="N8">
-        <v>1.011930414254103</v>
+        <v>1.037975001738445</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9563958888822706</v>
+        <v>0.9904968104712254</v>
       </c>
       <c r="D9">
-        <v>0.9817697796437527</v>
+        <v>1.014265128055976</v>
       </c>
       <c r="E9">
-        <v>0.9678408762227173</v>
+        <v>0.9997430326077622</v>
       </c>
       <c r="F9">
-        <v>0.9716208473439795</v>
+        <v>1.012570285918387</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027479805631572</v>
+        <v>1.043683219131672</v>
       </c>
       <c r="J9">
-        <v>0.9835882976429949</v>
+        <v>1.016389672431319</v>
       </c>
       <c r="K9">
-        <v>0.9951657203267287</v>
+        <v>1.027130926872449</v>
       </c>
       <c r="L9">
-        <v>0.9814781913446855</v>
+        <v>1.012840280304836</v>
       </c>
       <c r="M9">
-        <v>0.9851917730345567</v>
+        <v>1.02546265878301</v>
       </c>
       <c r="N9">
-        <v>0.9849851058448024</v>
+        <v>1.017833062347696</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.9314111446915352</v>
+        <v>0.9719847666958751</v>
       </c>
       <c r="D10">
-        <v>0.9624246326913649</v>
+        <v>0.9992555356742256</v>
       </c>
       <c r="E10">
-        <v>0.9440361855378562</v>
+        <v>0.9822640097272087</v>
       </c>
       <c r="F10">
-        <v>0.9476770217659979</v>
+        <v>0.9957959484563</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.017707705273642</v>
+        <v>1.036173424505956</v>
       </c>
       <c r="J10">
-        <v>0.9626376043597786</v>
+        <v>1.001355749448168</v>
       </c>
       <c r="K10">
-        <v>0.9775071638472319</v>
+        <v>1.013638244676478</v>
       </c>
       <c r="L10">
-        <v>0.9594951583134917</v>
+        <v>0.9969610509500617</v>
       </c>
       <c r="M10">
-        <v>0.9630599281573221</v>
+        <v>1.010241525498213</v>
       </c>
       <c r="N10">
-        <v>0.9640046601740461</v>
+        <v>1.002777789469494</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9194148198672698</v>
+        <v>0.9633796892948825</v>
       </c>
       <c r="D11">
-        <v>0.9531502090149058</v>
+        <v>0.9922922626293379</v>
       </c>
       <c r="E11">
-        <v>0.9326277999865834</v>
+        <v>0.9741517541051609</v>
       </c>
       <c r="F11">
-        <v>0.9362109812997698</v>
+        <v>0.9880197538733455</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.012990788205091</v>
+        <v>1.032664334876108</v>
       </c>
       <c r="J11">
-        <v>0.9525718115596618</v>
+        <v>0.9943594600470584</v>
       </c>
       <c r="K11">
-        <v>0.9690132410647022</v>
+        <v>1.007361014293477</v>
       </c>
       <c r="L11">
-        <v>0.9489428506827238</v>
+        <v>0.9895781671986429</v>
       </c>
       <c r="M11">
-        <v>0.9524452069752812</v>
+        <v>1.003171192695399</v>
       </c>
       <c r="N11">
-        <v>0.9539245727935904</v>
+        <v>0.9957715645349497</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9147401472844846</v>
+        <v>0.9600811711086176</v>
       </c>
       <c r="D12">
-        <v>0.9495393843843568</v>
+        <v>0.9896255850179748</v>
       </c>
       <c r="E12">
-        <v>0.9281861255564133</v>
+        <v>0.9710443120446098</v>
       </c>
       <c r="F12">
-        <v>0.9317483599234001</v>
+        <v>0.9850425779171614</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.01114937151769</v>
+        <v>1.031316660138639</v>
       </c>
       <c r="J12">
-        <v>0.9486489407068976</v>
+        <v>0.9916766117754934</v>
       </c>
       <c r="K12">
-        <v>0.9657016808124116</v>
+        <v>1.004954278506771</v>
       </c>
       <c r="L12">
-        <v>0.9448318475547242</v>
+        <v>0.9867481083075617</v>
       </c>
       <c r="M12">
-        <v>0.9483113757993499</v>
+        <v>1.000462060597018</v>
       </c>
       <c r="N12">
-        <v>0.9499961310142557</v>
+        <v>0.9930849063111118</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9157536189955527</v>
+        <v>0.9607935941187254</v>
       </c>
       <c r="D13">
-        <v>0.9503220489335953</v>
+        <v>0.9902014208497395</v>
       </c>
       <c r="E13">
-        <v>0.9291488949465134</v>
+        <v>0.9717153634588626</v>
       </c>
       <c r="F13">
-        <v>0.9327155996103674</v>
+        <v>0.9856854258920894</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.011548734441708</v>
+        <v>1.031607846736449</v>
       </c>
       <c r="J13">
-        <v>0.9494994332559187</v>
+        <v>0.9922561030264903</v>
       </c>
       <c r="K13">
-        <v>0.9664196927418702</v>
+        <v>1.005474111033455</v>
       </c>
       <c r="L13">
-        <v>0.9457230607618451</v>
+        <v>0.9873593498976404</v>
       </c>
       <c r="M13">
-        <v>0.9492074685304016</v>
+        <v>1.001047131514795</v>
       </c>
       <c r="N13">
-        <v>0.9508478313602493</v>
+        <v>0.9936652205061538</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9190331685237584</v>
+        <v>0.9631092082458879</v>
       </c>
       <c r="D14">
-        <v>0.9528553413234133</v>
+        <v>0.9920735397146385</v>
       </c>
       <c r="E14">
-        <v>0.9322650883383293</v>
+        <v>0.9738968959782358</v>
       </c>
       <c r="F14">
-        <v>0.9358465280174663</v>
+        <v>0.9877755473787833</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.012840515122516</v>
+        <v>1.032553875070669</v>
       </c>
       <c r="J14">
-        <v>0.9522515453344776</v>
+        <v>0.9941394836980378</v>
       </c>
       <c r="K14">
-        <v>0.9687429071016256</v>
+        <v>1.007163669128172</v>
       </c>
       <c r="L14">
-        <v>0.9486071952893276</v>
+        <v>0.9893460995106115</v>
       </c>
       <c r="M14">
-        <v>0.9521076569778767</v>
+        <v>1.002949017734592</v>
       </c>
       <c r="N14">
-        <v>0.9536038517536316</v>
+        <v>0.9955512757942817</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9210233173409472</v>
+        <v>0.964521927979313</v>
       </c>
       <c r="D15">
-        <v>0.954393085695612</v>
+        <v>0.9932160311179506</v>
       </c>
       <c r="E15">
-        <v>0.934156635552765</v>
+        <v>0.9752281066536995</v>
       </c>
       <c r="F15">
-        <v>0.9377472190603702</v>
+        <v>0.9890511842437864</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.013623993268445</v>
+        <v>1.033130703081071</v>
       </c>
       <c r="J15">
-        <v>0.9539215810184332</v>
+        <v>0.995288378083196</v>
       </c>
       <c r="K15">
-        <v>0.9701525196701759</v>
+        <v>1.008194381064618</v>
       </c>
       <c r="L15">
-        <v>0.9503575376168182</v>
+        <v>0.9905581866110562</v>
       </c>
       <c r="M15">
-        <v>0.9538679396641748</v>
+        <v>1.004109481229572</v>
       </c>
       <c r="N15">
-        <v>0.9552762590798143</v>
+        <v>0.9967018017412469</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9321792497351751</v>
+        <v>0.9725423436206502</v>
       </c>
       <c r="D16">
-        <v>0.9630188231873476</v>
+        <v>0.9997070451975493</v>
       </c>
       <c r="E16">
-        <v>0.9447671274738546</v>
+        <v>0.9827899332130036</v>
       </c>
       <c r="F16">
-        <v>0.9484118506602135</v>
+        <v>0.9963002836564088</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.01800924924972</v>
+        <v>1.036400441152259</v>
       </c>
       <c r="J16">
-        <v>0.9632820075059468</v>
+        <v>1.001808934205617</v>
       </c>
       <c r="K16">
-        <v>0.9780507534845725</v>
+        <v>1.014044897744269</v>
       </c>
       <c r="L16">
-        <v>0.9601709025002589</v>
+        <v>0.9974394173777961</v>
       </c>
       <c r="M16">
-        <v>0.9637398609953082</v>
+        <v>1.010699785250867</v>
       </c>
       <c r="N16">
-        <v>0.9646499784465957</v>
+        <v>1.00323161780128</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9388365625778309</v>
+        <v>0.9774068420807026</v>
       </c>
       <c r="D17">
-        <v>0.9681704104617637</v>
+        <v>1.003647743977383</v>
       </c>
       <c r="E17">
-        <v>0.951104726656702</v>
+        <v>0.9873797066721647</v>
       </c>
       <c r="F17">
-        <v>0.9547841498865008</v>
+        <v>1.000702674641739</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.020620105136517</v>
+        <v>1.038379002417759</v>
       </c>
       <c r="J17">
-        <v>0.968866512709656</v>
+        <v>1.005761809877824</v>
       </c>
       <c r="K17">
-        <v>0.9827605341222676</v>
+        <v>1.017592115899322</v>
       </c>
       <c r="L17">
-        <v>0.9660280525715264</v>
+        <v>1.001612693919337</v>
       </c>
       <c r="M17">
-        <v>0.9696343129241017</v>
+        <v>1.014698394633486</v>
       </c>
       <c r="N17">
-        <v>0.9702424142882461</v>
+        <v>1.007190107010343</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9426094547418404</v>
+        <v>0.9801884354694127</v>
       </c>
       <c r="D18">
-        <v>0.9710911584600437</v>
+        <v>1.00590233277044</v>
       </c>
       <c r="E18">
-        <v>0.9546983089472298</v>
+        <v>0.9900053564484342</v>
       </c>
       <c r="F18">
-        <v>0.9583982154047656</v>
+        <v>1.003221949335144</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.022097471737844</v>
+        <v>1.039508673073089</v>
       </c>
       <c r="J18">
-        <v>0.9720307981311059</v>
+        <v>1.008021373853139</v>
       </c>
       <c r="K18">
-        <v>0.9854282790050332</v>
+        <v>1.019619956129056</v>
       </c>
       <c r="L18">
-        <v>0.9693476774429585</v>
+        <v>1.003998869841005</v>
       </c>
       <c r="M18">
-        <v>0.9729758861346658</v>
+        <v>1.016985298534291</v>
       </c>
       <c r="N18">
-        <v>0.973411193357943</v>
+        <v>1.009452879825678</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9438782639489828</v>
+        <v>0.9811277919980376</v>
       </c>
       <c r="D19">
-        <v>0.9720735718574735</v>
+        <v>1.006663916096483</v>
       </c>
       <c r="E19">
-        <v>0.9559071197127003</v>
+        <v>0.9908922379349642</v>
       </c>
       <c r="F19">
-        <v>0.9596140498083144</v>
+        <v>1.004073034173581</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.022593908337228</v>
+        <v>1.039889874721544</v>
       </c>
       <c r="J19">
-        <v>0.9730948195013588</v>
+        <v>1.008784306806348</v>
       </c>
       <c r="K19">
-        <v>0.9863251757069235</v>
+        <v>1.020304672935255</v>
       </c>
       <c r="L19">
-        <v>0.9704640767790542</v>
+        <v>1.004804658446735</v>
       </c>
       <c r="M19">
-        <v>0.9740998004512202</v>
+        <v>1.01775766203772</v>
       </c>
       <c r="N19">
-        <v>0.9744767257605865</v>
+        <v>1.01021689623119</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9381339509472447</v>
+        <v>0.9768907868626</v>
       </c>
       <c r="D20">
-        <v>0.9676265816292958</v>
+        <v>1.003229559171301</v>
       </c>
       <c r="E20">
-        <v>0.9504356567867971</v>
+        <v>0.9868926745507003</v>
       </c>
       <c r="F20">
-        <v>0.954111331402385</v>
+        <v>1.000235439526175</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.020344792131718</v>
+        <v>1.03816928082295</v>
       </c>
       <c r="J20">
-        <v>0.9682771865735514</v>
+        <v>1.005342542072404</v>
       </c>
       <c r="K20">
-        <v>0.9822636101474942</v>
+        <v>1.0172158573945</v>
       </c>
       <c r="L20">
-        <v>0.9654098649555317</v>
+        <v>1.00116998368104</v>
       </c>
       <c r="M20">
-        <v>0.9690121031398862</v>
+        <v>1.014274150276759</v>
       </c>
       <c r="N20">
-        <v>0.9696522512414315</v>
+        <v>1.006770243796548</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9180738733042557</v>
+        <v>0.9624302648495963</v>
       </c>
       <c r="D21">
-        <v>0.9521142352838889</v>
+        <v>0.9915245578190944</v>
       </c>
       <c r="E21">
-        <v>0.9313534635785652</v>
+        <v>0.9732572039192787</v>
       </c>
       <c r="F21">
-        <v>0.9349305504018033</v>
+        <v>0.9871626161462473</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.012462746108793</v>
+        <v>1.032276565887675</v>
       </c>
       <c r="J21">
-        <v>0.9514465382539576</v>
+        <v>0.9935872982500381</v>
       </c>
       <c r="K21">
-        <v>0.9680633878726713</v>
+        <v>1.006668298986089</v>
       </c>
       <c r="L21">
-        <v>0.9477635303718555</v>
+        <v>0.9887635789956672</v>
       </c>
       <c r="M21">
-        <v>0.9512592542411119</v>
+        <v>1.002391347662935</v>
       </c>
       <c r="N21">
-        <v>0.9527977014707215</v>
+        <v>0.9949983061796087</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9041621582257816</v>
+        <v>0.9527376988655571</v>
       </c>
       <c r="D22">
-        <v>0.9413762403176952</v>
+        <v>0.9836939843549822</v>
       </c>
       <c r="E22">
-        <v>0.918143652093616</v>
+        <v>0.9641306029680339</v>
       </c>
       <c r="F22">
-        <v>0.9216615358008083</v>
+        <v>0.9784217840501727</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.006976866165256</v>
+        <v>1.028311820428739</v>
       </c>
       <c r="J22">
-        <v>0.9397719752171226</v>
+        <v>0.9857021620908054</v>
       </c>
       <c r="K22">
-        <v>0.958205925381401</v>
+        <v>0.9995955383765621</v>
       </c>
       <c r="L22">
-        <v>0.935531987281072</v>
+        <v>0.9804477779994998</v>
       </c>
       <c r="M22">
-        <v>0.9389628430517976</v>
+        <v>0.9944331815722237</v>
       </c>
       <c r="N22">
-        <v>0.9411065592152831</v>
+        <v>0.9871019722225929</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9116786311706883</v>
+        <v>0.9579383026527606</v>
       </c>
       <c r="D23">
-        <v>0.9471756681110792</v>
+        <v>0.9878939569774484</v>
       </c>
       <c r="E23">
-        <v>0.9252784097316178</v>
+        <v>0.9690262251169081</v>
       </c>
       <c r="F23">
-        <v>0.9288273768209193</v>
+        <v>0.9831095500796041</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.009942514796605</v>
+        <v>1.030440452051184</v>
       </c>
       <c r="J23">
-        <v>0.9460797331555139</v>
+        <v>0.9899334511486472</v>
       </c>
       <c r="K23">
-        <v>0.9635325081062558</v>
+        <v>1.003390640941198</v>
       </c>
       <c r="L23">
-        <v>0.9421398498785637</v>
+        <v>0.9849095931893361</v>
       </c>
       <c r="M23">
-        <v>0.9456048697112148</v>
+        <v>0.9987024379096805</v>
       </c>
       <c r="N23">
-        <v>0.9474232748934569</v>
+        <v>0.9913392701962321</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9384517684993759</v>
+        <v>0.9771241413953121</v>
       </c>
       <c r="D24">
-        <v>0.9678725721137588</v>
+        <v>1.003418653946368</v>
       </c>
       <c r="E24">
-        <v>0.9507382963078644</v>
+        <v>0.9871129015971816</v>
       </c>
       <c r="F24">
-        <v>0.9544156640146229</v>
+        <v>1.000446712186162</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02046933367386</v>
+        <v>1.038264119948784</v>
       </c>
       <c r="J24">
-        <v>0.9685437628116415</v>
+        <v>1.005532132743636</v>
       </c>
       <c r="K24">
-        <v>0.9824883919650398</v>
+        <v>1.017385998996412</v>
       </c>
       <c r="L24">
-        <v>0.9656894937508657</v>
+        <v>1.00137017294843</v>
       </c>
       <c r="M24">
-        <v>0.9692935487938891</v>
+        <v>1.014465987596764</v>
       </c>
       <c r="N24">
-        <v>0.9699192060483564</v>
+        <v>1.00696010370828</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9652444741563272</v>
+        <v>0.997225683368468</v>
       </c>
       <c r="D25">
-        <v>0.9886273426652634</v>
+        <v>1.019729965821447</v>
       </c>
       <c r="E25">
-        <v>0.9762854087785103</v>
+        <v>1.00610545319815</v>
       </c>
       <c r="F25">
-        <v>0.9801212746325585</v>
+        <v>1.018682687898113</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030919068422585</v>
+        <v>1.046396901724008</v>
       </c>
       <c r="J25">
-        <v>0.9910009108135481</v>
+        <v>1.02184677642014</v>
       </c>
       <c r="K25">
-        <v>1.001404807848197</v>
+        <v>1.032029529921779</v>
       </c>
       <c r="L25">
-        <v>0.9892633678587864</v>
+        <v>1.018609723495068</v>
       </c>
       <c r="M25">
-        <v>0.9930362252646926</v>
+        <v>1.030997740281972</v>
       </c>
       <c r="N25">
-        <v>0.9924082457762967</v>
+        <v>1.02329791605012</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011893398716528</v>
+        <v>0.9813947552150055</v>
       </c>
       <c r="D2">
-        <v>1.031656879775194</v>
+        <v>1.003535493230605</v>
       </c>
       <c r="E2">
-        <v>1.01999082251189</v>
+        <v>0.9897017120901842</v>
       </c>
       <c r="F2">
-        <v>1.032034312339721</v>
+        <v>0.9572341776571621</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052275707607825</v>
+        <v>1.038311062312225</v>
       </c>
       <c r="J2">
-        <v>1.033724107602474</v>
+        <v>1.004146552452569</v>
       </c>
       <c r="K2">
-        <v>1.042692121187389</v>
+        <v>1.014945791791275</v>
       </c>
       <c r="L2">
-        <v>1.031178505229448</v>
+        <v>1.001306407682132</v>
       </c>
       <c r="M2">
-        <v>1.043064693796484</v>
+        <v>0.96932330931847</v>
       </c>
       <c r="N2">
-        <v>1.035192114405082</v>
+        <v>1.005426570756467</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021892544492554</v>
+        <v>0.9862512786007793</v>
       </c>
       <c r="D3">
-        <v>1.039797583338206</v>
+        <v>1.006992345530738</v>
       </c>
       <c r="E3">
-        <v>1.029469489444543</v>
+        <v>0.9940285157418023</v>
       </c>
       <c r="F3">
-        <v>1.041157966680071</v>
+        <v>0.9648886682425847</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056249591251273</v>
+        <v>1.039561200978973</v>
       </c>
       <c r="J3">
-        <v>1.041803681178903</v>
+        <v>1.007123896376912</v>
       </c>
       <c r="K3">
-        <v>1.049945362812361</v>
+        <v>1.017536532993838</v>
       </c>
       <c r="L3">
-        <v>1.039738692119733</v>
+        <v>1.004738377361313</v>
       </c>
       <c r="M3">
-        <v>1.051289974581355</v>
+        <v>0.97599143182885</v>
       </c>
       <c r="N3">
-        <v>1.043283161902729</v>
+        <v>1.006420408778769</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028098661807397</v>
+        <v>0.9893168475580758</v>
       </c>
       <c r="D4">
-        <v>1.044853677270542</v>
+        <v>1.009173732000379</v>
       </c>
       <c r="E4">
-        <v>1.035357802181425</v>
+        <v>0.9967648886046833</v>
       </c>
       <c r="F4">
-        <v>1.046829562629647</v>
+        <v>0.9697061348982382</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058699944636082</v>
+        <v>1.040333343859995</v>
       </c>
       <c r="J4">
-        <v>1.046809923734638</v>
+        <v>1.008997834377716</v>
       </c>
       <c r="K4">
-        <v>1.054439296813088</v>
+        <v>1.0191626848122</v>
       </c>
       <c r="L4">
-        <v>1.045047426268085</v>
+        <v>1.006902516029092</v>
       </c>
       <c r="M4">
-        <v>1.056393831864523</v>
+        <v>0.9801844742465529</v>
       </c>
       <c r="N4">
-        <v>1.048296513897118</v>
+        <v>1.007045825666453</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030649294154996</v>
+        <v>0.990587974043209</v>
       </c>
       <c r="D5">
-        <v>1.046932338906095</v>
+        <v>1.010077997256725</v>
       </c>
       <c r="E5">
-        <v>1.037778987559477</v>
+        <v>0.9979007228773965</v>
       </c>
       <c r="F5">
-        <v>1.049162490781425</v>
+        <v>0.971700734337027</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059703075317984</v>
+        <v>1.04064937171778</v>
       </c>
       <c r="J5">
-        <v>1.048865331290685</v>
+        <v>1.009773532437613</v>
       </c>
       <c r="K5">
-        <v>1.056284254749185</v>
+        <v>1.019834704069823</v>
       </c>
       <c r="L5">
-        <v>1.047228150343863</v>
+        <v>1.00779931241436</v>
       </c>
       <c r="M5">
-        <v>1.058491027208459</v>
+        <v>0.9819196251056811</v>
       </c>
       <c r="N5">
-        <v>1.050354840367653</v>
+        <v>1.00730468212925</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031074259210189</v>
+        <v>0.9908003890843026</v>
       </c>
       <c r="D6">
-        <v>1.04727870361758</v>
+        <v>1.010229090749484</v>
       </c>
       <c r="E6">
-        <v>1.038182451439095</v>
+        <v>0.9980905995799744</v>
       </c>
       <c r="F6">
-        <v>1.049551296049443</v>
+        <v>0.9720338872628389</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059869975226473</v>
+        <v>1.040701937219453</v>
       </c>
       <c r="J6">
-        <v>1.049207661342881</v>
+        <v>1.00990307924167</v>
       </c>
       <c r="K6">
-        <v>1.056591526549179</v>
+        <v>1.019946869364823</v>
       </c>
       <c r="L6">
-        <v>1.047591417977872</v>
+        <v>1.007949140637198</v>
       </c>
       <c r="M6">
-        <v>1.05884041638706</v>
+        <v>0.9822093880072561</v>
       </c>
       <c r="N6">
-        <v>1.050697656567789</v>
+        <v>1.007347911111592</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028132967136781</v>
+        <v>0.9893339007291624</v>
       </c>
       <c r="D7">
-        <v>1.044881632237843</v>
+        <v>1.009185864478965</v>
       </c>
       <c r="E7">
-        <v>1.035390361968239</v>
+        <v>0.9967801219928443</v>
       </c>
       <c r="F7">
-        <v>1.046860932239461</v>
+        <v>0.9697329050762155</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058713452166836</v>
+        <v>1.040337600071305</v>
       </c>
       <c r="J7">
-        <v>1.046837576798143</v>
+        <v>1.009008246238404</v>
       </c>
       <c r="K7">
-        <v>1.054464119020893</v>
+        <v>1.019171709482267</v>
       </c>
       <c r="L7">
-        <v>1.045076760863951</v>
+        <v>1.006914549493102</v>
       </c>
       <c r="M7">
-        <v>1.056422040406368</v>
+        <v>0.9802077659529627</v>
       </c>
       <c r="N7">
-        <v>1.048324206231144</v>
+        <v>1.007049300303391</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015330391108327</v>
+        <v>0.9830524531586718</v>
       </c>
       <c r="D8">
-        <v>1.034454238977653</v>
+        <v>1.004715528748153</v>
       </c>
       <c r="E8">
-        <v>1.023247737672776</v>
+        <v>0.9911774880914056</v>
       </c>
       <c r="F8">
-        <v>1.035168388774867</v>
+        <v>0.9598502197530766</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053645023802007</v>
+        <v>1.038741308345577</v>
       </c>
       <c r="J8">
-        <v>1.036503048520984</v>
+        <v>1.005163956057034</v>
       </c>
       <c r="K8">
-        <v>1.045186885890196</v>
+        <v>1.015832001834186</v>
       </c>
       <c r="L8">
-        <v>1.034121748773268</v>
+        <v>1.00247830716752</v>
       </c>
       <c r="M8">
-        <v>1.045892156293967</v>
+        <v>0.9716029846360463</v>
       </c>
       <c r="N8">
-        <v>1.037975001738445</v>
+        <v>1.005766199903748</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9904968104712254</v>
+        <v>0.9713567142282379</v>
       </c>
       <c r="D9">
-        <v>1.014265128055976</v>
+        <v>0.9963903502543324</v>
       </c>
       <c r="E9">
-        <v>0.9997430326077622</v>
+        <v>0.9807889532568643</v>
       </c>
       <c r="F9">
-        <v>1.012570285918387</v>
+        <v>0.9413099186776261</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043683219131672</v>
+        <v>1.035635771032076</v>
       </c>
       <c r="J9">
-        <v>1.016389672431319</v>
+        <v>0.9979631289606039</v>
       </c>
       <c r="K9">
-        <v>1.027130926872449</v>
+        <v>1.009542264251076</v>
       </c>
       <c r="L9">
-        <v>1.012840280304836</v>
+        <v>0.9942016008908531</v>
       </c>
       <c r="M9">
-        <v>1.02546265878301</v>
+        <v>0.9554328304142404</v>
       </c>
       <c r="N9">
-        <v>1.017833062347696</v>
+        <v>1.003362135091682</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9719847666958751</v>
+        <v>0.9630799576486583</v>
       </c>
       <c r="D10">
-        <v>0.9992555356742256</v>
+        <v>0.9905033212492096</v>
       </c>
       <c r="E10">
-        <v>0.9822640097272087</v>
+        <v>0.9734692628554303</v>
       </c>
       <c r="F10">
-        <v>0.9957959484563</v>
+        <v>0.9280550596697745</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036173424505956</v>
+        <v>1.033351748931256</v>
       </c>
       <c r="J10">
-        <v>1.001355749448168</v>
+        <v>0.9928390385213558</v>
       </c>
       <c r="K10">
-        <v>1.013638244676478</v>
+        <v>1.005046184589622</v>
       </c>
       <c r="L10">
-        <v>0.9969610509500617</v>
+        <v>0.9883346498988862</v>
       </c>
       <c r="M10">
-        <v>1.010241525498213</v>
+        <v>0.9438573075488228</v>
       </c>
       <c r="N10">
-        <v>1.002777789469494</v>
+        <v>1.001651223000559</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9633796892948825</v>
+        <v>0.9593676193060312</v>
       </c>
       <c r="D11">
-        <v>0.9922922626293379</v>
+        <v>0.9878652303917645</v>
       </c>
       <c r="E11">
-        <v>0.9741517541051609</v>
+        <v>0.9701944083152099</v>
       </c>
       <c r="F11">
-        <v>0.9880197538733455</v>
+        <v>0.9220674792729251</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032664334876108</v>
+        <v>1.032307777175517</v>
       </c>
       <c r="J11">
-        <v>0.9943594600470584</v>
+        <v>0.9905342023914551</v>
       </c>
       <c r="K11">
-        <v>1.007361014293477</v>
+        <v>1.003019677328536</v>
       </c>
       <c r="L11">
-        <v>0.9895781671986429</v>
+        <v>0.9857011885557643</v>
       </c>
       <c r="M11">
-        <v>1.003171192695399</v>
+        <v>0.938625629954182</v>
       </c>
       <c r="N11">
-        <v>0.9957715645349497</v>
+        <v>1.00088166586551</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9600811711086176</v>
+        <v>0.9579679926021386</v>
       </c>
       <c r="D12">
-        <v>0.9896255850179748</v>
+        <v>0.9868710967146681</v>
       </c>
       <c r="E12">
-        <v>0.9710443120446098</v>
+        <v>0.9689610118199085</v>
       </c>
       <c r="F12">
-        <v>0.9850425779171614</v>
+        <v>0.919802624092626</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031316660138639</v>
+        <v>1.031911329063712</v>
       </c>
       <c r="J12">
-        <v>0.9916766117754934</v>
+        <v>0.9896642583393264</v>
       </c>
       <c r="K12">
-        <v>1.004954278506771</v>
+        <v>1.002254223646418</v>
       </c>
       <c r="L12">
-        <v>0.9867481083075617</v>
+        <v>0.9847080492731091</v>
       </c>
       <c r="M12">
-        <v>1.000462060597018</v>
+        <v>0.9366463837825726</v>
       </c>
       <c r="N12">
-        <v>0.9930849063111118</v>
+        <v>1.000591210235621</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9607935941187254</v>
+        <v>0.9582691780501574</v>
       </c>
       <c r="D13">
-        <v>0.9902014208497395</v>
+        <v>0.9870850004991522</v>
       </c>
       <c r="E13">
-        <v>0.9717153634588626</v>
+        <v>0.9692263670392481</v>
       </c>
       <c r="F13">
-        <v>0.9856854258920894</v>
+        <v>0.9202903510200409</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031607846736449</v>
+        <v>1.031996767966651</v>
       </c>
       <c r="J13">
-        <v>0.9922561030264903</v>
+        <v>0.9898515053318185</v>
       </c>
       <c r="K13">
-        <v>1.005474111033455</v>
+        <v>1.00241900449438</v>
       </c>
       <c r="L13">
-        <v>0.9873593498976404</v>
+        <v>0.9849217745799855</v>
       </c>
       <c r="M13">
-        <v>1.001047131514795</v>
+        <v>0.9370726188522085</v>
       </c>
       <c r="N13">
-        <v>0.9936652205061538</v>
+        <v>1.000653727518494</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9631092082458879</v>
+        <v>0.9592523565986567</v>
       </c>
       <c r="D14">
-        <v>0.9920735397146385</v>
+        <v>0.9877833505703895</v>
       </c>
       <c r="E14">
-        <v>0.9738968959782358</v>
+        <v>0.9700928085531513</v>
       </c>
       <c r="F14">
-        <v>0.9877755473787833</v>
+        <v>0.9218811199311613</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032553875070669</v>
+        <v>1.032275186058547</v>
       </c>
       <c r="J14">
-        <v>0.9941394836980378</v>
+        <v>0.9904625800902078</v>
       </c>
       <c r="K14">
-        <v>1.007163669128172</v>
+        <v>1.002956668755147</v>
       </c>
       <c r="L14">
-        <v>0.9893460995106115</v>
+        <v>0.985619406442119</v>
       </c>
       <c r="M14">
-        <v>1.002949017734592</v>
+        <v>0.9384627773171126</v>
       </c>
       <c r="N14">
-        <v>0.9955512757942817</v>
+        <v>1.000857752517155</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.964521927979313</v>
+        <v>0.9598553381595393</v>
       </c>
       <c r="D15">
-        <v>0.9932160311179506</v>
+        <v>0.9882117142647369</v>
       </c>
       <c r="E15">
-        <v>0.9752281066536995</v>
+        <v>0.9706243670769965</v>
       </c>
       <c r="F15">
-        <v>0.9890511842437864</v>
+        <v>0.9228557256629928</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033130703081071</v>
+        <v>1.03244556667288</v>
       </c>
       <c r="J15">
-        <v>0.995288378083196</v>
+        <v>0.9908372230505292</v>
       </c>
       <c r="K15">
-        <v>1.008194381064618</v>
+        <v>1.003286232374353</v>
       </c>
       <c r="L15">
-        <v>0.9905581866110562</v>
+        <v>0.9860472278417565</v>
       </c>
       <c r="M15">
-        <v>1.004109481229572</v>
+        <v>0.9393144373728072</v>
       </c>
       <c r="N15">
-        <v>0.9967018017412469</v>
+        <v>1.000982839172285</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9725423436206502</v>
+        <v>0.9633235107256711</v>
       </c>
       <c r="D16">
-        <v>0.9997070451975493</v>
+        <v>0.9906764565322429</v>
       </c>
       <c r="E16">
-        <v>0.9827899332130036</v>
+        <v>0.9736842894796269</v>
       </c>
       <c r="F16">
-        <v>0.9963002836564088</v>
+        <v>0.9284469170793102</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036400441152259</v>
+        <v>1.033419841511761</v>
       </c>
       <c r="J16">
-        <v>1.001808934205617</v>
+        <v>0.9929901153229774</v>
       </c>
       <c r="K16">
-        <v>1.014044897744269</v>
+        <v>1.005178936432965</v>
       </c>
       <c r="L16">
-        <v>0.9974394173777961</v>
+        <v>0.988507382860362</v>
       </c>
       <c r="M16">
-        <v>1.010699785250867</v>
+        <v>0.9441996460957758</v>
       </c>
       <c r="N16">
-        <v>1.00323161780128</v>
+        <v>1.001701666564774</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9774068420807026</v>
+        <v>0.9654636696534653</v>
       </c>
       <c r="D17">
-        <v>1.003647743977383</v>
+        <v>0.9921981227911919</v>
       </c>
       <c r="E17">
-        <v>0.9873797066721647</v>
+        <v>0.9755747176359149</v>
       </c>
       <c r="F17">
-        <v>1.000702674641739</v>
+        <v>0.931885339313193</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038379002417759</v>
+        <v>1.034015982904577</v>
       </c>
       <c r="J17">
-        <v>1.005761809877824</v>
+        <v>0.9943169221573563</v>
       </c>
       <c r="K17">
-        <v>1.017592115899322</v>
+        <v>1.006344344157648</v>
       </c>
       <c r="L17">
-        <v>1.001612693919337</v>
+        <v>0.9900250071773836</v>
       </c>
       <c r="M17">
-        <v>1.014698394633486</v>
+        <v>0.947203260860603</v>
       </c>
       <c r="N17">
-        <v>1.007190107010343</v>
+        <v>1.002144681431971</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9801884354694127</v>
+        <v>0.9666996966918211</v>
       </c>
       <c r="D18">
-        <v>1.00590233277044</v>
+        <v>0.9930771635402814</v>
       </c>
       <c r="E18">
-        <v>0.9900053564484342</v>
+        <v>0.9766672874911239</v>
       </c>
       <c r="F18">
-        <v>1.003221949335144</v>
+        <v>0.9338672310168801</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039508673073089</v>
+        <v>1.034358427738675</v>
       </c>
       <c r="J18">
-        <v>1.008021373853139</v>
+        <v>0.9950825867286222</v>
       </c>
       <c r="K18">
-        <v>1.019619956129056</v>
+        <v>1.007016473795174</v>
       </c>
       <c r="L18">
-        <v>1.003998869841005</v>
+        <v>0.9909013066620753</v>
       </c>
       <c r="M18">
-        <v>1.016985298534291</v>
+        <v>0.9489342713537841</v>
       </c>
       <c r="N18">
-        <v>1.009452879825678</v>
+        <v>1.002400334716973</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9811277919980376</v>
+        <v>0.9671191053599127</v>
       </c>
       <c r="D19">
-        <v>1.006663916096483</v>
+        <v>0.993375473122442</v>
       </c>
       <c r="E19">
-        <v>0.9908922379349642</v>
+        <v>0.9770381476617129</v>
       </c>
       <c r="F19">
-        <v>1.004073034173581</v>
+        <v>0.9345390878847198</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039889874721544</v>
+        <v>1.034474309751259</v>
       </c>
       <c r="J19">
-        <v>1.008784306806348</v>
+        <v>0.995342286634287</v>
       </c>
       <c r="K19">
-        <v>1.020304672935255</v>
+        <v>1.007244379413966</v>
       </c>
       <c r="L19">
-        <v>1.004804658446735</v>
+        <v>0.9911986197084419</v>
       </c>
       <c r="M19">
-        <v>1.01775766203772</v>
+        <v>0.9495210335152758</v>
       </c>
       <c r="N19">
-        <v>1.01021689623119</v>
+        <v>1.002487047860059</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9768907868626</v>
+        <v>0.9652353318848613</v>
       </c>
       <c r="D20">
-        <v>1.003229559171301</v>
+        <v>0.9920357497700324</v>
       </c>
       <c r="E20">
-        <v>0.9868926745507003</v>
+        <v>0.9753729435621298</v>
       </c>
       <c r="F20">
-        <v>1.000235439526175</v>
+        <v>0.9315189027094082</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03816928082295</v>
+        <v>1.033952570961257</v>
       </c>
       <c r="J20">
-        <v>1.005342542072404</v>
+        <v>0.9941754267394061</v>
       </c>
       <c r="K20">
-        <v>1.0172158573945</v>
+        <v>1.006220101611152</v>
       </c>
       <c r="L20">
-        <v>1.00116998368104</v>
+        <v>0.9898631082833781</v>
       </c>
       <c r="M20">
-        <v>1.014274150276759</v>
+        <v>0.9468831886250978</v>
       </c>
       <c r="N20">
-        <v>1.006770243796548</v>
+        <v>1.002097436570364</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9624302648495963</v>
+        <v>0.9589634183985299</v>
       </c>
       <c r="D21">
-        <v>0.9915245578190944</v>
+        <v>0.9875781040545479</v>
       </c>
       <c r="E21">
-        <v>0.9732572039192787</v>
+        <v>0.9698381413022495</v>
       </c>
       <c r="F21">
-        <v>0.9871626161462473</v>
+        <v>0.9214138349827395</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032276565887675</v>
+        <v>1.032193441738562</v>
       </c>
       <c r="J21">
-        <v>0.9935872982500381</v>
+        <v>0.9902830231161368</v>
       </c>
       <c r="K21">
-        <v>1.006668298986089</v>
+        <v>1.002798697537958</v>
       </c>
       <c r="L21">
-        <v>0.9887635789956672</v>
+        <v>0.9854143924367336</v>
       </c>
       <c r="M21">
-        <v>1.002391347662935</v>
+        <v>0.9380544292352127</v>
       </c>
       <c r="N21">
-        <v>0.9949983061796087</v>
+        <v>1.000797801950231</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9527376988655571</v>
+        <v>0.9548994550257895</v>
       </c>
       <c r="D22">
-        <v>0.9836939843549822</v>
+        <v>0.9846925841218093</v>
       </c>
       <c r="E22">
-        <v>0.9641306029680339</v>
+        <v>0.9662593562766563</v>
       </c>
       <c r="F22">
-        <v>0.9784217840501727</v>
+        <v>0.9148222265099296</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028311820428739</v>
+        <v>1.031037005854283</v>
       </c>
       <c r="J22">
-        <v>0.9857021620908054</v>
+        <v>0.9877552092576011</v>
       </c>
       <c r="K22">
-        <v>0.9995955383765621</v>
+        <v>1.000573507734145</v>
       </c>
       <c r="L22">
-        <v>0.9804477779994998</v>
+        <v>0.9825302228343096</v>
       </c>
       <c r="M22">
-        <v>0.9944331815722237</v>
+        <v>0.9322935586499693</v>
       </c>
       <c r="N22">
-        <v>0.9871019722225929</v>
+        <v>0.9999538413946246</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9579383026527606</v>
+        <v>0.9570657740367263</v>
       </c>
       <c r="D23">
-        <v>0.9878939569774484</v>
+        <v>0.9862304154622729</v>
       </c>
       <c r="E23">
-        <v>0.9690262251169081</v>
+        <v>0.9681663182847174</v>
       </c>
       <c r="F23">
-        <v>0.9831095500796041</v>
+        <v>0.9183404346049444</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030440452051184</v>
+        <v>1.031654980874732</v>
       </c>
       <c r="J23">
-        <v>0.9899334511486472</v>
+        <v>0.989103206840991</v>
       </c>
       <c r="K23">
-        <v>1.003390640941198</v>
+        <v>1.001760410288904</v>
       </c>
       <c r="L23">
-        <v>0.9849095931893361</v>
+        <v>0.9840677849195865</v>
       </c>
       <c r="M23">
-        <v>0.9987024379096805</v>
+        <v>0.9353685056563745</v>
       </c>
       <c r="N23">
-        <v>0.9913392701962321</v>
+        <v>1.000403890242604</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9771241413953121</v>
+        <v>0.9653385457747766</v>
       </c>
       <c r="D24">
-        <v>1.003418653946368</v>
+        <v>0.9921091454194678</v>
       </c>
       <c r="E24">
-        <v>0.9871129015971816</v>
+        <v>0.975464147662545</v>
       </c>
       <c r="F24">
-        <v>1.000446712186162</v>
+        <v>0.9316845525607657</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038264119948784</v>
+        <v>1.033981240357855</v>
       </c>
       <c r="J24">
-        <v>1.005532132743636</v>
+        <v>0.9942393878244951</v>
       </c>
       <c r="K24">
-        <v>1.017385998996412</v>
+        <v>1.006276265002982</v>
       </c>
       <c r="L24">
-        <v>1.00137017294843</v>
+        <v>0.9899362908721729</v>
       </c>
       <c r="M24">
-        <v>1.014465987596764</v>
+        <v>0.9470278800014729</v>
       </c>
       <c r="N24">
-        <v>1.00696010370828</v>
+        <v>1.002118792965792</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.997225683368468</v>
+        <v>0.9744603009267838</v>
       </c>
       <c r="D25">
-        <v>1.019729965821447</v>
+        <v>0.9985991712364584</v>
       </c>
       <c r="E25">
-        <v>1.00610545319815</v>
+        <v>0.983540371582194</v>
       </c>
       <c r="F25">
-        <v>1.018682687898113</v>
+        <v>0.946249700507776</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046396901724008</v>
+        <v>1.036474951728773</v>
       </c>
       <c r="J25">
-        <v>1.02184677642014</v>
+        <v>0.9998788442207737</v>
       </c>
       <c r="K25">
-        <v>1.032029529921779</v>
+        <v>1.011219272259435</v>
       </c>
       <c r="L25">
-        <v>1.018609723495068</v>
+        <v>0.99639969160536</v>
       </c>
       <c r="M25">
-        <v>1.030997740281972</v>
+        <v>0.9597439655252572</v>
       </c>
       <c r="N25">
-        <v>1.02329791605012</v>
+        <v>1.004001765941336</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9813947552150055</v>
+        <v>1.015627265704854</v>
       </c>
       <c r="D2">
-        <v>1.003535493230605</v>
+        <v>1.021298618812509</v>
       </c>
       <c r="E2">
-        <v>0.9897017120901842</v>
+        <v>1.01923626467175</v>
       </c>
       <c r="F2">
-        <v>0.9572341776571621</v>
+        <v>1.013957925717873</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038311062312225</v>
+        <v>1.0260943693443</v>
       </c>
       <c r="J2">
-        <v>1.004146552452569</v>
+        <v>1.020851701933635</v>
       </c>
       <c r="K2">
-        <v>1.014945791791275</v>
+        <v>1.024136360997896</v>
       </c>
       <c r="L2">
-        <v>1.001306407682132</v>
+        <v>1.022080110856899</v>
       </c>
       <c r="M2">
-        <v>0.96932330931847</v>
+        <v>1.016817517528885</v>
       </c>
       <c r="N2">
-        <v>1.005426570756467</v>
+        <v>1.011059810587822</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9862512786007793</v>
+        <v>1.016612735642829</v>
       </c>
       <c r="D3">
-        <v>1.006992345530738</v>
+        <v>1.021999029556605</v>
       </c>
       <c r="E3">
-        <v>0.9940285157418023</v>
+        <v>1.020168297976856</v>
       </c>
       <c r="F3">
-        <v>0.9648886682425847</v>
+        <v>1.015587432157119</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039561200978973</v>
+        <v>1.026247891690876</v>
       </c>
       <c r="J3">
-        <v>1.007123896376912</v>
+        <v>1.021472079261596</v>
       </c>
       <c r="K3">
-        <v>1.017536532993838</v>
+        <v>1.024643485249876</v>
       </c>
       <c r="L3">
-        <v>1.004738377361313</v>
+        <v>1.02281777906419</v>
       </c>
       <c r="M3">
-        <v>0.97599143182885</v>
+        <v>1.018249573845233</v>
       </c>
       <c r="N3">
-        <v>1.006420408778769</v>
+        <v>1.01126579472552</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9893168475580758</v>
+        <v>1.017249969601603</v>
       </c>
       <c r="D4">
-        <v>1.009173732000379</v>
+        <v>1.022451383047433</v>
       </c>
       <c r="E4">
-        <v>0.9967648886046833</v>
+        <v>1.020771328459327</v>
       </c>
       <c r="F4">
-        <v>0.9697061348982382</v>
+        <v>1.016641238609949</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040333343859995</v>
+        <v>1.0263450370214</v>
       </c>
       <c r="J4">
-        <v>1.008997834377716</v>
+        <v>1.021872521155145</v>
       </c>
       <c r="K4">
-        <v>1.0191626848122</v>
+        <v>1.024970100685548</v>
       </c>
       <c r="L4">
-        <v>1.006902516029092</v>
+        <v>1.023294424925193</v>
       </c>
       <c r="M4">
-        <v>0.9801844742465529</v>
+        <v>1.019175166027082</v>
       </c>
       <c r="N4">
-        <v>1.007045825666453</v>
+        <v>1.011398712945591</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.990587974043209</v>
+        <v>1.017517760357028</v>
       </c>
       <c r="D5">
-        <v>1.010077997256725</v>
+        <v>1.0226413464364</v>
       </c>
       <c r="E5">
-        <v>0.9979007228773965</v>
+        <v>1.021024829041429</v>
       </c>
       <c r="F5">
-        <v>0.971700734337027</v>
+        <v>1.017084123684324</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04064937171778</v>
+        <v>1.026385351399956</v>
       </c>
       <c r="J5">
-        <v>1.009773532437613</v>
+        <v>1.022040631833361</v>
       </c>
       <c r="K5">
-        <v>1.019834704069823</v>
+        <v>1.025107043962203</v>
       </c>
       <c r="L5">
-        <v>1.00779931241436</v>
+        <v>1.023494645665991</v>
       </c>
       <c r="M5">
-        <v>0.9819196251056811</v>
+        <v>1.019564040920578</v>
       </c>
       <c r="N5">
-        <v>1.00730468212925</v>
+        <v>1.011454503928084</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9908003890843026</v>
+        <v>1.017562717620764</v>
       </c>
       <c r="D6">
-        <v>1.010229090749484</v>
+        <v>1.022673230033764</v>
       </c>
       <c r="E6">
-        <v>0.9980905995799744</v>
+        <v>1.021067392125564</v>
       </c>
       <c r="F6">
-        <v>0.9720338872628389</v>
+        <v>1.017158478309849</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040701937219453</v>
+        <v>1.026392089536035</v>
       </c>
       <c r="J6">
-        <v>1.00990307924167</v>
+        <v>1.022068844581641</v>
       </c>
       <c r="K6">
-        <v>1.019946869364823</v>
+        <v>1.025130015884588</v>
       </c>
       <c r="L6">
-        <v>1.007949140637198</v>
+        <v>1.023528254168211</v>
       </c>
       <c r="M6">
-        <v>0.9822093880072561</v>
+        <v>1.019629320584908</v>
       </c>
       <c r="N6">
-        <v>1.007347911111592</v>
+        <v>1.011463866331336</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9893339007291624</v>
+        <v>1.017253548236204</v>
       </c>
       <c r="D7">
-        <v>1.009185864478965</v>
+        <v>1.022453922157529</v>
       </c>
       <c r="E7">
-        <v>0.9967801219928443</v>
+        <v>1.020774715798945</v>
       </c>
       <c r="F7">
-        <v>0.9697329050762155</v>
+        <v>1.016647156984593</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040337600071305</v>
+        <v>1.026345577769426</v>
       </c>
       <c r="J7">
-        <v>1.009008246238404</v>
+        <v>1.021874768381533</v>
       </c>
       <c r="K7">
-        <v>1.019171709482267</v>
+        <v>1.024971931966003</v>
       </c>
       <c r="L7">
-        <v>1.006914549493102</v>
+        <v>1.023297100917429</v>
       </c>
       <c r="M7">
-        <v>0.9802077659529627</v>
+        <v>1.019180363144165</v>
       </c>
       <c r="N7">
-        <v>1.007049300303391</v>
+        <v>1.011399458772466</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9830524531586718</v>
+        <v>1.01596039959586</v>
       </c>
       <c r="D8">
-        <v>1.004715528748153</v>
+        <v>1.021535503579901</v>
       </c>
       <c r="E8">
-        <v>0.9911774880914056</v>
+        <v>1.019551261762846</v>
       </c>
       <c r="F8">
-        <v>0.9598502197530766</v>
+        <v>1.014508751999717</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038741308345577</v>
+        <v>1.026146707025956</v>
       </c>
       <c r="J8">
-        <v>1.005163956057034</v>
+        <v>1.02106156529376</v>
       </c>
       <c r="K8">
-        <v>1.015832001834186</v>
+        <v>1.024308062325896</v>
       </c>
       <c r="L8">
-        <v>1.00247830716752</v>
+        <v>1.02232954922826</v>
       </c>
       <c r="M8">
-        <v>0.9716029846360463</v>
+        <v>1.017301707381987</v>
       </c>
       <c r="N8">
-        <v>1.005766199903748</v>
+        <v>1.011129499998952</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9713567142282379</v>
+        <v>1.013678369669363</v>
       </c>
       <c r="D9">
-        <v>0.9963903502543324</v>
+        <v>1.019910567137366</v>
       </c>
       <c r="E9">
-        <v>0.9807889532568643</v>
+        <v>1.017394924940004</v>
       </c>
       <c r="F9">
-        <v>0.9413099186776261</v>
+        <v>1.01073575878802</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035635771032076</v>
+        <v>1.025779481029547</v>
       </c>
       <c r="J9">
-        <v>0.9979631289606039</v>
+        <v>1.019621043975133</v>
       </c>
       <c r="K9">
-        <v>1.009542264251076</v>
+        <v>1.023126539774946</v>
       </c>
       <c r="L9">
-        <v>0.9942016008908531</v>
+        <v>1.020619413782585</v>
       </c>
       <c r="M9">
-        <v>0.9554328304142404</v>
+        <v>1.013983015980325</v>
       </c>
       <c r="N9">
-        <v>1.003362135091682</v>
+        <v>1.010650980606716</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9630799576486583</v>
+        <v>1.012154719004923</v>
       </c>
       <c r="D10">
-        <v>0.9905033212492096</v>
+        <v>1.018822877203711</v>
       </c>
       <c r="E10">
-        <v>0.9734692628554303</v>
+        <v>1.015957036694228</v>
       </c>
       <c r="F10">
-        <v>0.9280550596697745</v>
+        <v>1.008216737351717</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033351748931256</v>
+        <v>1.025523389400391</v>
       </c>
       <c r="J10">
-        <v>0.9928390385213558</v>
+        <v>1.01865558757503</v>
       </c>
       <c r="K10">
-        <v>1.005046184589622</v>
+        <v>1.022330991546367</v>
       </c>
       <c r="L10">
-        <v>0.9883346498988862</v>
+        <v>1.019475808851285</v>
       </c>
       <c r="M10">
-        <v>0.9438573075488228</v>
+        <v>1.011764630500579</v>
       </c>
       <c r="N10">
-        <v>1.001651223000559</v>
+        <v>1.010330065898335</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9593676193060312</v>
+        <v>1.011494403424756</v>
       </c>
       <c r="D11">
-        <v>0.9878652303917645</v>
+        <v>1.018350854160147</v>
       </c>
       <c r="E11">
-        <v>0.9701944083152099</v>
+        <v>1.01533433015185</v>
       </c>
       <c r="F11">
-        <v>0.9220674792729251</v>
+        <v>1.007125000909104</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032307777175517</v>
+        <v>1.025409827224835</v>
       </c>
       <c r="J11">
-        <v>0.9905342023914551</v>
+        <v>1.018236314868331</v>
       </c>
       <c r="K11">
-        <v>1.003019677328536</v>
+        <v>1.021984643333739</v>
       </c>
       <c r="L11">
-        <v>0.9857011885557643</v>
+        <v>1.018979774386908</v>
       </c>
       <c r="M11">
-        <v>0.938625629954182</v>
+        <v>1.010802556745678</v>
       </c>
       <c r="N11">
-        <v>1.00088166586551</v>
+        <v>1.010190653222627</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9579679926021386</v>
+        <v>1.011249046711697</v>
       </c>
       <c r="D12">
-        <v>0.9868710967146681</v>
+        <v>1.018175366656922</v>
       </c>
       <c r="E12">
-        <v>0.9689610118199085</v>
+        <v>1.015103014778385</v>
       </c>
       <c r="F12">
-        <v>0.919802624092626</v>
+        <v>1.006719325234601</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031911329063712</v>
+        <v>1.025367243726669</v>
       </c>
       <c r="J12">
-        <v>0.9896642583393264</v>
+        <v>1.018080393700372</v>
       </c>
       <c r="K12">
-        <v>1.002254223646418</v>
+        <v>1.021855712924521</v>
       </c>
       <c r="L12">
-        <v>0.9847080492731091</v>
+        <v>1.018795397261037</v>
       </c>
       <c r="M12">
-        <v>0.9366463837825726</v>
+        <v>1.010444967386697</v>
       </c>
       <c r="N12">
-        <v>1.000591210235621</v>
+        <v>1.010138800656683</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9582691780501574</v>
+        <v>1.011301680476307</v>
       </c>
       <c r="D13">
-        <v>0.9870850004991522</v>
+        <v>1.018213016432006</v>
       </c>
       <c r="E13">
-        <v>0.9692263670392481</v>
+        <v>1.015152633375961</v>
       </c>
       <c r="F13">
-        <v>0.9202903510200409</v>
+        <v>1.00680635124519</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031996767966651</v>
+        <v>1.025376396196389</v>
       </c>
       <c r="J13">
-        <v>0.9898515053318185</v>
+        <v>1.018113847686963</v>
       </c>
       <c r="K13">
-        <v>1.00241900449438</v>
+        <v>1.021883381666507</v>
       </c>
       <c r="L13">
-        <v>0.9849217745799855</v>
+        <v>1.01883495257751</v>
       </c>
       <c r="M13">
-        <v>0.9370726188522085</v>
+        <v>1.01052168214826</v>
       </c>
       <c r="N13">
-        <v>1.000653727518494</v>
+        <v>1.010149926310863</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9592523565986567</v>
+        <v>1.011474123926159</v>
       </c>
       <c r="D14">
-        <v>0.9877833505703895</v>
+        <v>1.018336351513591</v>
       </c>
       <c r="E14">
-        <v>0.9700928085531513</v>
+        <v>1.015315209849553</v>
       </c>
       <c r="F14">
-        <v>0.9218811199311613</v>
+        <v>1.007091470865405</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032275186058547</v>
+        <v>1.025406315448455</v>
       </c>
       <c r="J14">
-        <v>0.9904625800902078</v>
+        <v>1.018223430146566</v>
       </c>
       <c r="K14">
-        <v>1.002956668755147</v>
+        <v>1.021973991644935</v>
       </c>
       <c r="L14">
-        <v>0.985619406442119</v>
+        <v>1.018964536328407</v>
       </c>
       <c r="M14">
-        <v>0.9384627773171126</v>
+        <v>1.010773003079236</v>
       </c>
       <c r="N14">
-        <v>1.000857752517155</v>
+        <v>1.010186368471772</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9598553381595393</v>
+        <v>1.011580360579314</v>
       </c>
       <c r="D15">
-        <v>0.9882117142647369</v>
+        <v>1.0184123215078</v>
       </c>
       <c r="E15">
-        <v>0.9706243670769965</v>
+        <v>1.015415376646284</v>
       </c>
       <c r="F15">
-        <v>0.9228557256629928</v>
+        <v>1.007267121530408</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03244556667288</v>
+        <v>1.025424696494196</v>
       </c>
       <c r="J15">
-        <v>0.9908372230505292</v>
+        <v>1.018290923029888</v>
       </c>
       <c r="K15">
-        <v>1.003286232374353</v>
+        <v>1.022029782166085</v>
       </c>
       <c r="L15">
-        <v>0.9860472278417565</v>
+        <v>1.019044360191672</v>
       </c>
       <c r="M15">
-        <v>0.9393144373728072</v>
+        <v>1.010927819196013</v>
       </c>
       <c r="N15">
-        <v>1.000982839172285</v>
+        <v>1.010208812607805</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9633235107256711</v>
+        <v>1.012198529969277</v>
       </c>
       <c r="D16">
-        <v>0.9906764565322429</v>
+        <v>1.018854181781805</v>
       </c>
       <c r="E16">
-        <v>0.9736842894796269</v>
+        <v>1.015998361690724</v>
       </c>
       <c r="F16">
-        <v>0.9284469170793102</v>
+        <v>1.00828917086738</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033419841511761</v>
+        <v>1.025530869844569</v>
       </c>
       <c r="J16">
-        <v>0.9929901153229774</v>
+        <v>1.018683387476347</v>
       </c>
       <c r="K16">
-        <v>1.005178936432965</v>
+        <v>1.022353938106507</v>
       </c>
       <c r="L16">
-        <v>0.988507382860362</v>
+        <v>1.01950871113833</v>
       </c>
       <c r="M16">
-        <v>0.9441996460957758</v>
+        <v>1.01182844798468</v>
       </c>
       <c r="N16">
-        <v>1.001701666564774</v>
+        <v>1.010339308665199</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9654636696534653</v>
+        <v>1.012586139207214</v>
       </c>
       <c r="D17">
-        <v>0.9921981227911919</v>
+        <v>1.019131069015768</v>
       </c>
       <c r="E17">
-        <v>0.9755747176359149</v>
+        <v>1.016364027837239</v>
       </c>
       <c r="F17">
-        <v>0.931885339313193</v>
+        <v>1.008930006192784</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034015982904577</v>
+        <v>1.025596754076338</v>
       </c>
       <c r="J17">
-        <v>0.9943169221573563</v>
+        <v>1.01892924189549</v>
       </c>
       <c r="K17">
-        <v>1.006344344157648</v>
+        <v>1.022556771601112</v>
       </c>
       <c r="L17">
-        <v>0.9900250071773836</v>
+        <v>1.019799759208541</v>
       </c>
       <c r="M17">
-        <v>0.947203260860603</v>
+        <v>1.012392982422005</v>
       </c>
       <c r="N17">
-        <v>1.002144681431971</v>
+        <v>1.010421043568985</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9666996966918211</v>
+        <v>1.012812170709029</v>
       </c>
       <c r="D18">
-        <v>0.9930771635402814</v>
+        <v>1.01929247171734</v>
       </c>
       <c r="E18">
-        <v>0.9766672874911239</v>
+        <v>1.016577305938878</v>
       </c>
       <c r="F18">
-        <v>0.9338672310168801</v>
+        <v>1.009303700264098</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034358427738675</v>
+        <v>1.02563492533993</v>
       </c>
       <c r="J18">
-        <v>0.9950825867286222</v>
+        <v>1.019072526600311</v>
       </c>
       <c r="K18">
-        <v>1.007016473795174</v>
+        <v>1.022674900479315</v>
       </c>
       <c r="L18">
-        <v>0.9909013066620753</v>
+        <v>1.019969441049323</v>
       </c>
       <c r="M18">
-        <v>0.9489342713537841</v>
+        <v>1.012722121741473</v>
       </c>
       <c r="N18">
-        <v>1.002400334716973</v>
+        <v>1.010468674318216</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9671191053599127</v>
+        <v>1.012889232419143</v>
       </c>
       <c r="D19">
-        <v>0.993375473122442</v>
+        <v>1.019347488745282</v>
       </c>
       <c r="E19">
-        <v>0.9770381476617129</v>
+        <v>1.016650026792533</v>
       </c>
       <c r="F19">
-        <v>0.9345390878847198</v>
+        <v>1.009431104539254</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034474309751259</v>
+        <v>1.02564789700755</v>
       </c>
       <c r="J19">
-        <v>0.995342286634287</v>
+        <v>1.019121362986989</v>
       </c>
       <c r="K19">
-        <v>1.007244379413966</v>
+        <v>1.022715148770319</v>
       </c>
       <c r="L19">
-        <v>0.9911986197084419</v>
+        <v>1.020027284357892</v>
       </c>
       <c r="M19">
-        <v>0.9495210335152758</v>
+        <v>1.012834325527107</v>
       </c>
       <c r="N19">
-        <v>1.002487047860059</v>
+        <v>1.010484907743521</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9652353318848613</v>
+        <v>1.012544558040819</v>
       </c>
       <c r="D20">
-        <v>0.9920357497700324</v>
+        <v>1.019101372075946</v>
       </c>
       <c r="E20">
-        <v>0.9753729435621298</v>
+        <v>1.016324796232805</v>
       </c>
       <c r="F20">
-        <v>0.9315189027094082</v>
+        <v>1.008861260443976</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033952570961257</v>
+        <v>1.025589711996092</v>
       </c>
       <c r="J20">
-        <v>0.9941754267394061</v>
+        <v>1.018902876255579</v>
       </c>
       <c r="K20">
-        <v>1.006220101611152</v>
+        <v>1.022535028154805</v>
       </c>
       <c r="L20">
-        <v>0.9898631082833781</v>
+        <v>1.019768540947809</v>
       </c>
       <c r="M20">
-        <v>0.9468831886250978</v>
+        <v>1.012332428172534</v>
       </c>
       <c r="N20">
-        <v>1.002097436570364</v>
+        <v>1.010412278723078</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9589634183985299</v>
+        <v>1.011423346015311</v>
       </c>
       <c r="D21">
-        <v>0.9875781040545479</v>
+        <v>1.018300036743387</v>
       </c>
       <c r="E21">
-        <v>0.9698381413022495</v>
+        <v>1.015267335534445</v>
       </c>
       <c r="F21">
-        <v>0.9214138349827395</v>
+        <v>1.007007514621781</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032193441738562</v>
+        <v>1.025397516055596</v>
       </c>
       <c r="J21">
-        <v>0.9902830231161368</v>
+        <v>1.018191165946046</v>
       </c>
       <c r="K21">
-        <v>1.002798697537958</v>
+        <v>1.021947317030809</v>
       </c>
       <c r="L21">
-        <v>0.9854143924367336</v>
+        <v>1.018926380678594</v>
       </c>
       <c r="M21">
-        <v>0.9380544292352127</v>
+        <v>1.010699001800913</v>
       </c>
       <c r="N21">
-        <v>1.000797801950231</v>
+        <v>1.010175639056069</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C22">
-        <v>0.9548994550257895</v>
+        <v>1.010717896698703</v>
       </c>
       <c r="D22">
-        <v>0.9846925841218093</v>
+        <v>1.017795296326087</v>
       </c>
       <c r="E22">
-        <v>0.9662593562766563</v>
+        <v>1.014602384132147</v>
       </c>
       <c r="F22">
-        <v>0.9148222265099296</v>
+        <v>1.005841083421459</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031037005854283</v>
+        <v>1.025274352220603</v>
       </c>
       <c r="J22">
-        <v>0.9877552092576011</v>
+        <v>1.017742616900673</v>
       </c>
       <c r="K22">
-        <v>1.000573507734145</v>
+        <v>1.021576172300572</v>
       </c>
       <c r="L22">
-        <v>0.9825302228343096</v>
+        <v>1.018396141071209</v>
       </c>
       <c r="M22">
-        <v>0.9322935586499693</v>
+        <v>1.009670654000475</v>
       </c>
       <c r="N22">
-        <v>0.9999538413946246</v>
+        <v>1.010026457930942</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9570657740367263</v>
+        <v>1.011091916433892</v>
       </c>
       <c r="D23">
-        <v>0.9862304154622729</v>
+        <v>1.018062954934312</v>
       </c>
       <c r="E23">
-        <v>0.9681663182847174</v>
+        <v>1.014954895642019</v>
       </c>
       <c r="F23">
-        <v>0.9183404346049444</v>
+        <v>1.006459519517656</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031654980874732</v>
+        <v>1.025339863823819</v>
       </c>
       <c r="J23">
-        <v>0.989103206840991</v>
+        <v>1.017980502780957</v>
       </c>
       <c r="K23">
-        <v>1.001760410288904</v>
+        <v>1.021773077486013</v>
       </c>
       <c r="L23">
-        <v>0.9840677849195865</v>
+        <v>1.01867730151683</v>
       </c>
       <c r="M23">
-        <v>0.9353685056563745</v>
+        <v>1.010215930814702</v>
       </c>
       <c r="N23">
-        <v>1.000403890242604</v>
+        <v>1.01010557931093</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9653385457747766</v>
+        <v>1.012563346947768</v>
       </c>
       <c r="D24">
-        <v>0.9921091454194678</v>
+        <v>1.019114791156473</v>
       </c>
       <c r="E24">
-        <v>0.975464147662545</v>
+        <v>1.016342523332951</v>
       </c>
       <c r="F24">
-        <v>0.9316845525607657</v>
+        <v>1.008892323978245</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033981240357855</v>
+        <v>1.025592894805798</v>
       </c>
       <c r="J24">
-        <v>0.9942393878244951</v>
+        <v>1.018914790117718</v>
       </c>
       <c r="K24">
-        <v>1.006276265002982</v>
+        <v>1.022544853639669</v>
       </c>
       <c r="L24">
-        <v>0.9899362908721729</v>
+        <v>1.019782647387809</v>
       </c>
       <c r="M24">
-        <v>0.9470278800014729</v>
+        <v>1.012359790474761</v>
       </c>
       <c r="N24">
-        <v>1.002118792965792</v>
+        <v>1.010416239315024</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9744603009267838</v>
+        <v>1.014268730024076</v>
       </c>
       <c r="D25">
-        <v>0.9985991712364584</v>
+        <v>1.020331428553963</v>
       </c>
       <c r="E25">
-        <v>0.983540371582194</v>
+        <v>1.017952446043288</v>
       </c>
       <c r="F25">
-        <v>0.946249700507776</v>
+        <v>1.011711787042979</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036474951728773</v>
+        <v>1.025876405945686</v>
       </c>
       <c r="J25">
-        <v>0.9998788442207737</v>
+        <v>1.019994351459898</v>
       </c>
       <c r="K25">
-        <v>1.011219272259435</v>
+        <v>1.023433378101385</v>
       </c>
       <c r="L25">
-        <v>0.99639969160536</v>
+        <v>1.021062142149858</v>
       </c>
       <c r="M25">
-        <v>0.9597439655252572</v>
+        <v>1.014841994164459</v>
       </c>
       <c r="N25">
-        <v>1.004001765941336</v>
+        <v>1.010775023977325</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015627265704854</v>
+        <v>0.9813947552150052</v>
       </c>
       <c r="D2">
-        <v>1.021298618812509</v>
+        <v>1.003535493230605</v>
       </c>
       <c r="E2">
-        <v>1.01923626467175</v>
+        <v>0.9897017120901841</v>
       </c>
       <c r="F2">
-        <v>1.013957925717873</v>
+        <v>0.9572341776571615</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0260943693443</v>
+        <v>1.038311062312225</v>
       </c>
       <c r="J2">
-        <v>1.020851701933635</v>
+        <v>1.004146552452569</v>
       </c>
       <c r="K2">
-        <v>1.024136360997896</v>
+        <v>1.014945791791275</v>
       </c>
       <c r="L2">
-        <v>1.022080110856899</v>
+        <v>1.001306407682132</v>
       </c>
       <c r="M2">
-        <v>1.016817517528885</v>
+        <v>0.9693233093184691</v>
       </c>
       <c r="N2">
-        <v>1.011059810587822</v>
+        <v>1.005426570756467</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016612735642829</v>
+        <v>0.9862512786007804</v>
       </c>
       <c r="D3">
-        <v>1.021999029556605</v>
+        <v>1.006992345530739</v>
       </c>
       <c r="E3">
-        <v>1.020168297976856</v>
+        <v>0.9940285157418034</v>
       </c>
       <c r="F3">
-        <v>1.015587432157119</v>
+        <v>0.964888668242586</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026247891690876</v>
+        <v>1.039561200978974</v>
       </c>
       <c r="J3">
-        <v>1.021472079261596</v>
+        <v>1.007123896376914</v>
       </c>
       <c r="K3">
-        <v>1.024643485249876</v>
+        <v>1.017536532993839</v>
       </c>
       <c r="L3">
-        <v>1.02281777906419</v>
+        <v>1.004738377361314</v>
       </c>
       <c r="M3">
-        <v>1.018249573845233</v>
+        <v>0.9759914318288513</v>
       </c>
       <c r="N3">
-        <v>1.01126579472552</v>
+        <v>1.00642040877877</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017249969601603</v>
+        <v>0.9893168475580759</v>
       </c>
       <c r="D4">
-        <v>1.022451383047433</v>
+        <v>1.009173732000379</v>
       </c>
       <c r="E4">
-        <v>1.020771328459327</v>
+        <v>0.9967648886046836</v>
       </c>
       <c r="F4">
-        <v>1.016641238609949</v>
+        <v>0.969706134898238</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0263450370214</v>
+        <v>1.040333343859995</v>
       </c>
       <c r="J4">
-        <v>1.021872521155145</v>
+        <v>1.008997834377717</v>
       </c>
       <c r="K4">
-        <v>1.024970100685548</v>
+        <v>1.0191626848122</v>
       </c>
       <c r="L4">
-        <v>1.023294424925193</v>
+        <v>1.006902516029092</v>
       </c>
       <c r="M4">
-        <v>1.019175166027082</v>
+        <v>0.980184474246553</v>
       </c>
       <c r="N4">
-        <v>1.011398712945591</v>
+        <v>1.007045825666453</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017517760357028</v>
+        <v>0.9905879740432085</v>
       </c>
       <c r="D5">
-        <v>1.0226413464364</v>
+        <v>1.010077997256725</v>
       </c>
       <c r="E5">
-        <v>1.021024829041429</v>
+        <v>0.997900722877396</v>
       </c>
       <c r="F5">
-        <v>1.017084123684324</v>
+        <v>0.9717007343370266</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026385351399956</v>
+        <v>1.04064937171778</v>
       </c>
       <c r="J5">
-        <v>1.022040631833361</v>
+        <v>1.009773532437613</v>
       </c>
       <c r="K5">
-        <v>1.025107043962203</v>
+        <v>1.019834704069823</v>
       </c>
       <c r="L5">
-        <v>1.023494645665991</v>
+        <v>1.007799312414359</v>
       </c>
       <c r="M5">
-        <v>1.019564040920578</v>
+        <v>0.9819196251056806</v>
       </c>
       <c r="N5">
-        <v>1.011454503928084</v>
+        <v>1.00730468212925</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017562717620764</v>
+        <v>0.990800389084303</v>
       </c>
       <c r="D6">
-        <v>1.022673230033764</v>
+        <v>1.010229090749484</v>
       </c>
       <c r="E6">
-        <v>1.021067392125564</v>
+        <v>0.9980905995799745</v>
       </c>
       <c r="F6">
-        <v>1.017158478309849</v>
+        <v>0.972033887262839</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026392089536035</v>
+        <v>1.040701937219453</v>
       </c>
       <c r="J6">
-        <v>1.022068844581641</v>
+        <v>1.009903079241671</v>
       </c>
       <c r="K6">
-        <v>1.025130015884588</v>
+        <v>1.019946869364824</v>
       </c>
       <c r="L6">
-        <v>1.023528254168211</v>
+        <v>1.007949140637198</v>
       </c>
       <c r="M6">
-        <v>1.019629320584908</v>
+        <v>0.9822093880072562</v>
       </c>
       <c r="N6">
-        <v>1.011463866331336</v>
+        <v>1.007347911111592</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017253548236204</v>
+        <v>0.9893339007291625</v>
       </c>
       <c r="D7">
-        <v>1.022453922157529</v>
+        <v>1.009185864478965</v>
       </c>
       <c r="E7">
-        <v>1.020774715798945</v>
+        <v>0.9967801219928442</v>
       </c>
       <c r="F7">
-        <v>1.016647156984593</v>
+        <v>0.9697329050762148</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026345577769426</v>
+        <v>1.040337600071305</v>
       </c>
       <c r="J7">
-        <v>1.021874768381533</v>
+        <v>1.009008246238404</v>
       </c>
       <c r="K7">
-        <v>1.024971931966003</v>
+        <v>1.019171709482267</v>
       </c>
       <c r="L7">
-        <v>1.023297100917429</v>
+        <v>1.006914549493102</v>
       </c>
       <c r="M7">
-        <v>1.019180363144165</v>
+        <v>0.9802077659529619</v>
       </c>
       <c r="N7">
-        <v>1.011399458772466</v>
+        <v>1.007049300303391</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01596039959586</v>
+        <v>0.9830524531586721</v>
       </c>
       <c r="D8">
-        <v>1.021535503579901</v>
+        <v>1.004715528748152</v>
       </c>
       <c r="E8">
-        <v>1.019551261762846</v>
+        <v>0.9911774880914058</v>
       </c>
       <c r="F8">
-        <v>1.014508751999717</v>
+        <v>0.9598502197530762</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026146707025956</v>
+        <v>1.038741308345577</v>
       </c>
       <c r="J8">
-        <v>1.02106156529376</v>
+        <v>1.005163956057034</v>
       </c>
       <c r="K8">
-        <v>1.024308062325896</v>
+        <v>1.015832001834186</v>
       </c>
       <c r="L8">
-        <v>1.02232954922826</v>
+        <v>1.00247830716752</v>
       </c>
       <c r="M8">
-        <v>1.017301707381987</v>
+        <v>0.971602984636046</v>
       </c>
       <c r="N8">
-        <v>1.011129499998952</v>
+        <v>1.005766199903748</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013678369669363</v>
+        <v>0.9713567142282375</v>
       </c>
       <c r="D9">
-        <v>1.019910567137366</v>
+        <v>0.9963903502543321</v>
       </c>
       <c r="E9">
-        <v>1.017394924940004</v>
+        <v>0.9807889532568637</v>
       </c>
       <c r="F9">
-        <v>1.01073575878802</v>
+        <v>0.9413099186776255</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025779481029547</v>
+        <v>1.035635771032076</v>
       </c>
       <c r="J9">
-        <v>1.019621043975133</v>
+        <v>0.9979631289606036</v>
       </c>
       <c r="K9">
-        <v>1.023126539774946</v>
+        <v>1.009542264251076</v>
       </c>
       <c r="L9">
-        <v>1.020619413782585</v>
+        <v>0.9942016008908524</v>
       </c>
       <c r="M9">
-        <v>1.013983015980325</v>
+        <v>0.9554328304142399</v>
       </c>
       <c r="N9">
-        <v>1.010650980606716</v>
+        <v>1.003362135091682</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012154719004923</v>
+        <v>0.9630799576486591</v>
       </c>
       <c r="D10">
-        <v>1.018822877203711</v>
+        <v>0.9905033212492104</v>
       </c>
       <c r="E10">
-        <v>1.015957036694228</v>
+        <v>0.973469262855431</v>
       </c>
       <c r="F10">
-        <v>1.008216737351717</v>
+        <v>0.9280550596697753</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025523389400391</v>
+        <v>1.033351748931256</v>
       </c>
       <c r="J10">
-        <v>1.01865558757503</v>
+        <v>0.9928390385213565</v>
       </c>
       <c r="K10">
-        <v>1.022330991546367</v>
+        <v>1.005046184589623</v>
       </c>
       <c r="L10">
-        <v>1.019475808851285</v>
+        <v>0.9883346498988869</v>
       </c>
       <c r="M10">
-        <v>1.011764630500579</v>
+        <v>0.9438573075488236</v>
       </c>
       <c r="N10">
-        <v>1.010330065898335</v>
+        <v>1.001651223000559</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.011494403424756</v>
+        <v>0.9593676193060307</v>
       </c>
       <c r="D11">
-        <v>1.018350854160147</v>
+        <v>0.9878652303917641</v>
       </c>
       <c r="E11">
-        <v>1.01533433015185</v>
+        <v>0.9701944083152095</v>
       </c>
       <c r="F11">
-        <v>1.007125000909104</v>
+        <v>0.9220674792729245</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025409827224835</v>
+        <v>1.032307777175516</v>
       </c>
       <c r="J11">
-        <v>1.018236314868331</v>
+        <v>0.9905342023914545</v>
       </c>
       <c r="K11">
-        <v>1.021984643333739</v>
+        <v>1.003019677328535</v>
       </c>
       <c r="L11">
-        <v>1.018979774386908</v>
+        <v>0.9857011885557639</v>
       </c>
       <c r="M11">
-        <v>1.010802556745678</v>
+        <v>0.9386256299541814</v>
       </c>
       <c r="N11">
-        <v>1.010190653222627</v>
+        <v>1.00088166586551</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011249046711697</v>
+        <v>0.9579679926021376</v>
       </c>
       <c r="D12">
-        <v>1.018175366656922</v>
+        <v>0.9868710967146676</v>
       </c>
       <c r="E12">
-        <v>1.015103014778385</v>
+        <v>0.9689610118199072</v>
       </c>
       <c r="F12">
-        <v>1.006719325234601</v>
+        <v>0.9198026240926254</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025367243726669</v>
+        <v>1.031911329063712</v>
       </c>
       <c r="J12">
-        <v>1.018080393700372</v>
+        <v>0.9896642583393255</v>
       </c>
       <c r="K12">
-        <v>1.021855712924521</v>
+        <v>1.002254223646417</v>
       </c>
       <c r="L12">
-        <v>1.018795397261037</v>
+        <v>0.9847080492731083</v>
       </c>
       <c r="M12">
-        <v>1.010444967386697</v>
+        <v>0.9366463837825718</v>
       </c>
       <c r="N12">
-        <v>1.010138800656683</v>
+        <v>1.000591210235621</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.011301680476307</v>
+        <v>0.9582691780501589</v>
       </c>
       <c r="D13">
-        <v>1.018213016432006</v>
+        <v>0.9870850004991535</v>
       </c>
       <c r="E13">
-        <v>1.015152633375961</v>
+        <v>0.9692263670392495</v>
       </c>
       <c r="F13">
-        <v>1.00680635124519</v>
+        <v>0.9202903510200424</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025376396196389</v>
+        <v>1.031996767966651</v>
       </c>
       <c r="J13">
-        <v>1.018113847686963</v>
+        <v>0.9898515053318199</v>
       </c>
       <c r="K13">
-        <v>1.021883381666507</v>
+        <v>1.002419004494381</v>
       </c>
       <c r="L13">
-        <v>1.01883495257751</v>
+        <v>0.9849217745799869</v>
       </c>
       <c r="M13">
-        <v>1.01052168214826</v>
+        <v>0.9370726188522099</v>
       </c>
       <c r="N13">
-        <v>1.010149926310863</v>
+        <v>1.000653727518495</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.011474123926159</v>
+        <v>0.9592523565986563</v>
       </c>
       <c r="D14">
-        <v>1.018336351513591</v>
+        <v>0.9877833505703889</v>
       </c>
       <c r="E14">
-        <v>1.015315209849553</v>
+        <v>0.9700928085531509</v>
       </c>
       <c r="F14">
-        <v>1.007091470865405</v>
+        <v>0.9218811199311607</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025406315448455</v>
+        <v>1.032275186058546</v>
       </c>
       <c r="J14">
-        <v>1.018223430146566</v>
+        <v>0.9904625800902074</v>
       </c>
       <c r="K14">
-        <v>1.021973991644935</v>
+        <v>1.002956668755147</v>
       </c>
       <c r="L14">
-        <v>1.018964536328407</v>
+        <v>0.9856194064421185</v>
       </c>
       <c r="M14">
-        <v>1.010773003079236</v>
+        <v>0.938462777317112</v>
       </c>
       <c r="N14">
-        <v>1.010186368471772</v>
+        <v>1.000857752517155</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.011580360579314</v>
+        <v>0.9598553381595393</v>
       </c>
       <c r="D15">
-        <v>1.0184123215078</v>
+        <v>0.9882117142647369</v>
       </c>
       <c r="E15">
-        <v>1.015415376646284</v>
+        <v>0.9706243670769966</v>
       </c>
       <c r="F15">
-        <v>1.007267121530408</v>
+        <v>0.9228557256629931</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025424696494196</v>
+        <v>1.03244556667288</v>
       </c>
       <c r="J15">
-        <v>1.018290923029888</v>
+        <v>0.9908372230505292</v>
       </c>
       <c r="K15">
-        <v>1.022029782166085</v>
+        <v>1.003286232374353</v>
       </c>
       <c r="L15">
-        <v>1.019044360191672</v>
+        <v>0.9860472278417565</v>
       </c>
       <c r="M15">
-        <v>1.010927819196013</v>
+        <v>0.9393144373728076</v>
       </c>
       <c r="N15">
-        <v>1.010208812607805</v>
+        <v>1.000982839172285</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012198529969277</v>
+        <v>0.9633235107256709</v>
       </c>
       <c r="D16">
-        <v>1.018854181781805</v>
+        <v>0.9906764565322425</v>
       </c>
       <c r="E16">
-        <v>1.015998361690724</v>
+        <v>0.9736842894796264</v>
       </c>
       <c r="F16">
-        <v>1.00828917086738</v>
+        <v>0.9284469170793103</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025530869844569</v>
+        <v>1.033419841511761</v>
       </c>
       <c r="J16">
-        <v>1.018683387476347</v>
+        <v>0.9929901153229771</v>
       </c>
       <c r="K16">
-        <v>1.022353938106507</v>
+        <v>1.005178936432964</v>
       </c>
       <c r="L16">
-        <v>1.01950871113833</v>
+        <v>0.9885073828603615</v>
       </c>
       <c r="M16">
-        <v>1.01182844798468</v>
+        <v>0.9441996460957758</v>
       </c>
       <c r="N16">
-        <v>1.010339308665199</v>
+        <v>1.001701666564774</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012586139207214</v>
+        <v>0.9654636696534651</v>
       </c>
       <c r="D17">
-        <v>1.019131069015768</v>
+        <v>0.9921981227911918</v>
       </c>
       <c r="E17">
-        <v>1.016364027837239</v>
+        <v>0.9755747176359143</v>
       </c>
       <c r="F17">
-        <v>1.008930006192784</v>
+        <v>0.9318853393131925</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025596754076338</v>
+        <v>1.034015982904577</v>
       </c>
       <c r="J17">
-        <v>1.01892924189549</v>
+        <v>0.994316922157356</v>
       </c>
       <c r="K17">
-        <v>1.022556771601112</v>
+        <v>1.006344344157648</v>
       </c>
       <c r="L17">
-        <v>1.019799759208541</v>
+        <v>0.9900250071773834</v>
       </c>
       <c r="M17">
-        <v>1.012392982422005</v>
+        <v>0.9472032608606027</v>
       </c>
       <c r="N17">
-        <v>1.010421043568985</v>
+        <v>1.002144681431971</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012812170709029</v>
+        <v>0.9666996966918214</v>
       </c>
       <c r="D18">
-        <v>1.01929247171734</v>
+        <v>0.9930771635402814</v>
       </c>
       <c r="E18">
-        <v>1.016577305938878</v>
+        <v>0.9766672874911241</v>
       </c>
       <c r="F18">
-        <v>1.009303700264098</v>
+        <v>0.93386723101688</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02563492533993</v>
+        <v>1.034358427738675</v>
       </c>
       <c r="J18">
-        <v>1.019072526600311</v>
+        <v>0.9950825867286223</v>
       </c>
       <c r="K18">
-        <v>1.022674900479315</v>
+        <v>1.007016473795174</v>
       </c>
       <c r="L18">
-        <v>1.019969441049323</v>
+        <v>0.9909013066620754</v>
       </c>
       <c r="M18">
-        <v>1.012722121741473</v>
+        <v>0.9489342713537838</v>
       </c>
       <c r="N18">
-        <v>1.010468674318216</v>
+        <v>1.002400334716973</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012889232419143</v>
+        <v>0.9671191053599126</v>
       </c>
       <c r="D19">
-        <v>1.019347488745282</v>
+        <v>0.9933754731224418</v>
       </c>
       <c r="E19">
-        <v>1.016650026792533</v>
+        <v>0.9770381476617127</v>
       </c>
       <c r="F19">
-        <v>1.009431104539254</v>
+        <v>0.9345390878847195</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02564789700755</v>
+        <v>1.034474309751259</v>
       </c>
       <c r="J19">
-        <v>1.019121362986989</v>
+        <v>0.9953422866342868</v>
       </c>
       <c r="K19">
-        <v>1.022715148770319</v>
+        <v>1.007244379413966</v>
       </c>
       <c r="L19">
-        <v>1.020027284357892</v>
+        <v>0.9911986197084418</v>
       </c>
       <c r="M19">
-        <v>1.012834325527107</v>
+        <v>0.9495210335152755</v>
       </c>
       <c r="N19">
-        <v>1.010484907743521</v>
+        <v>1.002487047860059</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.012544558040819</v>
+        <v>0.9652353318848613</v>
       </c>
       <c r="D20">
-        <v>1.019101372075946</v>
+        <v>0.9920357497700327</v>
       </c>
       <c r="E20">
-        <v>1.016324796232805</v>
+        <v>0.9753729435621302</v>
       </c>
       <c r="F20">
-        <v>1.008861260443976</v>
+        <v>0.9315189027094088</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025589711996092</v>
+        <v>1.033952570961256</v>
       </c>
       <c r="J20">
-        <v>1.018902876255579</v>
+        <v>0.9941754267394064</v>
       </c>
       <c r="K20">
-        <v>1.022535028154805</v>
+        <v>1.006220101611152</v>
       </c>
       <c r="L20">
-        <v>1.019768540947809</v>
+        <v>0.9898631082833784</v>
       </c>
       <c r="M20">
-        <v>1.012332428172534</v>
+        <v>0.9468831886250981</v>
       </c>
       <c r="N20">
-        <v>1.010412278723078</v>
+        <v>1.002097436570364</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.011423346015311</v>
+        <v>0.9589634183985306</v>
       </c>
       <c r="D21">
-        <v>1.018300036743387</v>
+        <v>0.9875781040545484</v>
       </c>
       <c r="E21">
-        <v>1.015267335534445</v>
+        <v>0.9698381413022503</v>
       </c>
       <c r="F21">
-        <v>1.007007514621781</v>
+        <v>0.921413834982741</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025397516055596</v>
+        <v>1.032193441738562</v>
       </c>
       <c r="J21">
-        <v>1.018191165946046</v>
+        <v>0.9902830231161376</v>
       </c>
       <c r="K21">
-        <v>1.021947317030809</v>
+        <v>1.002798697537958</v>
       </c>
       <c r="L21">
-        <v>1.018926380678594</v>
+        <v>0.9854143924367341</v>
       </c>
       <c r="M21">
-        <v>1.010699001800913</v>
+        <v>0.938054429235214</v>
       </c>
       <c r="N21">
-        <v>1.010175639056069</v>
+        <v>1.000797801950231</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.010717896698703</v>
+        <v>0.9548994550257915</v>
       </c>
       <c r="D22">
-        <v>1.017795296326087</v>
+        <v>0.9846925841218113</v>
       </c>
       <c r="E22">
-        <v>1.014602384132147</v>
+        <v>0.9662593562766583</v>
       </c>
       <c r="F22">
-        <v>1.005841083421459</v>
+        <v>0.9148222265099315</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025274352220603</v>
+        <v>1.031037005854284</v>
       </c>
       <c r="J22">
-        <v>1.017742616900673</v>
+        <v>0.987755209257603</v>
       </c>
       <c r="K22">
-        <v>1.021576172300572</v>
+        <v>1.000573507734147</v>
       </c>
       <c r="L22">
-        <v>1.018396141071209</v>
+        <v>0.9825302228343114</v>
       </c>
       <c r="M22">
-        <v>1.009670654000475</v>
+        <v>0.9322935586499713</v>
       </c>
       <c r="N22">
-        <v>1.010026457930942</v>
+        <v>0.9999538413946252</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011091916433892</v>
+        <v>0.9570657740367263</v>
       </c>
       <c r="D23">
-        <v>1.018062954934312</v>
+        <v>0.9862304154622727</v>
       </c>
       <c r="E23">
-        <v>1.014954895642019</v>
+        <v>0.9681663182847179</v>
       </c>
       <c r="F23">
-        <v>1.006459519517656</v>
+        <v>0.9183404346049445</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025339863823819</v>
+        <v>1.031654980874733</v>
       </c>
       <c r="J23">
-        <v>1.017980502780957</v>
+        <v>0.989103206840991</v>
       </c>
       <c r="K23">
-        <v>1.021773077486013</v>
+        <v>1.001760410288904</v>
       </c>
       <c r="L23">
-        <v>1.01867730151683</v>
+        <v>0.9840677849195868</v>
       </c>
       <c r="M23">
-        <v>1.010215930814702</v>
+        <v>0.935368505656375</v>
       </c>
       <c r="N23">
-        <v>1.01010557931093</v>
+        <v>1.000403890242604</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.012563346947768</v>
+        <v>0.9653385457747767</v>
       </c>
       <c r="D24">
-        <v>1.019114791156473</v>
+        <v>0.9921091454194678</v>
       </c>
       <c r="E24">
-        <v>1.016342523332951</v>
+        <v>0.9754641476625452</v>
       </c>
       <c r="F24">
-        <v>1.008892323978245</v>
+        <v>0.9316845525607654</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025592894805798</v>
+        <v>1.033981240357855</v>
       </c>
       <c r="J24">
-        <v>1.018914790117718</v>
+        <v>0.9942393878244953</v>
       </c>
       <c r="K24">
-        <v>1.022544853639669</v>
+        <v>1.006276265002982</v>
       </c>
       <c r="L24">
-        <v>1.019782647387809</v>
+        <v>0.9899362908721732</v>
       </c>
       <c r="M24">
-        <v>1.012359790474761</v>
+        <v>0.9470278800014729</v>
       </c>
       <c r="N24">
-        <v>1.010416239315024</v>
+        <v>1.002118792965792</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014268730024076</v>
+        <v>0.9744603009267834</v>
       </c>
       <c r="D25">
-        <v>1.020331428553963</v>
+        <v>0.9985991712364579</v>
       </c>
       <c r="E25">
-        <v>1.017952446043288</v>
+        <v>0.9835403715821934</v>
       </c>
       <c r="F25">
-        <v>1.011711787042979</v>
+        <v>0.9462497005077755</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025876405945686</v>
+        <v>1.036474951728772</v>
       </c>
       <c r="J25">
-        <v>1.019994351459898</v>
+        <v>0.9998788442207732</v>
       </c>
       <c r="K25">
-        <v>1.023433378101385</v>
+        <v>1.011219272259435</v>
       </c>
       <c r="L25">
-        <v>1.021062142149858</v>
+        <v>0.9963996916053595</v>
       </c>
       <c r="M25">
-        <v>1.014841994164459</v>
+        <v>0.9597439655252566</v>
       </c>
       <c r="N25">
-        <v>1.010775023977325</v>
+        <v>1.004001765941336</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9813947552150052</v>
+        <v>1.013567759135356</v>
       </c>
       <c r="D2">
-        <v>1.003535493230605</v>
+        <v>1.033853326643726</v>
       </c>
       <c r="E2">
-        <v>0.9897017120901841</v>
+        <v>1.021654539516611</v>
       </c>
       <c r="F2">
-        <v>0.9572341776571615</v>
+        <v>1.036697618712859</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038311062312225</v>
+        <v>1.052771038110595</v>
       </c>
       <c r="J2">
-        <v>1.004146552452569</v>
+        <v>1.035350097752875</v>
       </c>
       <c r="K2">
-        <v>1.014945791791275</v>
+        <v>1.044860348030119</v>
       </c>
       <c r="L2">
-        <v>1.001306407682132</v>
+        <v>1.032820215388632</v>
       </c>
       <c r="M2">
-        <v>0.9693233093184691</v>
+        <v>1.047668318482586</v>
       </c>
       <c r="N2">
-        <v>1.005426570756467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015592448626134</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.046298644171948</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.042790430501859</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9862512786007804</v>
+        <v>1.017012661228499</v>
       </c>
       <c r="D3">
-        <v>1.006992345530739</v>
+        <v>1.036174749645686</v>
       </c>
       <c r="E3">
-        <v>0.9940285157418034</v>
+        <v>1.024614969931903</v>
       </c>
       <c r="F3">
-        <v>0.964888668242586</v>
+        <v>1.039184063978782</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039561200978974</v>
+        <v>1.053681982332126</v>
       </c>
       <c r="J3">
-        <v>1.007123896376914</v>
+        <v>1.037050048582588</v>
       </c>
       <c r="K3">
-        <v>1.017536532993839</v>
+        <v>1.046364780259475</v>
       </c>
       <c r="L3">
-        <v>1.004738377361314</v>
+        <v>1.03494229462215</v>
       </c>
       <c r="M3">
-        <v>0.9759914318288513</v>
+        <v>1.049338972978231</v>
       </c>
       <c r="N3">
-        <v>1.00642040877877</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016168386218454</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.047620843480124</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.043851532514098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9893168475580759</v>
+        <v>1.019205150870903</v>
       </c>
       <c r="D4">
-        <v>1.009173732000379</v>
+        <v>1.037655999475994</v>
       </c>
       <c r="E4">
-        <v>0.9967648886046836</v>
+        <v>1.026504316856441</v>
       </c>
       <c r="F4">
-        <v>0.969706134898238</v>
+        <v>1.040773330235006</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040333343859995</v>
+        <v>1.054252785800779</v>
       </c>
       <c r="J4">
-        <v>1.008997834377717</v>
+        <v>1.038130026353647</v>
       </c>
       <c r="K4">
-        <v>1.0191626848122</v>
+        <v>1.047320237784737</v>
       </c>
       <c r="L4">
-        <v>1.006902516029092</v>
+        <v>1.036293045163204</v>
       </c>
       <c r="M4">
-        <v>0.980184474246553</v>
+        <v>1.050403354674111</v>
       </c>
       <c r="N4">
-        <v>1.007045825666453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016534301807361</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.048463221533304</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.044528005057232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9905879740432085</v>
+        <v>1.020121263309862</v>
       </c>
       <c r="D5">
-        <v>1.010077997256725</v>
+        <v>1.038277673723759</v>
       </c>
       <c r="E5">
-        <v>0.997900722877396</v>
+        <v>1.027295376582902</v>
       </c>
       <c r="F5">
-        <v>0.9717007343370266</v>
+        <v>1.041439641931949</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04064937171778</v>
+        <v>1.054490534322538</v>
       </c>
       <c r="J5">
-        <v>1.009773532437613</v>
+        <v>1.038582206407413</v>
       </c>
       <c r="K5">
-        <v>1.019834704069823</v>
+        <v>1.047721484270715</v>
       </c>
       <c r="L5">
-        <v>1.007799312414359</v>
+        <v>1.036858534117636</v>
       </c>
       <c r="M5">
-        <v>0.9819196251056806</v>
+        <v>1.05084966213723</v>
       </c>
       <c r="N5">
-        <v>1.00730468212925</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016687876135935</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.048816440035889</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.04481884077822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.990800389084303</v>
+        <v>1.020278136521743</v>
       </c>
       <c r="D6">
-        <v>1.010229090749484</v>
+        <v>1.038386445205375</v>
       </c>
       <c r="E6">
-        <v>0.9980905995799745</v>
+        <v>1.027431376496068</v>
       </c>
       <c r="F6">
-        <v>0.972033887262839</v>
+        <v>1.041554623760626</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040701937219453</v>
+        <v>1.05453285409793</v>
       </c>
       <c r="J6">
-        <v>1.009903079241671</v>
+        <v>1.038661321640771</v>
       </c>
       <c r="K6">
-        <v>1.019946869364824</v>
+        <v>1.047793233007416</v>
       </c>
       <c r="L6">
-        <v>1.007949140637198</v>
+        <v>1.036956672045298</v>
       </c>
       <c r="M6">
-        <v>0.9822093880072562</v>
+        <v>1.050927708178326</v>
       </c>
       <c r="N6">
-        <v>1.007347911111592</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016715188487081</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.048878207540007</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.04487826042557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9893339007291625</v>
+        <v>1.019226965940625</v>
       </c>
       <c r="D7">
-        <v>1.009185864478965</v>
+        <v>1.03767685741869</v>
       </c>
       <c r="E7">
-        <v>0.9967801219928442</v>
+        <v>1.026524407710402</v>
       </c>
       <c r="F7">
-        <v>0.9697329050762148</v>
+        <v>1.040791297747756</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040337600071305</v>
+        <v>1.054263107881083</v>
       </c>
       <c r="J7">
-        <v>1.009008246238404</v>
+        <v>1.038145395656169</v>
       </c>
       <c r="K7">
-        <v>1.019171709482267</v>
+        <v>1.047338009801051</v>
       </c>
       <c r="L7">
-        <v>1.006914549493102</v>
+        <v>1.036310011088867</v>
       </c>
       <c r="M7">
-        <v>0.9802077659529619</v>
+        <v>1.050418280921834</v>
       </c>
       <c r="N7">
-        <v>1.007049300303391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016540724366956</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.048475034528868</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.044560554318956</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9830524531586721</v>
+        <v>1.014751627871135</v>
       </c>
       <c r="D8">
-        <v>1.004715528748152</v>
+        <v>1.03465776000999</v>
       </c>
       <c r="E8">
-        <v>0.9911774880914058</v>
+        <v>1.022672419960372</v>
       </c>
       <c r="F8">
-        <v>0.9598502197530762</v>
+        <v>1.037553279083412</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038741308345577</v>
+        <v>1.053091621498534</v>
       </c>
       <c r="J8">
-        <v>1.005163956057034</v>
+        <v>1.035940402091462</v>
       </c>
       <c r="K8">
-        <v>1.015832001834186</v>
+        <v>1.045387874884645</v>
       </c>
       <c r="L8">
-        <v>1.00247830716752</v>
+        <v>1.033553792879906</v>
       </c>
       <c r="M8">
-        <v>0.971602984636046</v>
+        <v>1.048247504282776</v>
       </c>
       <c r="N8">
-        <v>1.005766199903748</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015794007641907</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.046757027107866</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.043186202692521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9713567142282375</v>
+        <v>1.006558872671773</v>
       </c>
       <c r="D9">
-        <v>0.9963903502543321</v>
+        <v>1.029152770541033</v>
       </c>
       <c r="E9">
-        <v>0.9807889532568637</v>
+        <v>1.015660945226548</v>
       </c>
       <c r="F9">
-        <v>0.9413099186776255</v>
+        <v>1.031677431990969</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035635771032076</v>
+        <v>1.050870350026836</v>
       </c>
       <c r="J9">
-        <v>0.9979631289606036</v>
+        <v>1.031882127386065</v>
       </c>
       <c r="K9">
-        <v>1.009542264251076</v>
+        <v>1.041789930954221</v>
       </c>
       <c r="L9">
-        <v>0.9942016008908524</v>
+        <v>1.028504943653085</v>
       </c>
       <c r="M9">
-        <v>0.9554328304142399</v>
+        <v>1.044276652485915</v>
       </c>
       <c r="N9">
-        <v>1.003362135091682</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014417899105137</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.043614384398452</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.040639089163134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9630799576486591</v>
+        <v>1.000937176720484</v>
       </c>
       <c r="D10">
-        <v>0.9905033212492104</v>
+        <v>1.025423367955936</v>
       </c>
       <c r="E10">
-        <v>0.973469262855431</v>
+        <v>1.010887075240991</v>
       </c>
       <c r="F10">
-        <v>0.9280550596697753</v>
+        <v>1.027765050726131</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033351748931256</v>
+        <v>1.049322459501141</v>
       </c>
       <c r="J10">
-        <v>0.9928390385213565</v>
+        <v>1.029113660941821</v>
       </c>
       <c r="K10">
-        <v>1.005046184589623</v>
+        <v>1.039348282092175</v>
       </c>
       <c r="L10">
-        <v>0.9883346498988869</v>
+        <v>1.025062503610193</v>
       </c>
       <c r="M10">
-        <v>0.9438573075488236</v>
+        <v>1.041650463618984</v>
       </c>
       <c r="N10">
-        <v>1.001651223000559</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013485424353596</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.041587183020863</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.03892943638387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9593676193060307</v>
+        <v>0.998851086202554</v>
       </c>
       <c r="D11">
-        <v>0.9878652303917641</v>
+        <v>1.024232258359279</v>
       </c>
       <c r="E11">
-        <v>0.9701944083152095</v>
+        <v>1.009179046504425</v>
       </c>
       <c r="F11">
-        <v>0.9220674792729245</v>
+        <v>1.026957785030954</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032307777175516</v>
+        <v>1.048896069777651</v>
       </c>
       <c r="J11">
-        <v>0.9905342023914545</v>
+        <v>1.028271739564585</v>
       </c>
       <c r="K11">
-        <v>1.003019677328535</v>
+        <v>1.038711215052891</v>
       </c>
       <c r="L11">
-        <v>0.9857011885557639</v>
+        <v>1.023929910940237</v>
       </c>
       <c r="M11">
-        <v>0.9386256299541814</v>
+        <v>1.041388615037122</v>
       </c>
       <c r="N11">
-        <v>1.00088166586551</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013250241170636</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.041814494907153</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.038511695664826</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9579679926021376</v>
+        <v>0.9982026990648619</v>
       </c>
       <c r="D12">
-        <v>0.9868710967146676</v>
+        <v>1.023934452967763</v>
       </c>
       <c r="E12">
-        <v>0.9689610118199072</v>
+        <v>1.008671742820048</v>
       </c>
       <c r="F12">
-        <v>0.9198026240926254</v>
+        <v>1.026973599793108</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031911329063712</v>
+        <v>1.048822481771349</v>
       </c>
       <c r="J12">
-        <v>0.9896642583393255</v>
+        <v>1.028083319153583</v>
       </c>
       <c r="K12">
-        <v>1.002254223646417</v>
+        <v>1.03861703668639</v>
       </c>
       <c r="L12">
-        <v>0.9847080492731083</v>
+        <v>1.023634670584784</v>
       </c>
       <c r="M12">
-        <v>0.9366463837825718</v>
+        <v>1.041601652576921</v>
       </c>
       <c r="N12">
-        <v>1.000591210235621</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013224228109376</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.042308203552644</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.038445109105458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9582691780501589</v>
+        <v>0.9986311138685541</v>
       </c>
       <c r="D13">
-        <v>0.9870850004991535</v>
+        <v>1.024321835021053</v>
       </c>
       <c r="E13">
-        <v>0.9692263670392495</v>
+        <v>1.009066378808791</v>
       </c>
       <c r="F13">
-        <v>0.9202903510200424</v>
+        <v>1.027648142957553</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031996767966651</v>
+        <v>1.049030182978934</v>
       </c>
       <c r="J13">
-        <v>0.9898515053318199</v>
+        <v>1.02840068719609</v>
       </c>
       <c r="K13">
-        <v>1.002419004494381</v>
+        <v>1.038954923205719</v>
       </c>
       <c r="L13">
-        <v>0.9849217745799869</v>
+        <v>1.0239784608093</v>
       </c>
       <c r="M13">
-        <v>0.9370726188522099</v>
+        <v>1.042221826704361</v>
       </c>
       <c r="N13">
-        <v>1.000653727518495</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013364325664881</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.043074306781623</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.038681523159872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9592523565986563</v>
+        <v>0.9994188895026604</v>
       </c>
       <c r="D14">
-        <v>0.9877833505703889</v>
+        <v>1.024903659463741</v>
       </c>
       <c r="E14">
-        <v>0.9700928085531509</v>
+        <v>1.009751269238953</v>
       </c>
       <c r="F14">
-        <v>0.9218811199311607</v>
+        <v>1.028417781088403</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032275186058546</v>
+        <v>1.049302706592791</v>
       </c>
       <c r="J14">
-        <v>0.9904625800902074</v>
+        <v>1.028851551990001</v>
       </c>
       <c r="K14">
-        <v>1.002956668755147</v>
+        <v>1.039387103812913</v>
       </c>
       <c r="L14">
-        <v>0.9856194064421185</v>
+        <v>1.024508335262653</v>
       </c>
       <c r="M14">
-        <v>0.938462777317112</v>
+        <v>1.042839260091149</v>
       </c>
       <c r="N14">
-        <v>1.000857752517155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013537546242335</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.043735173131972</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.038988503840624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9598553381595393</v>
+        <v>0.9998506596093881</v>
       </c>
       <c r="D15">
-        <v>0.9882117142647369</v>
+        <v>1.025203466079005</v>
       </c>
       <c r="E15">
-        <v>0.9706243670769966</v>
+        <v>1.010120608219327</v>
       </c>
       <c r="F15">
-        <v>0.9228557256629931</v>
+        <v>1.028765369254595</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03244556667288</v>
+        <v>1.049435602237853</v>
       </c>
       <c r="J15">
-        <v>0.9908372230505292</v>
+        <v>1.029078526134144</v>
       </c>
       <c r="K15">
-        <v>1.003286232374353</v>
+        <v>1.039595857425042</v>
       </c>
       <c r="L15">
-        <v>0.9860472278417565</v>
+        <v>1.024783274038351</v>
       </c>
       <c r="M15">
-        <v>0.9393144373728076</v>
+        <v>1.043095431461376</v>
       </c>
       <c r="N15">
-        <v>1.000982839172285</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013618829099085</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.043975081800452</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.039141939605761</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9633235107256709</v>
+        <v>1.002148633768784</v>
       </c>
       <c r="D16">
-        <v>0.9906764565322425</v>
+        <v>1.026714849514208</v>
       </c>
       <c r="E16">
-        <v>0.9736842894796264</v>
+        <v>1.012062385498061</v>
       </c>
       <c r="F16">
-        <v>0.9284469170793103</v>
+        <v>1.030326644957587</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033419841511761</v>
+        <v>1.050069324805352</v>
       </c>
       <c r="J16">
-        <v>0.9929901153229771</v>
+        <v>1.030200748877687</v>
       </c>
       <c r="K16">
-        <v>1.005178936432964</v>
+        <v>1.040582636885519</v>
       </c>
       <c r="L16">
-        <v>0.9885073828603615</v>
+        <v>1.026181164167467</v>
       </c>
       <c r="M16">
-        <v>0.9441996460957758</v>
+        <v>1.044133976420229</v>
       </c>
       <c r="N16">
-        <v>1.001701666564774</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013990921065294</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.044757342689566</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.039842772153451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9654636696534651</v>
+        <v>1.003501421848948</v>
       </c>
       <c r="D17">
-        <v>0.9921981227911918</v>
+        <v>1.027571415842187</v>
       </c>
       <c r="E17">
-        <v>0.9755747176359143</v>
+        <v>1.013196696686863</v>
       </c>
       <c r="F17">
-        <v>0.9318853393131925</v>
+        <v>1.031117457028323</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034015982904577</v>
+        <v>1.050410693324333</v>
       </c>
       <c r="J17">
-        <v>0.994316922157356</v>
+        <v>1.030825707379591</v>
       </c>
       <c r="K17">
-        <v>1.006344344157648</v>
+        <v>1.041112692209176</v>
       </c>
       <c r="L17">
-        <v>0.9900250071773834</v>
+        <v>1.026977229934415</v>
       </c>
       <c r="M17">
-        <v>0.9472032608606027</v>
+        <v>1.044601029280925</v>
       </c>
       <c r="N17">
-        <v>1.002144681431971</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014185654431977</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.044997875988396</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.040220112383682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9666996966918214</v>
+        <v>1.004154003450153</v>
       </c>
       <c r="D18">
-        <v>0.9930771635402814</v>
+        <v>1.027918509331527</v>
       </c>
       <c r="E18">
-        <v>0.9766672874911241</v>
+        <v>1.013724571751958</v>
       </c>
       <c r="F18">
-        <v>0.93386723101688</v>
+        <v>1.031266537590217</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034358427738675</v>
+        <v>1.050518939856401</v>
       </c>
       <c r="J18">
-        <v>0.9950825867286223</v>
+        <v>1.031060990908506</v>
       </c>
       <c r="K18">
-        <v>1.007016473795174</v>
+        <v>1.041272127053837</v>
       </c>
       <c r="L18">
-        <v>0.9909013066620754</v>
+        <v>1.027310533088889</v>
       </c>
       <c r="M18">
-        <v>0.9489342713537838</v>
+        <v>1.044566545612072</v>
       </c>
       <c r="N18">
-        <v>1.002400334716973</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014237097833136</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.044733749419688</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.040321262402803</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9671191053599126</v>
+        <v>1.004175592015276</v>
       </c>
       <c r="D19">
-        <v>0.9933754731224418</v>
+        <v>1.027810917090075</v>
       </c>
       <c r="E19">
-        <v>0.9770381476617127</v>
+        <v>1.013705793736861</v>
       </c>
       <c r="F19">
-        <v>0.9345390878847195</v>
+        <v>1.030831183487081</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034474309751259</v>
+        <v>1.050421401013953</v>
       </c>
       <c r="J19">
-        <v>0.9953422866342868</v>
+        <v>1.030948062759568</v>
       </c>
       <c r="K19">
-        <v>1.007244379413966</v>
+        <v>1.041104199730423</v>
       </c>
       <c r="L19">
-        <v>0.9911986197084418</v>
+        <v>1.027228770241438</v>
       </c>
       <c r="M19">
-        <v>0.9495210335152755</v>
+        <v>1.044076329616726</v>
       </c>
       <c r="N19">
-        <v>1.002487047860059</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014163958095392</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.044021882256549</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.040208895104407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9652353318848613</v>
+        <v>1.00241808965773</v>
       </c>
       <c r="D20">
-        <v>0.9920357497700327</v>
+        <v>1.026419969180327</v>
       </c>
       <c r="E20">
-        <v>0.9753729435621302</v>
+        <v>1.012146147458773</v>
       </c>
       <c r="F20">
-        <v>0.9315189027094088</v>
+        <v>1.028802274635213</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033952570961256</v>
+        <v>1.049745331485502</v>
       </c>
       <c r="J20">
-        <v>0.9941754267394064</v>
+        <v>1.029856115187016</v>
       </c>
       <c r="K20">
-        <v>1.006220101611152</v>
+        <v>1.040013636530798</v>
       </c>
       <c r="L20">
-        <v>0.9898631082833784</v>
+        <v>1.025978731688669</v>
       </c>
       <c r="M20">
-        <v>0.9468831886250981</v>
+        <v>1.042356896461744</v>
       </c>
       <c r="N20">
-        <v>1.002097436570364</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.01373927325446</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.042135738334062</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.039441734171586</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9589634183985306</v>
+        <v>0.9981249832640117</v>
       </c>
       <c r="D21">
-        <v>0.9875781040545484</v>
+        <v>1.023541613801163</v>
       </c>
       <c r="E21">
-        <v>0.9698381413022503</v>
+        <v>1.008499985410935</v>
       </c>
       <c r="F21">
-        <v>0.921413834982741</v>
+        <v>1.025703702422221</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032193441738562</v>
+        <v>1.048515681811913</v>
       </c>
       <c r="J21">
-        <v>0.9902830231161376</v>
+        <v>1.027701307873112</v>
       </c>
       <c r="K21">
-        <v>1.002798697537958</v>
+        <v>1.03809029967112</v>
       </c>
       <c r="L21">
-        <v>0.9854143924367341</v>
+        <v>1.023322092707508</v>
       </c>
       <c r="M21">
-        <v>0.938054429235214</v>
+        <v>1.04021394183267</v>
       </c>
       <c r="N21">
-        <v>1.000797801950231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013004358508736</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.040399028009044</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.038085086945884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9548994550257915</v>
+        <v>0.9953907561778308</v>
       </c>
       <c r="D22">
-        <v>0.9846925841218113</v>
+        <v>1.021719754739592</v>
       </c>
       <c r="E22">
-        <v>0.9662593562766583</v>
+        <v>1.006186743524497</v>
       </c>
       <c r="F22">
-        <v>0.9148222265099315</v>
+        <v>1.023777420681817</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031037005854284</v>
+        <v>1.047729201129545</v>
       </c>
       <c r="J22">
-        <v>0.987755209257603</v>
+        <v>1.026334595100051</v>
       </c>
       <c r="K22">
-        <v>1.000573507734147</v>
+        <v>1.036872878706499</v>
       </c>
       <c r="L22">
-        <v>0.9825302228343114</v>
+        <v>1.021636628111028</v>
       </c>
       <c r="M22">
-        <v>0.9322935586499713</v>
+        <v>1.038892113877355</v>
       </c>
       <c r="N22">
-        <v>0.9999538413946252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012539568806384</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.039352888901427</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.037210876975752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9570657740367263</v>
+        <v>0.9968360747588757</v>
       </c>
       <c r="D23">
-        <v>0.9862304154622727</v>
+        <v>1.022676987674387</v>
       </c>
       <c r="E23">
-        <v>0.9681663182847179</v>
+        <v>1.007407597192665</v>
       </c>
       <c r="F23">
-        <v>0.9183404346049445</v>
+        <v>1.02479291299493</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031654980874733</v>
+        <v>1.048141908335699</v>
       </c>
       <c r="J23">
-        <v>0.989103206840991</v>
+        <v>1.0270530460595</v>
       </c>
       <c r="K23">
-        <v>1.001760410288904</v>
+        <v>1.037509478319732</v>
       </c>
       <c r="L23">
-        <v>0.9840677849195868</v>
+        <v>1.022524277238166</v>
       </c>
       <c r="M23">
-        <v>0.935368505656375</v>
+        <v>1.039586891734651</v>
       </c>
       <c r="N23">
-        <v>1.000403890242604</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.0127825767593</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.039902759658415</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.037651382253394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9653385457747767</v>
+        <v>1.002435863407776</v>
       </c>
       <c r="D24">
-        <v>0.9921091454194678</v>
+        <v>1.026405439350203</v>
       </c>
       <c r="E24">
-        <v>0.9754641476625452</v>
+        <v>1.012153850471084</v>
       </c>
       <c r="F24">
-        <v>0.9316845525607654</v>
+        <v>1.028748848045336</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033981240357855</v>
+        <v>1.049728955532545</v>
       </c>
       <c r="J24">
-        <v>0.9942393878244953</v>
+        <v>1.029840468123394</v>
       </c>
       <c r="K24">
-        <v>1.006276265002982</v>
+        <v>1.039984188468594</v>
       </c>
       <c r="L24">
-        <v>0.9899362908721732</v>
+        <v>1.025970840465789</v>
       </c>
       <c r="M24">
-        <v>0.9470278800014729</v>
+        <v>1.04228923501952</v>
       </c>
       <c r="N24">
-        <v>1.002118792965792</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013727685044015</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.042041481783932</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.039393638683305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9744603009267834</v>
+        <v>1.008728316689184</v>
       </c>
       <c r="D25">
-        <v>0.9985991712364579</v>
+        <v>1.030615872342492</v>
       </c>
       <c r="E25">
-        <v>0.9835403715821934</v>
+        <v>1.017514550192464</v>
       </c>
       <c r="F25">
-        <v>0.9462497005077755</v>
+        <v>1.033229923512449</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036474951728772</v>
+        <v>1.051473455142988</v>
       </c>
       <c r="J25">
-        <v>0.9998788442207732</v>
+        <v>1.032965466765696</v>
       </c>
       <c r="K25">
-        <v>1.011219272259435</v>
+        <v>1.042756805104547</v>
       </c>
       <c r="L25">
-        <v>0.9963996916053595</v>
+        <v>1.02984692608065</v>
       </c>
       <c r="M25">
-        <v>0.9597439655252566</v>
+        <v>1.045333393826382</v>
       </c>
       <c r="N25">
-        <v>1.004001765941336</v>
+        <v>1.014787299768025</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.044450720244549</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.041351154383819</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.013567759135356</v>
+        <v>1.012784178264407</v>
       </c>
       <c r="D2">
-        <v>1.033853326643726</v>
+        <v>1.032468463241834</v>
       </c>
       <c r="E2">
-        <v>1.021654539516611</v>
+        <v>1.020875929029721</v>
       </c>
       <c r="F2">
-        <v>1.036697618712859</v>
+        <v>1.035736850054295</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052771038110595</v>
+        <v>1.052050032788959</v>
       </c>
       <c r="J2">
-        <v>1.035350097752875</v>
+        <v>1.034589126313404</v>
       </c>
       <c r="K2">
-        <v>1.044860348030119</v>
+        <v>1.043493259912634</v>
       </c>
       <c r="L2">
-        <v>1.032820215388632</v>
+        <v>1.032051892783814</v>
       </c>
       <c r="M2">
-        <v>1.047668318482586</v>
+        <v>1.046719790967612</v>
       </c>
       <c r="N2">
-        <v>1.015592448626134</v>
+        <v>1.016312053658793</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.046298644171948</v>
+        <v>1.045547953833519</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042790430501859</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041832517770299</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023573153035515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017012661228499</v>
+        <v>1.016105744183162</v>
       </c>
       <c r="D3">
-        <v>1.036174749645686</v>
+        <v>1.034630959454193</v>
       </c>
       <c r="E3">
-        <v>1.024614969931903</v>
+        <v>1.023712835450804</v>
       </c>
       <c r="F3">
-        <v>1.039184063978782</v>
+        <v>1.038108015252627</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053681982332126</v>
+        <v>1.052868793665813</v>
       </c>
       <c r="J3">
-        <v>1.037050048582588</v>
+        <v>1.036166776106739</v>
       </c>
       <c r="K3">
-        <v>1.046364780259475</v>
+        <v>1.044839105734477</v>
       </c>
       <c r="L3">
-        <v>1.03494229462215</v>
+        <v>1.034051036583731</v>
       </c>
       <c r="M3">
-        <v>1.049338972978231</v>
+        <v>1.048275453860224</v>
       </c>
       <c r="N3">
-        <v>1.016168386218454</v>
+        <v>1.016735525726981</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.047620843480124</v>
+        <v>1.046779147134269</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.043851532514098</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042781211754451</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023835886794243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019205150870903</v>
+        <v>1.018220481594347</v>
       </c>
       <c r="D4">
-        <v>1.037655999475994</v>
+        <v>1.036011529857459</v>
       </c>
       <c r="E4">
-        <v>1.026504316856441</v>
+        <v>1.025524194410898</v>
       </c>
       <c r="F4">
-        <v>1.040773330235006</v>
+        <v>1.039624369875125</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054252785800779</v>
+        <v>1.053381121589886</v>
       </c>
       <c r="J4">
-        <v>1.038130026353647</v>
+        <v>1.037169316532049</v>
       </c>
       <c r="K4">
-        <v>1.047320237784737</v>
+        <v>1.045693918808597</v>
       </c>
       <c r="L4">
-        <v>1.036293045163204</v>
+        <v>1.035324023695316</v>
       </c>
       <c r="M4">
-        <v>1.050403354674111</v>
+        <v>1.049266975259387</v>
       </c>
       <c r="N4">
-        <v>1.016534301807361</v>
+        <v>1.017004700162176</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.048463221533304</v>
+        <v>1.04756386266647</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044528005057232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043386603903763</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024000477910735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020121263309862</v>
+        <v>1.019104237252576</v>
       </c>
       <c r="D5">
-        <v>1.038277673723759</v>
+        <v>1.03659127398778</v>
       </c>
       <c r="E5">
-        <v>1.027295376582902</v>
+        <v>1.026282774842581</v>
       </c>
       <c r="F5">
-        <v>1.041439641931949</v>
+        <v>1.040260330470741</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054490534322538</v>
+        <v>1.053594482290328</v>
       </c>
       <c r="J5">
-        <v>1.038582206407413</v>
+        <v>1.037589198026444</v>
       </c>
       <c r="K5">
-        <v>1.047721484270715</v>
+        <v>1.046053209536336</v>
       </c>
       <c r="L5">
-        <v>1.036858534117636</v>
+        <v>1.035857094584312</v>
       </c>
       <c r="M5">
-        <v>1.05084966213723</v>
+        <v>1.049682923962569</v>
       </c>
       <c r="N5">
-        <v>1.016687876135935</v>
+        <v>1.01711772570748</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.048816440035889</v>
+        <v>1.047893054918199</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.04481884077822</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043648484903335</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024069595626788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020278136521743</v>
+        <v>1.019255532129036</v>
       </c>
       <c r="D6">
-        <v>1.038386445205375</v>
+        <v>1.036692906739149</v>
       </c>
       <c r="E6">
-        <v>1.027431376496068</v>
+        <v>1.026413175193273</v>
       </c>
       <c r="F6">
-        <v>1.041554623760626</v>
+        <v>1.040370131471539</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.05453285409793</v>
+        <v>1.053632629390588</v>
       </c>
       <c r="J6">
-        <v>1.038661321640771</v>
+        <v>1.037662744197206</v>
       </c>
       <c r="K6">
-        <v>1.047793233007416</v>
+        <v>1.046117814061407</v>
       </c>
       <c r="L6">
-        <v>1.036956672045298</v>
+        <v>1.035949643063001</v>
       </c>
       <c r="M6">
-        <v>1.050927708178326</v>
+        <v>1.049755787224322</v>
       </c>
       <c r="N6">
-        <v>1.016715188487081</v>
+        <v>1.017137856630831</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.048878207540007</v>
+        <v>1.0479507207187</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04487826042557</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043703721696251</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024082589860811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019226965940625</v>
+        <v>1.018248404079243</v>
       </c>
       <c r="D7">
-        <v>1.03767685741869</v>
+        <v>1.036036381982361</v>
       </c>
       <c r="E7">
-        <v>1.026524407710402</v>
+        <v>1.025550360649053</v>
       </c>
       <c r="F7">
-        <v>1.040791297747756</v>
+        <v>1.03964579455743</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054263107881083</v>
+        <v>1.053394482551788</v>
       </c>
       <c r="J7">
-        <v>1.038145395656169</v>
+        <v>1.037190634407661</v>
       </c>
       <c r="K7">
-        <v>1.047338009801051</v>
+        <v>1.045715633914641</v>
       </c>
       <c r="L7">
-        <v>1.036310011088867</v>
+        <v>1.035346991899366</v>
       </c>
       <c r="M7">
-        <v>1.050418280921834</v>
+        <v>1.049285316067099</v>
       </c>
       <c r="N7">
-        <v>1.016540724366956</v>
+        <v>1.017037227988506</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048475034528868</v>
+        <v>1.047578378045475</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044560554318956</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043423939553214</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024006915907354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014751627871135</v>
+        <v>1.013946837849227</v>
       </c>
       <c r="D8">
-        <v>1.03465776000999</v>
+        <v>1.033233337842993</v>
       </c>
       <c r="E8">
-        <v>1.022672419960372</v>
+        <v>1.021872437164427</v>
       </c>
       <c r="F8">
-        <v>1.037553279083412</v>
+        <v>1.036565581500573</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053091621498534</v>
+        <v>1.052349972748428</v>
       </c>
       <c r="J8">
-        <v>1.035940402091462</v>
+        <v>1.035158064794205</v>
       </c>
       <c r="K8">
-        <v>1.045387874884645</v>
+        <v>1.043981200278467</v>
       </c>
       <c r="L8">
-        <v>1.033553792879906</v>
+        <v>1.032764063961264</v>
       </c>
       <c r="M8">
-        <v>1.048247504282776</v>
+        <v>1.047272021059407</v>
       </c>
       <c r="N8">
-        <v>1.015794007641907</v>
+        <v>1.016544649879364</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046757027107866</v>
+        <v>1.04598500376234</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.043186202692521</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042202566104657</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023672857617318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006558872671773</v>
+        <v>1.006055368862969</v>
       </c>
       <c r="D9">
-        <v>1.029152770541033</v>
+        <v>1.02811129224852</v>
       </c>
       <c r="E9">
-        <v>1.015660945226548</v>
+        <v>1.015161803441297</v>
       </c>
       <c r="F9">
-        <v>1.031677431990969</v>
+        <v>1.030968576078201</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050870350026836</v>
+        <v>1.050350709185929</v>
       </c>
       <c r="J9">
-        <v>1.031882127386065</v>
+        <v>1.031396093716176</v>
       </c>
       <c r="K9">
-        <v>1.041789930954221</v>
+        <v>1.040764172860156</v>
       </c>
       <c r="L9">
-        <v>1.028504943653085</v>
+        <v>1.028013588845433</v>
       </c>
       <c r="M9">
-        <v>1.044276652485915</v>
+        <v>1.043578425185616</v>
       </c>
       <c r="N9">
-        <v>1.014417899105137</v>
+        <v>1.015543831227273</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.043614384398452</v>
+        <v>1.043061786469619</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.040639089163134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.039924502008685</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023030584105269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000937176720484</v>
+        <v>1.000672262136301</v>
       </c>
       <c r="D10">
-        <v>1.025423367955936</v>
+        <v>1.024665289131265</v>
       </c>
       <c r="E10">
-        <v>1.010887075240991</v>
+        <v>1.010624988194495</v>
       </c>
       <c r="F10">
-        <v>1.027765050726131</v>
+        <v>1.027265833142957</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049322459501141</v>
+        <v>1.048969738070051</v>
       </c>
       <c r="J10">
-        <v>1.029113660941821</v>
+        <v>1.028859233072276</v>
       </c>
       <c r="K10">
-        <v>1.039348282092175</v>
+        <v>1.03860304103387</v>
       </c>
       <c r="L10">
-        <v>1.025062503610193</v>
+        <v>1.024805019007951</v>
       </c>
       <c r="M10">
-        <v>1.041650463618984</v>
+        <v>1.041159647728781</v>
       </c>
       <c r="N10">
-        <v>1.013485424353596</v>
+        <v>1.014984362192303</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.041587183020863</v>
+        <v>1.041198759677912</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.03892943638387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038414868159754</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022596717367961</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.998851086202554</v>
+        <v>0.9986916997805</v>
       </c>
       <c r="D11">
-        <v>1.024232258359279</v>
+        <v>1.023581279618401</v>
       </c>
       <c r="E11">
-        <v>1.009179046504425</v>
+        <v>1.00902150588793</v>
       </c>
       <c r="F11">
-        <v>1.026957785030954</v>
+        <v>1.026541144987911</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048896069777651</v>
+        <v>1.04860995514079</v>
       </c>
       <c r="J11">
-        <v>1.028271739564585</v>
+        <v>1.028119007037914</v>
       </c>
       <c r="K11">
-        <v>1.038711215052891</v>
+        <v>1.038071780335838</v>
       </c>
       <c r="L11">
-        <v>1.023929910940237</v>
+        <v>1.023775271896269</v>
       </c>
       <c r="M11">
-        <v>1.041388615037122</v>
+        <v>1.040979310470922</v>
       </c>
       <c r="N11">
-        <v>1.013250241170636</v>
+        <v>1.015048082588713</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.041814494907153</v>
+        <v>1.041490739984778</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.038511695664826</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038075149936792</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022539641024666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9982026990648619</v>
+        <v>0.9980688630584275</v>
       </c>
       <c r="D12">
-        <v>1.023934452967763</v>
+        <v>1.023307271120699</v>
       </c>
       <c r="E12">
-        <v>1.008671742820048</v>
+        <v>1.008539502062758</v>
       </c>
       <c r="F12">
-        <v>1.026973599793108</v>
+        <v>1.026575960382111</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048822481771349</v>
+        <v>1.048551716600144</v>
       </c>
       <c r="J12">
-        <v>1.028083319153583</v>
+        <v>1.027955177531583</v>
       </c>
       <c r="K12">
-        <v>1.03861703668639</v>
+        <v>1.038001160677884</v>
       </c>
       <c r="L12">
-        <v>1.023634670584784</v>
+        <v>1.023504907223523</v>
       </c>
       <c r="M12">
-        <v>1.041601652576921</v>
+        <v>1.041211124104739</v>
       </c>
       <c r="N12">
-        <v>1.013224228109376</v>
+        <v>1.015130717901113</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.042308203552644</v>
+        <v>1.041999404122159</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.038445109105458</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038025220980106</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022559506708197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9986311138685541</v>
+        <v>0.9984527389451819</v>
       </c>
       <c r="D13">
-        <v>1.024321835021053</v>
+        <v>1.02364874523184</v>
       </c>
       <c r="E13">
-        <v>1.009066378808791</v>
+        <v>1.00889011452777</v>
       </c>
       <c r="F13">
-        <v>1.027648142957553</v>
+        <v>1.027215855758997</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049030182978934</v>
+        <v>1.048731172986895</v>
       </c>
       <c r="J13">
-        <v>1.02840068719609</v>
+        <v>1.028229865137486</v>
       </c>
       <c r="K13">
-        <v>1.038954923205719</v>
+        <v>1.038293915130545</v>
       </c>
       <c r="L13">
-        <v>1.0239784608093</v>
+        <v>1.023805484418119</v>
       </c>
       <c r="M13">
-        <v>1.042221826704361</v>
+        <v>1.041797231478755</v>
       </c>
       <c r="N13">
-        <v>1.013364325664881</v>
+        <v>1.015202865494647</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.043074306781623</v>
+        <v>1.042738653876426</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.038681523159872</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038229479028503</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022645486987874</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9994188895026604</v>
+        <v>0.999178580551689</v>
       </c>
       <c r="D14">
-        <v>1.024903659463741</v>
+        <v>1.024167733062819</v>
       </c>
       <c r="E14">
-        <v>1.009751269238953</v>
+        <v>1.009513742921367</v>
       </c>
       <c r="F14">
-        <v>1.028417781088403</v>
+        <v>1.027937673471543</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049302706592791</v>
+        <v>1.048964730410664</v>
       </c>
       <c r="J14">
-        <v>1.028851551990001</v>
+        <v>1.028621274465032</v>
       </c>
       <c r="K14">
-        <v>1.039387103812913</v>
+        <v>1.038664224048424</v>
       </c>
       <c r="L14">
-        <v>1.024508335262653</v>
+        <v>1.024275183400813</v>
       </c>
       <c r="M14">
-        <v>1.042839260091149</v>
+        <v>1.042367585941107</v>
       </c>
       <c r="N14">
-        <v>1.013537546242335</v>
+        <v>1.015250033191814</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.043735173131972</v>
+        <v>1.043362353281755</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.038988503840624</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038492848256361</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022735963050382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9998506596093881</v>
+        <v>0.9995802247094782</v>
       </c>
       <c r="D15">
-        <v>1.025203466079005</v>
+        <v>1.024436995872763</v>
       </c>
       <c r="E15">
-        <v>1.010120608219327</v>
+        <v>1.009853263608998</v>
       </c>
       <c r="F15">
-        <v>1.028765369254595</v>
+        <v>1.028261954768432</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049435602237853</v>
+        <v>1.049078647672231</v>
       </c>
       <c r="J15">
-        <v>1.029078526134144</v>
+        <v>1.028819282595621</v>
       </c>
       <c r="K15">
-        <v>1.039595857425042</v>
+        <v>1.0388428730144</v>
       </c>
       <c r="L15">
-        <v>1.024783274038351</v>
+        <v>1.024520814866793</v>
       </c>
       <c r="M15">
-        <v>1.043095431461376</v>
+        <v>1.042600792209702</v>
       </c>
       <c r="N15">
-        <v>1.013618829099085</v>
+        <v>1.015264359830595</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043975081800452</v>
+        <v>1.043584120170732</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.039141939605761</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038625567835595</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022775454626638</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.002148633768784</v>
+        <v>1.001740101540739</v>
       </c>
       <c r="D16">
-        <v>1.026714849514208</v>
+        <v>1.025805395091372</v>
       </c>
       <c r="E16">
-        <v>1.012062385498061</v>
+        <v>1.01165817050527</v>
       </c>
       <c r="F16">
-        <v>1.030326644957587</v>
+        <v>1.029714362826861</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050069324805352</v>
+        <v>1.049624002927363</v>
       </c>
       <c r="J16">
-        <v>1.030200748877687</v>
+        <v>1.029808284905615</v>
       </c>
       <c r="K16">
-        <v>1.040582636885519</v>
+        <v>1.039688491872994</v>
       </c>
       <c r="L16">
-        <v>1.026181164167467</v>
+        <v>1.025784006694454</v>
       </c>
       <c r="M16">
-        <v>1.044133976420229</v>
+        <v>1.043531904488709</v>
       </c>
       <c r="N16">
-        <v>1.013990921065294</v>
+        <v>1.015317921620576</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.044757342689566</v>
+        <v>1.04428145306289</v>
       </c>
       <c r="Q16">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R16">
-        <v>1.039842772153451</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039226894197285</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022941395865841</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.003501421848948</v>
+        <v>1.003026740037553</v>
       </c>
       <c r="D17">
-        <v>1.027571415842187</v>
+        <v>1.026590155611483</v>
       </c>
       <c r="E17">
-        <v>1.013196696686863</v>
+        <v>1.012726783910762</v>
       </c>
       <c r="F17">
-        <v>1.031117457028323</v>
+        <v>1.030450919870587</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050410693324333</v>
+        <v>1.049921631498678</v>
       </c>
       <c r="J17">
-        <v>1.030825707379591</v>
+        <v>1.030369099934748</v>
       </c>
       <c r="K17">
-        <v>1.041112692209176</v>
+        <v>1.040147490389841</v>
       </c>
       <c r="L17">
-        <v>1.026977229934415</v>
+        <v>1.026515286505076</v>
       </c>
       <c r="M17">
-        <v>1.044601029280925</v>
+        <v>1.043945299642098</v>
       </c>
       <c r="N17">
-        <v>1.014185654431977</v>
+        <v>1.015362994917375</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.044997875988396</v>
+        <v>1.044479522892669</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.040220112383682</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039554242236028</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023021796727979</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.004154003450153</v>
+        <v>1.003661114149424</v>
       </c>
       <c r="D18">
-        <v>1.027918509331527</v>
+        <v>1.026915465015513</v>
       </c>
       <c r="E18">
-        <v>1.013724571751958</v>
+        <v>1.013236489847839</v>
       </c>
       <c r="F18">
-        <v>1.031266537590217</v>
+        <v>1.030583541254954</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050518939856401</v>
+        <v>1.05001695672563</v>
       </c>
       <c r="J18">
-        <v>1.031060990908506</v>
+        <v>1.030586518956471</v>
       </c>
       <c r="K18">
-        <v>1.041272127053837</v>
+        <v>1.040285231129598</v>
       </c>
       <c r="L18">
-        <v>1.027310533088889</v>
+        <v>1.026830589847661</v>
       </c>
       <c r="M18">
-        <v>1.044566545612072</v>
+        <v>1.043894449379254</v>
       </c>
       <c r="N18">
-        <v>1.014237097833136</v>
+        <v>1.015361296870473</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.044733749419688</v>
+        <v>1.044202348506576</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.040321262402803</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039638918926127</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023026288900985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.004175592015276</v>
+        <v>1.003702744300267</v>
       </c>
       <c r="D19">
-        <v>1.027810917090075</v>
+        <v>1.026828290733742</v>
       </c>
       <c r="E19">
-        <v>1.013705793736861</v>
+        <v>1.013237514824551</v>
       </c>
       <c r="F19">
-        <v>1.030831183487081</v>
+        <v>1.030163234349977</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050421401013953</v>
+        <v>1.049932024995059</v>
       </c>
       <c r="J19">
-        <v>1.030948062759568</v>
+        <v>1.030492778744977</v>
       </c>
       <c r="K19">
-        <v>1.041104199730423</v>
+        <v>1.040137312608141</v>
       </c>
       <c r="L19">
-        <v>1.027228770241438</v>
+        <v>1.026768258195419</v>
       </c>
       <c r="M19">
-        <v>1.044076329616726</v>
+        <v>1.043418994997144</v>
       </c>
       <c r="N19">
-        <v>1.014163958095392</v>
+        <v>1.015301093533076</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.044021882256549</v>
+        <v>1.043501984156327</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.040208895104407</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039541323518643</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022964655362343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00241808965773</v>
+        <v>1.002069793977879</v>
       </c>
       <c r="D20">
-        <v>1.026419969180327</v>
+        <v>1.025573253534064</v>
       </c>
       <c r="E20">
-        <v>1.012146147458773</v>
+        <v>1.011801383956782</v>
       </c>
       <c r="F20">
-        <v>1.028802274635213</v>
+        <v>1.028235834516078</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049745331485502</v>
+        <v>1.049338352182054</v>
       </c>
       <c r="J20">
-        <v>1.029856115187016</v>
+        <v>1.029521161040015</v>
       </c>
       <c r="K20">
-        <v>1.040013636530798</v>
+        <v>1.039180854598703</v>
       </c>
       <c r="L20">
-        <v>1.025978731688669</v>
+        <v>1.025639846564373</v>
       </c>
       <c r="M20">
-        <v>1.042356896461744</v>
+        <v>1.041799719110402</v>
       </c>
       <c r="N20">
-        <v>1.01373927325446</v>
+        <v>1.015065066172963</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.042135738334062</v>
+        <v>1.041694792372696</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.039441734171586</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.038869370755324</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022715983291391</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9981249832640117</v>
+        <v>0.9980612636975335</v>
       </c>
       <c r="D21">
-        <v>1.023541613801163</v>
+        <v>1.022984712012519</v>
       </c>
       <c r="E21">
-        <v>1.008499985410935</v>
+        <v>1.008437011581847</v>
       </c>
       <c r="F21">
-        <v>1.025703702422221</v>
+        <v>1.025359225849303</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048515681811913</v>
+        <v>1.048288690578418</v>
       </c>
       <c r="J21">
-        <v>1.027701307873112</v>
+        <v>1.027640266911181</v>
       </c>
       <c r="K21">
-        <v>1.03809029967112</v>
+        <v>1.037543334937088</v>
       </c>
       <c r="L21">
-        <v>1.023322092707508</v>
+        <v>1.023260285952805</v>
       </c>
       <c r="M21">
-        <v>1.04021394183267</v>
+        <v>1.03987557668487</v>
       </c>
       <c r="N21">
-        <v>1.013004358508736</v>
+        <v>1.014975934266363</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.040399028009044</v>
+        <v>1.040131234593986</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.038085086945884</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.037715135083418</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022382568167291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9953907561778308</v>
+        <v>0.9955062562492077</v>
       </c>
       <c r="D22">
-        <v>1.021719754739592</v>
+        <v>1.021345212691986</v>
       </c>
       <c r="E22">
-        <v>1.006186743524497</v>
+        <v>1.006300772380873</v>
       </c>
       <c r="F22">
-        <v>1.023777420681817</v>
+        <v>1.023572788561661</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047729201129545</v>
+        <v>1.047615094255396</v>
       </c>
       <c r="J22">
-        <v>1.026334595100051</v>
+        <v>1.026444959157598</v>
       </c>
       <c r="K22">
-        <v>1.036872878706499</v>
+        <v>1.036505353684588</v>
       </c>
       <c r="L22">
-        <v>1.021636628111028</v>
+        <v>1.021748434648177</v>
       </c>
       <c r="M22">
-        <v>1.038892113877355</v>
+        <v>1.038691294617947</v>
       </c>
       <c r="N22">
-        <v>1.012539568806384</v>
+        <v>1.014913058407259</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.039352888901427</v>
+        <v>1.039193953651082</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.037210876975752</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.036966497100784</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022170512003939</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9968360747588757</v>
+        <v>0.996845678223535</v>
       </c>
       <c r="D23">
-        <v>1.022676987674387</v>
+        <v>1.022198067978429</v>
       </c>
       <c r="E23">
-        <v>1.007407597192665</v>
+        <v>1.007417083638827</v>
       </c>
       <c r="F23">
-        <v>1.02479291299493</v>
+        <v>1.024507617901141</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048141908335699</v>
+        <v>1.04796241623403</v>
       </c>
       <c r="J23">
-        <v>1.0270530460595</v>
+        <v>1.027062234915874</v>
       </c>
       <c r="K23">
-        <v>1.037509478319732</v>
+        <v>1.03703930423661</v>
       </c>
       <c r="L23">
-        <v>1.022524277238166</v>
+        <v>1.022533583628342</v>
       </c>
       <c r="M23">
-        <v>1.039586891734651</v>
+        <v>1.039306777218932</v>
       </c>
       <c r="N23">
-        <v>1.0127825767593</v>
+        <v>1.014901335978218</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.039902759658415</v>
+        <v>1.039681067582292</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.037651382253394</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037333482881077</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022277272536207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002435863407776</v>
+        <v>1.002089657822803</v>
       </c>
       <c r="D24">
-        <v>1.026405439350203</v>
+        <v>1.02556055580358</v>
       </c>
       <c r="E24">
-        <v>1.012153850471084</v>
+        <v>1.011811147869866</v>
       </c>
       <c r="F24">
-        <v>1.028748848045336</v>
+        <v>1.028183816434142</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049728955532545</v>
+        <v>1.04932319577842</v>
       </c>
       <c r="J24">
-        <v>1.029840468123394</v>
+        <v>1.029507504693733</v>
       </c>
       <c r="K24">
-        <v>1.039984188468594</v>
+        <v>1.039153191168339</v>
       </c>
       <c r="L24">
-        <v>1.025970840465789</v>
+        <v>1.025633973464781</v>
       </c>
       <c r="M24">
-        <v>1.04228923501952</v>
+        <v>1.041733432543836</v>
       </c>
       <c r="N24">
-        <v>1.013727685044015</v>
+        <v>1.015053091369069</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.042041481783932</v>
+        <v>1.04160160219444</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.039393638683305</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.038819865260119</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022703641873628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008728316689184</v>
+        <v>1.008135339159806</v>
       </c>
       <c r="D25">
-        <v>1.030615872342492</v>
+        <v>1.029466549683844</v>
       </c>
       <c r="E25">
-        <v>1.017514550192464</v>
+        <v>1.01692627526895</v>
       </c>
       <c r="F25">
-        <v>1.033229923512449</v>
+        <v>1.032441618542713</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051473455142988</v>
+        <v>1.050890350456248</v>
       </c>
       <c r="J25">
-        <v>1.032965466765696</v>
+        <v>1.032391984577657</v>
       </c>
       <c r="K25">
-        <v>1.042756805104547</v>
+        <v>1.041624029882096</v>
       </c>
       <c r="L25">
-        <v>1.02984692608065</v>
+        <v>1.029267394443411</v>
       </c>
       <c r="M25">
-        <v>1.045333393826382</v>
+        <v>1.044556360910733</v>
       </c>
       <c r="N25">
-        <v>1.014787299768025</v>
+        <v>1.01577978098937</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.044450720244549</v>
+        <v>1.043835753878109</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041351154383819</v>
+        <v>1.040563703408959</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023206001443371</v>
       </c>
     </row>
   </sheetData>
